--- a/mammoth-tables-description.xlsx
+++ b/mammoth-tables-description.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Google Drive (sereprec@gmail.com)\CoderHouse - SQL\proyecto_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7996176F-42DB-45A6-8B6B-FED2F20F3221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC593774-9A9F-4066-ACD1-0516ED57A346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{DA2EB09C-6906-4C44-BFBB-5AF4F6908B77}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{DA2EB09C-6906-4C44-BFBB-5AF4F6908B77}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$N$254</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$N$262</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="235">
   <si>
     <t>Descripción de tablas</t>
   </si>
@@ -738,6 +738,9 @@
   </si>
   <si>
     <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>stock de los productos</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1716,27 +1719,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1746,6 +1738,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1764,6 +1765,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1774,15 +1785,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1796,52 +1834,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2159,10 +2171,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R255"/>
+  <dimension ref="A1:R263"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B148" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167:L174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,18 +2195,18 @@
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="11"/>
       <c r="B1" s="49"/>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
     </row>
@@ -2252,56 +2264,56 @@
       <c r="B6" s="50">
         <v>1</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="72"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="68"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="75"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="71"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78" t="s">
+      <c r="E8" s="79"/>
+      <c r="F8" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="79"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="81"/>
       <c r="I8" s="34" t="s">
         <v>1</v>
       </c>
       <c r="J8" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="80" t="s">
+      <c r="K8" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="L8" s="81"/>
+      <c r="L8" s="83"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -2311,23 +2323,23 @@
       <c r="C9" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="53" t="s">
+      <c r="E9" s="73"/>
+      <c r="F9" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="37" t="s">
         <v>63</v>
       </c>
       <c r="J9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="55"/>
-      <c r="L9" s="56"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="77"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -2335,105 +2347,105 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C10" s="36"/>
-      <c r="D10" s="58" t="s">
+      <c r="D10" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="53" t="s">
+      <c r="E10" s="73"/>
+      <c r="F10" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="37" t="s">
         <v>24</v>
       </c>
       <c r="J10" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="55"/>
-      <c r="L10" s="56"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="77"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C11" s="36"/>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="53" t="s">
+      <c r="E11" s="73"/>
+      <c r="F11" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="54"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75"/>
       <c r="I11" s="37" t="s">
         <v>24</v>
       </c>
       <c r="J11" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="55"/>
-      <c r="L11" s="56"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="77"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C12" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="53" t="s">
+      <c r="E12" s="73"/>
+      <c r="F12" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
       <c r="I12" s="37" t="s">
         <v>1</v>
       </c>
       <c r="J12" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="55" t="s">
+      <c r="K12" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="L12" s="56"/>
+      <c r="L12" s="77"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C13" s="36"/>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="53" t="s">
+      <c r="E13" s="73"/>
+      <c r="F13" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="54"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="75"/>
       <c r="I13" s="37" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="55"/>
-      <c r="L13" s="56"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="77"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C14" s="36"/>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="53" t="s">
+      <c r="E14" s="73"/>
+      <c r="F14" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
       <c r="I14" s="37" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="38"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="77"/>
       <c r="N14" s="48"/>
       <c r="O14" s="32"/>
       <c r="P14" s="32"/>
@@ -2442,46 +2454,46 @@
       <c r="C15" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="53" t="s">
+      <c r="E15" s="73"/>
+      <c r="F15" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="54"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
       <c r="I15" s="37" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="55"/>
-      <c r="L15" s="56"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="77"/>
       <c r="N15" s="32"/>
       <c r="O15" s="32"/>
       <c r="P15" s="32"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" s="36"/>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="53" t="s">
+      <c r="E16" s="73"/>
+      <c r="F16" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="54"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
       <c r="I16" s="37" t="s">
         <v>217</v>
       </c>
       <c r="J16" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="56"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="77"/>
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
       <c r="P16" s="32"/>
@@ -2490,105 +2502,105 @@
       <c r="C17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="53" t="s">
+      <c r="E17" s="73"/>
+      <c r="F17" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="53"/>
-      <c r="H17" s="54"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
       <c r="I17" s="37" t="s">
         <v>1</v>
       </c>
       <c r="J17" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="55" t="s">
+      <c r="K17" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="L17" s="56"/>
+      <c r="L17" s="77"/>
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
       <c r="P17" s="32"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C18" s="36"/>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="53" t="s">
+      <c r="E18" s="73"/>
+      <c r="F18" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="54"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
       <c r="I18" s="37" t="s">
         <v>66</v>
       </c>
       <c r="J18" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="55"/>
-      <c r="L18" s="56"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="77"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C19" s="39"/>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65" t="s">
+      <c r="E19" s="57"/>
+      <c r="F19" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="65"/>
-      <c r="H19" s="66"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
       <c r="I19" s="40" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K19" s="67" t="s">
+      <c r="K19" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="68"/>
+      <c r="L19" s="61"/>
     </row>
     <row r="20" spans="2:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="64"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C21" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="82" t="s">
+      <c r="D21" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="82" t="s">
+      <c r="H21" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
       <c r="K21" s="8"/>
       <c r="L21" s="22"/>
     </row>
@@ -2596,19 +2608,19 @@
       <c r="C22" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
       <c r="G22" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
       <c r="K22" s="25"/>
       <c r="L22" s="26"/>
     </row>
@@ -2618,108 +2630,108 @@
       <c r="B25" s="50">
         <v>2</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="72"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="68"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="75"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="71"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C27" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="76" t="s">
+      <c r="D27" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78" t="s">
+      <c r="E27" s="79"/>
+      <c r="F27" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="78"/>
-      <c r="H27" s="79"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="81"/>
       <c r="I27" s="34" t="s">
         <v>1</v>
       </c>
       <c r="J27" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="80" t="s">
+      <c r="K27" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="L27" s="81"/>
+      <c r="L27" s="83"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="65" t="s">
+      <c r="E28" s="57"/>
+      <c r="F28" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="65"/>
-      <c r="H28" s="66"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="59"/>
       <c r="I28" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J28" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K28" s="67" t="s">
+      <c r="K28" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="L28" s="68"/>
+      <c r="L28" s="61"/>
     </row>
     <row r="29" spans="2:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="107" t="s">
+      <c r="C29" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="109"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="90"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C30" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="82" t="s">
+      <c r="D30" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
       <c r="K30" s="8"/>
       <c r="L30" s="22"/>
     </row>
@@ -2727,19 +2739,19 @@
       <c r="C31" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="57" t="s">
+      <c r="H31" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
       <c r="K31" s="9"/>
       <c r="L31" s="29"/>
     </row>
@@ -2747,19 +2759,19 @@
       <c r="C32" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
       <c r="G32" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="52" t="s">
+      <c r="H32" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
       <c r="K32" s="25"/>
       <c r="L32" s="26"/>
     </row>
@@ -2769,109 +2781,109 @@
       <c r="B35" s="50">
         <v>3</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="72"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="68"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C36" s="73" t="s">
+      <c r="C36" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="74"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="75"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="71"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C37" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="76" t="s">
+      <c r="D37" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="78" t="s">
+      <c r="E37" s="79"/>
+      <c r="F37" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="78"/>
-      <c r="H37" s="79"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="81"/>
       <c r="I37" s="34" t="s">
         <v>1</v>
       </c>
       <c r="J37" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K37" s="80" t="s">
+      <c r="K37" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="L37" s="81"/>
+      <c r="L37" s="83"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="51"/>
       <c r="C38" s="36"/>
-      <c r="D38" s="58" t="s">
+      <c r="D38" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="53" t="s">
+      <c r="E38" s="73"/>
+      <c r="F38" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="54"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="75"/>
       <c r="I38" s="37" t="s">
         <v>26</v>
       </c>
       <c r="J38" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="55"/>
-      <c r="L38" s="56"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="77"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C39" s="39"/>
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="64"/>
-      <c r="F39" s="65" t="s">
+      <c r="E39" s="57"/>
+      <c r="F39" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="65"/>
-      <c r="H39" s="66"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="59"/>
       <c r="I39" s="40" t="s">
         <v>50</v>
       </c>
       <c r="J39" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K39" s="67"/>
-      <c r="L39" s="68"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="61"/>
     </row>
     <row r="40" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="83"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="85"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="93"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2879,108 +2891,108 @@
       <c r="B43" s="50">
         <v>4</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="72"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="68"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C44" s="73" t="s">
+      <c r="C44" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="75"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="71"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="76" t="s">
+      <c r="D45" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="77"/>
-      <c r="F45" s="78" t="s">
+      <c r="E45" s="79"/>
+      <c r="F45" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="G45" s="78"/>
-      <c r="H45" s="79"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="81"/>
       <c r="I45" s="34" t="s">
         <v>1</v>
       </c>
       <c r="J45" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="80" t="s">
+      <c r="K45" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="L45" s="81"/>
+      <c r="L45" s="83"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C46" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="63" t="s">
+      <c r="D46" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="64"/>
-      <c r="F46" s="65" t="s">
+      <c r="E46" s="57"/>
+      <c r="F46" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="G46" s="65"/>
-      <c r="H46" s="66"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="59"/>
       <c r="I46" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J46" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="67" t="s">
+      <c r="K46" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="L46" s="68"/>
+      <c r="L46" s="61"/>
     </row>
     <row r="47" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="107" t="s">
+      <c r="C47" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="108"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="109"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="90"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C48" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="82" t="s">
+      <c r="D48" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="86"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="86"/>
       <c r="K48" s="8"/>
       <c r="L48" s="22"/>
     </row>
@@ -2988,19 +3000,19 @@
       <c r="C49" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="57" t="s">
+      <c r="D49" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
       <c r="G49" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="57" t="s">
+      <c r="H49" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
       <c r="K49" s="9"/>
       <c r="L49" s="29"/>
     </row>
@@ -3008,19 +3020,19 @@
       <c r="C50" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="52" t="s">
+      <c r="D50" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
       <c r="G50" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H50" s="52" t="s">
+      <c r="H50" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
       <c r="K50" s="25"/>
       <c r="L50" s="26"/>
     </row>
@@ -3030,89 +3042,89 @@
       <c r="B53" s="50">
         <v>5</v>
       </c>
-      <c r="C53" s="69" t="s">
+      <c r="C53" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="72"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="68"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C54" s="73" t="s">
+      <c r="C54" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="74"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="74"/>
-      <c r="H54" s="74"/>
-      <c r="I54" s="74"/>
-      <c r="J54" s="74"/>
-      <c r="K54" s="74"/>
-      <c r="L54" s="75"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="71"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C55" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="76" t="s">
+      <c r="D55" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="77"/>
-      <c r="F55" s="78" t="s">
+      <c r="E55" s="79"/>
+      <c r="F55" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="G55" s="78"/>
-      <c r="H55" s="79"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="81"/>
       <c r="I55" s="34" t="s">
         <v>1</v>
       </c>
       <c r="J55" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K55" s="80" t="s">
+      <c r="K55" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="L55" s="81"/>
+      <c r="L55" s="83"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="51"/>
       <c r="C56" s="39"/>
-      <c r="D56" s="63" t="s">
+      <c r="D56" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="64"/>
-      <c r="F56" s="65" t="s">
+      <c r="E56" s="57"/>
+      <c r="F56" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="G56" s="65"/>
-      <c r="H56" s="66"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="59"/>
       <c r="I56" s="40" t="s">
         <v>26</v>
       </c>
       <c r="J56" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K56" s="67"/>
-      <c r="L56" s="68"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="61"/>
     </row>
     <row r="57" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="83"/>
-      <c r="D57" s="84"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
-      <c r="J57" s="84"/>
-      <c r="K57" s="84"/>
-      <c r="L57" s="85"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="92"/>
+      <c r="H57" s="92"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="92"/>
+      <c r="L57" s="93"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3120,155 +3132,155 @@
       <c r="B60" s="50">
         <v>6</v>
       </c>
-      <c r="C60" s="69" t="s">
+      <c r="C60" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="71"/>
-      <c r="L60" s="72"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="68"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C61" s="73" t="s">
+      <c r="C61" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="74"/>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="74"/>
-      <c r="J61" s="74"/>
-      <c r="K61" s="74"/>
-      <c r="L61" s="75"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="71"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C62" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="76" t="s">
+      <c r="D62" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="77"/>
-      <c r="F62" s="78" t="s">
+      <c r="E62" s="79"/>
+      <c r="F62" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="G62" s="78"/>
-      <c r="H62" s="79"/>
+      <c r="G62" s="80"/>
+      <c r="H62" s="81"/>
       <c r="I62" s="34" t="s">
         <v>1</v>
       </c>
       <c r="J62" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="80" t="s">
+      <c r="K62" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="L62" s="81"/>
+      <c r="L62" s="83"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C63" s="36"/>
-      <c r="D63" s="58" t="s">
+      <c r="D63" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="E63" s="59"/>
-      <c r="F63" s="53" t="s">
+      <c r="E63" s="73"/>
+      <c r="F63" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="G63" s="53"/>
-      <c r="H63" s="54"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="75"/>
       <c r="I63" s="37" t="s">
         <v>25</v>
       </c>
       <c r="J63" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K63" s="55"/>
-      <c r="L63" s="56"/>
+      <c r="K63" s="76"/>
+      <c r="L63" s="77"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C64" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="58" t="s">
+      <c r="D64" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="59"/>
-      <c r="F64" s="53" t="s">
+      <c r="E64" s="73"/>
+      <c r="F64" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="G64" s="53"/>
-      <c r="H64" s="54"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="75"/>
       <c r="I64" s="37" t="s">
         <v>1</v>
       </c>
       <c r="J64" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K64" s="55" t="s">
+      <c r="K64" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="L64" s="56"/>
+      <c r="L64" s="77"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="51"/>
       <c r="C65" s="39"/>
-      <c r="D65" s="63" t="s">
+      <c r="D65" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="64"/>
-      <c r="F65" s="65" t="s">
+      <c r="E65" s="57"/>
+      <c r="F65" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="G65" s="65"/>
-      <c r="H65" s="66"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="59"/>
       <c r="I65" s="40" t="s">
         <v>22</v>
       </c>
       <c r="J65" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K65" s="67" t="s">
+      <c r="K65" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="L65" s="68"/>
+      <c r="L65" s="61"/>
     </row>
     <row r="66" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="60" t="s">
+      <c r="C66" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="61"/>
-      <c r="L66" s="62"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="64"/>
     </row>
     <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C67" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="52" t="s">
+      <c r="D67" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="87"/>
       <c r="G67" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H67" s="52" t="s">
+      <c r="H67" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="I67" s="52"/>
-      <c r="J67" s="52"/>
+      <c r="I67" s="87"/>
+      <c r="J67" s="87"/>
       <c r="K67" s="25"/>
       <c r="L67" s="26"/>
     </row>
@@ -3278,133 +3290,133 @@
       <c r="B70" s="50">
         <v>7</v>
       </c>
-      <c r="C70" s="69" t="s">
+      <c r="C70" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="70"/>
-      <c r="H70" s="70"/>
-      <c r="I70" s="70"/>
-      <c r="J70" s="70"/>
-      <c r="K70" s="71"/>
-      <c r="L70" s="72"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="66"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="68"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C71" s="73" t="s">
+      <c r="C71" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="D71" s="74"/>
-      <c r="E71" s="74"/>
-      <c r="F71" s="74"/>
-      <c r="G71" s="74"/>
-      <c r="H71" s="74"/>
-      <c r="I71" s="74"/>
-      <c r="J71" s="74"/>
-      <c r="K71" s="74"/>
-      <c r="L71" s="75"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="70"/>
+      <c r="J71" s="70"/>
+      <c r="K71" s="70"/>
+      <c r="L71" s="71"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C72" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="76" t="s">
+      <c r="D72" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="77"/>
-      <c r="F72" s="78" t="s">
+      <c r="E72" s="79"/>
+      <c r="F72" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="G72" s="78"/>
-      <c r="H72" s="79"/>
+      <c r="G72" s="80"/>
+      <c r="H72" s="81"/>
       <c r="I72" s="34" t="s">
         <v>1</v>
       </c>
       <c r="J72" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="80" t="s">
+      <c r="K72" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="L72" s="81"/>
+      <c r="L72" s="83"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="51"/>
       <c r="C73" s="36"/>
-      <c r="D73" s="58" t="s">
+      <c r="D73" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="E73" s="59"/>
-      <c r="F73" s="53" t="s">
+      <c r="E73" s="73"/>
+      <c r="F73" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="G73" s="53"/>
-      <c r="H73" s="54"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="75"/>
       <c r="I73" s="37" t="s">
         <v>24</v>
       </c>
       <c r="J73" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K73" s="55"/>
-      <c r="L73" s="56"/>
+      <c r="K73" s="76"/>
+      <c r="L73" s="77"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C74" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="63" t="s">
+      <c r="D74" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="E74" s="64"/>
-      <c r="F74" s="65" t="s">
+      <c r="E74" s="57"/>
+      <c r="F74" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="G74" s="65"/>
-      <c r="H74" s="66"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="59"/>
       <c r="I74" s="40" t="s">
         <v>1</v>
       </c>
       <c r="J74" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K74" s="67" t="s">
+      <c r="K74" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="L74" s="68"/>
+      <c r="L74" s="61"/>
     </row>
     <row r="75" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="60" t="s">
+      <c r="C75" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="61"/>
-      <c r="L75" s="62"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="64"/>
     </row>
     <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C76" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="52" t="s">
+      <c r="D76" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="52"/>
-      <c r="F76" s="52"/>
+      <c r="E76" s="87"/>
+      <c r="F76" s="87"/>
       <c r="G76" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H76" s="52" t="s">
+      <c r="H76" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
+      <c r="I76" s="87"/>
+      <c r="J76" s="87"/>
       <c r="K76" s="25"/>
       <c r="L76" s="26"/>
     </row>
@@ -3414,133 +3426,133 @@
       <c r="B79" s="50">
         <v>8</v>
       </c>
-      <c r="C79" s="69" t="s">
+      <c r="C79" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="D79" s="70"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="70"/>
-      <c r="H79" s="70"/>
-      <c r="I79" s="70"/>
-      <c r="J79" s="70"/>
-      <c r="K79" s="71"/>
-      <c r="L79" s="72"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="66"/>
+      <c r="J79" s="66"/>
+      <c r="K79" s="67"/>
+      <c r="L79" s="68"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C80" s="73" t="s">
+      <c r="C80" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="D80" s="74"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="74"/>
-      <c r="H80" s="74"/>
-      <c r="I80" s="74"/>
-      <c r="J80" s="74"/>
-      <c r="K80" s="74"/>
-      <c r="L80" s="75"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="70"/>
+      <c r="H80" s="70"/>
+      <c r="I80" s="70"/>
+      <c r="J80" s="70"/>
+      <c r="K80" s="70"/>
+      <c r="L80" s="71"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C81" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="76" t="s">
+      <c r="D81" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="E81" s="77"/>
-      <c r="F81" s="78" t="s">
+      <c r="E81" s="79"/>
+      <c r="F81" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="G81" s="78"/>
-      <c r="H81" s="79"/>
+      <c r="G81" s="80"/>
+      <c r="H81" s="81"/>
       <c r="I81" s="34" t="s">
         <v>1</v>
       </c>
       <c r="J81" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="80" t="s">
+      <c r="K81" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="L81" s="81"/>
+      <c r="L81" s="83"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="51"/>
       <c r="C82" s="36"/>
-      <c r="D82" s="58" t="s">
+      <c r="D82" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="E82" s="59"/>
-      <c r="F82" s="53" t="s">
+      <c r="E82" s="73"/>
+      <c r="F82" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="G82" s="53"/>
-      <c r="H82" s="54"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="75"/>
       <c r="I82" s="37" t="s">
         <v>24</v>
       </c>
       <c r="J82" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K82" s="55"/>
-      <c r="L82" s="56"/>
+      <c r="K82" s="76"/>
+      <c r="L82" s="77"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C83" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="101" t="s">
+      <c r="D83" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="E83" s="102"/>
-      <c r="F83" s="103" t="s">
+      <c r="E83" s="95"/>
+      <c r="F83" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="G83" s="103"/>
-      <c r="H83" s="104"/>
+      <c r="G83" s="96"/>
+      <c r="H83" s="97"/>
       <c r="I83" s="43" t="s">
         <v>1</v>
       </c>
       <c r="J83" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="105" t="s">
+      <c r="K83" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="L83" s="106"/>
+      <c r="L83" s="99"/>
     </row>
     <row r="84" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="98" t="s">
+      <c r="C84" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="D84" s="99"/>
-      <c r="E84" s="99"/>
-      <c r="F84" s="99"/>
-      <c r="G84" s="99"/>
-      <c r="H84" s="99"/>
-      <c r="I84" s="99"/>
-      <c r="J84" s="99"/>
-      <c r="K84" s="99"/>
-      <c r="L84" s="100"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="101"/>
+      <c r="F84" s="101"/>
+      <c r="G84" s="101"/>
+      <c r="H84" s="101"/>
+      <c r="I84" s="101"/>
+      <c r="J84" s="101"/>
+      <c r="K84" s="101"/>
+      <c r="L84" s="102"/>
     </row>
     <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C85" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="52" t="s">
+      <c r="D85" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="E85" s="52"/>
-      <c r="F85" s="52"/>
+      <c r="E85" s="87"/>
+      <c r="F85" s="87"/>
       <c r="G85" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H85" s="52" t="s">
+      <c r="H85" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="I85" s="52"/>
-      <c r="J85" s="52"/>
+      <c r="I85" s="87"/>
+      <c r="J85" s="87"/>
       <c r="K85" s="25"/>
       <c r="L85" s="26"/>
     </row>
@@ -3550,89 +3562,89 @@
       <c r="B88" s="50">
         <v>9</v>
       </c>
-      <c r="C88" s="69" t="s">
+      <c r="C88" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D88" s="70"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="70"/>
-      <c r="H88" s="70"/>
-      <c r="I88" s="70"/>
-      <c r="J88" s="70"/>
-      <c r="K88" s="71"/>
-      <c r="L88" s="72"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="66"/>
+      <c r="H88" s="66"/>
+      <c r="I88" s="66"/>
+      <c r="J88" s="66"/>
+      <c r="K88" s="67"/>
+      <c r="L88" s="68"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C89" s="73" t="s">
+      <c r="C89" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="D89" s="74"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="74"/>
-      <c r="G89" s="74"/>
-      <c r="H89" s="74"/>
-      <c r="I89" s="74"/>
-      <c r="J89" s="74"/>
-      <c r="K89" s="74"/>
-      <c r="L89" s="75"/>
+      <c r="D89" s="70"/>
+      <c r="E89" s="70"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="70"/>
+      <c r="J89" s="70"/>
+      <c r="K89" s="70"/>
+      <c r="L89" s="71"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C90" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="76" t="s">
+      <c r="D90" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="E90" s="77"/>
-      <c r="F90" s="78" t="s">
+      <c r="E90" s="79"/>
+      <c r="F90" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="G90" s="78"/>
-      <c r="H90" s="79"/>
+      <c r="G90" s="80"/>
+      <c r="H90" s="81"/>
       <c r="I90" s="34" t="s">
         <v>1</v>
       </c>
       <c r="J90" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K90" s="80" t="s">
+      <c r="K90" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="L90" s="81"/>
+      <c r="L90" s="83"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="51"/>
       <c r="C91" s="39"/>
-      <c r="D91" s="63" t="s">
+      <c r="D91" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="E91" s="64"/>
-      <c r="F91" s="65" t="s">
+      <c r="E91" s="57"/>
+      <c r="F91" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="G91" s="65"/>
-      <c r="H91" s="66"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="59"/>
       <c r="I91" s="40" t="s">
         <v>24</v>
       </c>
       <c r="J91" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="67"/>
-      <c r="L91" s="68"/>
+      <c r="K91" s="60"/>
+      <c r="L91" s="61"/>
     </row>
     <row r="92" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="83"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="84"/>
-      <c r="F92" s="84"/>
-      <c r="G92" s="84"/>
-      <c r="H92" s="84"/>
-      <c r="I92" s="84"/>
-      <c r="J92" s="84"/>
-      <c r="K92" s="84"/>
-      <c r="L92" s="85"/>
+      <c r="C92" s="91"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="92"/>
+      <c r="F92" s="92"/>
+      <c r="G92" s="92"/>
+      <c r="H92" s="92"/>
+      <c r="I92" s="92"/>
+      <c r="J92" s="92"/>
+      <c r="K92" s="92"/>
+      <c r="L92" s="93"/>
     </row>
     <row r="93" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3640,134 +3652,134 @@
       <c r="B95" s="50">
         <v>10</v>
       </c>
-      <c r="C95" s="69" t="s">
+      <c r="C95" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="D95" s="70"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="70"/>
-      <c r="G95" s="70"/>
-      <c r="H95" s="70"/>
-      <c r="I95" s="70"/>
-      <c r="J95" s="70"/>
-      <c r="K95" s="71"/>
-      <c r="L95" s="72"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
+      <c r="J95" s="66"/>
+      <c r="K95" s="67"/>
+      <c r="L95" s="68"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C96" s="73" t="s">
+      <c r="C96" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="D96" s="74"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="74"/>
-      <c r="G96" s="74"/>
-      <c r="H96" s="74"/>
-      <c r="I96" s="74"/>
-      <c r="J96" s="74"/>
-      <c r="K96" s="74"/>
-      <c r="L96" s="75"/>
+      <c r="D96" s="70"/>
+      <c r="E96" s="70"/>
+      <c r="F96" s="70"/>
+      <c r="G96" s="70"/>
+      <c r="H96" s="70"/>
+      <c r="I96" s="70"/>
+      <c r="J96" s="70"/>
+      <c r="K96" s="70"/>
+      <c r="L96" s="71"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C97" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D97" s="76" t="s">
+      <c r="D97" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="E97" s="77"/>
-      <c r="F97" s="78" t="s">
+      <c r="E97" s="79"/>
+      <c r="F97" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="G97" s="78"/>
-      <c r="H97" s="79"/>
+      <c r="G97" s="80"/>
+      <c r="H97" s="81"/>
       <c r="I97" s="34" t="s">
         <v>1</v>
       </c>
       <c r="J97" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K97" s="80" t="s">
+      <c r="K97" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="L97" s="81"/>
+      <c r="L97" s="83"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C98" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D98" s="58" t="s">
+      <c r="D98" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="E98" s="59"/>
-      <c r="F98" s="53" t="s">
+      <c r="E98" s="73"/>
+      <c r="F98" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="G98" s="53"/>
-      <c r="H98" s="54"/>
+      <c r="G98" s="74"/>
+      <c r="H98" s="75"/>
       <c r="I98" s="37" t="s">
         <v>1</v>
       </c>
       <c r="J98" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K98" s="55" t="s">
+      <c r="K98" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="L98" s="56"/>
+      <c r="L98" s="77"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C99" s="39"/>
-      <c r="D99" s="63" t="s">
+      <c r="D99" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="E99" s="64"/>
-      <c r="F99" s="65" t="s">
+      <c r="E99" s="57"/>
+      <c r="F99" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="G99" s="65"/>
-      <c r="H99" s="66"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="59"/>
       <c r="I99" s="40" t="s">
         <v>22</v>
       </c>
       <c r="J99" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K99" s="67" t="s">
+      <c r="K99" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="L99" s="68"/>
+      <c r="L99" s="61"/>
     </row>
     <row r="100" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="60" t="s">
+      <c r="C100" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D100" s="61"/>
-      <c r="E100" s="61"/>
-      <c r="F100" s="61"/>
-      <c r="G100" s="61"/>
-      <c r="H100" s="61"/>
-      <c r="I100" s="61"/>
-      <c r="J100" s="61"/>
-      <c r="K100" s="61"/>
-      <c r="L100" s="62"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="63"/>
+      <c r="F100" s="63"/>
+      <c r="G100" s="63"/>
+      <c r="H100" s="63"/>
+      <c r="I100" s="63"/>
+      <c r="J100" s="63"/>
+      <c r="K100" s="63"/>
+      <c r="L100" s="64"/>
     </row>
     <row r="101" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C101" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D101" s="52" t="s">
+      <c r="D101" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="E101" s="52"/>
-      <c r="F101" s="52"/>
+      <c r="E101" s="87"/>
+      <c r="F101" s="87"/>
       <c r="G101" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H101" s="52" t="s">
+      <c r="H101" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="I101" s="52"/>
-      <c r="J101" s="52"/>
+      <c r="I101" s="87"/>
+      <c r="J101" s="87"/>
       <c r="K101" s="25"/>
       <c r="L101" s="26"/>
     </row>
@@ -3777,130 +3789,130 @@
       <c r="B104" s="50">
         <v>11</v>
       </c>
-      <c r="C104" s="69" t="s">
+      <c r="C104" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="D104" s="70"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="70"/>
-      <c r="H104" s="70"/>
-      <c r="I104" s="70"/>
-      <c r="J104" s="70"/>
-      <c r="K104" s="71"/>
-      <c r="L104" s="72"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="66"/>
+      <c r="H104" s="66"/>
+      <c r="I104" s="66"/>
+      <c r="J104" s="66"/>
+      <c r="K104" s="67"/>
+      <c r="L104" s="68"/>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C105" s="73" t="s">
+      <c r="C105" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="D105" s="74"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="74"/>
-      <c r="H105" s="74"/>
-      <c r="I105" s="74"/>
-      <c r="J105" s="74"/>
-      <c r="K105" s="74"/>
-      <c r="L105" s="75"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="70"/>
+      <c r="F105" s="70"/>
+      <c r="G105" s="70"/>
+      <c r="H105" s="70"/>
+      <c r="I105" s="70"/>
+      <c r="J105" s="70"/>
+      <c r="K105" s="70"/>
+      <c r="L105" s="71"/>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C106" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D106" s="76" t="s">
+      <c r="D106" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="E106" s="77"/>
-      <c r="F106" s="78" t="s">
+      <c r="E106" s="79"/>
+      <c r="F106" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="G106" s="78"/>
-      <c r="H106" s="79"/>
+      <c r="G106" s="80"/>
+      <c r="H106" s="81"/>
       <c r="I106" s="34" t="s">
         <v>1</v>
       </c>
       <c r="J106" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K106" s="88" t="s">
+      <c r="K106" s="103" t="s">
         <v>196</v>
       </c>
-      <c r="L106" s="89"/>
+      <c r="L106" s="104"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C107" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D107" s="58" t="s">
+      <c r="D107" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="E107" s="59"/>
-      <c r="F107" s="53" t="s">
+      <c r="E107" s="73"/>
+      <c r="F107" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="G107" s="53"/>
-      <c r="H107" s="54"/>
+      <c r="G107" s="74"/>
+      <c r="H107" s="75"/>
       <c r="I107" s="37" t="s">
         <v>1</v>
       </c>
       <c r="J107" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K107" s="90" t="s">
+      <c r="K107" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="L107" s="91"/>
+      <c r="L107" s="106"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C108" s="39"/>
-      <c r="D108" s="63" t="s">
+      <c r="D108" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="E108" s="64"/>
-      <c r="F108" s="65" t="s">
+      <c r="E108" s="57"/>
+      <c r="F108" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="G108" s="65"/>
-      <c r="H108" s="66"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="59"/>
       <c r="I108" s="40" t="s">
         <v>127</v>
       </c>
       <c r="J108" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="K108" s="96" t="s">
+      <c r="K108" s="107" t="s">
         <v>196</v>
       </c>
-      <c r="L108" s="97"/>
+      <c r="L108" s="108"/>
     </row>
     <row r="109" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C109" s="60" t="s">
+      <c r="C109" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D109" s="61"/>
-      <c r="E109" s="61"/>
-      <c r="F109" s="61"/>
-      <c r="G109" s="61"/>
-      <c r="H109" s="61"/>
-      <c r="I109" s="61"/>
-      <c r="J109" s="61"/>
-      <c r="K109" s="61"/>
-      <c r="L109" s="62"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="63"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="63"/>
+      <c r="J109" s="63"/>
+      <c r="K109" s="63"/>
+      <c r="L109" s="64"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C110" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D110" s="82" t="s">
+      <c r="D110" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="E110" s="82"/>
-      <c r="F110" s="82"/>
+      <c r="E110" s="86"/>
+      <c r="F110" s="86"/>
       <c r="G110" s="4"/>
-      <c r="H110" s="82"/>
-      <c r="I110" s="82"/>
-      <c r="J110" s="82"/>
+      <c r="H110" s="86"/>
+      <c r="I110" s="86"/>
+      <c r="J110" s="86"/>
       <c r="K110" s="8"/>
       <c r="L110" s="22"/>
     </row>
@@ -3908,19 +3920,19 @@
       <c r="C111" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D111" s="57" t="s">
+      <c r="D111" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="E111" s="57"/>
-      <c r="F111" s="57"/>
+      <c r="E111" s="55"/>
+      <c r="F111" s="55"/>
       <c r="G111" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H111" s="57" t="s">
+      <c r="H111" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="I111" s="57"/>
-      <c r="J111" s="57"/>
+      <c r="I111" s="55"/>
+      <c r="J111" s="55"/>
       <c r="K111" s="10" t="s">
         <v>216</v>
       </c>
@@ -3932,19 +3944,19 @@
       <c r="C112" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D112" s="52" t="s">
+      <c r="D112" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="E112" s="52"/>
-      <c r="F112" s="52"/>
+      <c r="E112" s="87"/>
+      <c r="F112" s="87"/>
       <c r="G112" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H112" s="52" t="s">
+      <c r="H112" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="I112" s="52"/>
-      <c r="J112" s="52"/>
+      <c r="I112" s="87"/>
+      <c r="J112" s="87"/>
       <c r="K112" s="25"/>
       <c r="L112" s="26"/>
     </row>
@@ -3954,367 +3966,365 @@
       <c r="B115" s="50">
         <v>12</v>
       </c>
-      <c r="C115" s="69" t="s">
+      <c r="C115" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="D115" s="70"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="70"/>
-      <c r="G115" s="70"/>
-      <c r="H115" s="70"/>
-      <c r="I115" s="70"/>
-      <c r="J115" s="70"/>
-      <c r="K115" s="71"/>
-      <c r="L115" s="72"/>
+      <c r="D115" s="66"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="66"/>
+      <c r="G115" s="66"/>
+      <c r="H115" s="66"/>
+      <c r="I115" s="66"/>
+      <c r="J115" s="66"/>
+      <c r="K115" s="67"/>
+      <c r="L115" s="68"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C116" s="73" t="s">
+      <c r="C116" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="D116" s="74"/>
-      <c r="E116" s="74"/>
-      <c r="F116" s="74"/>
-      <c r="G116" s="74"/>
-      <c r="H116" s="74"/>
-      <c r="I116" s="74"/>
-      <c r="J116" s="74"/>
-      <c r="K116" s="74"/>
-      <c r="L116" s="75"/>
+      <c r="D116" s="70"/>
+      <c r="E116" s="70"/>
+      <c r="F116" s="70"/>
+      <c r="G116" s="70"/>
+      <c r="H116" s="70"/>
+      <c r="I116" s="70"/>
+      <c r="J116" s="70"/>
+      <c r="K116" s="70"/>
+      <c r="L116" s="71"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C117" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D117" s="76" t="s">
+      <c r="D117" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="E117" s="77"/>
-      <c r="F117" s="78" t="s">
+      <c r="E117" s="79"/>
+      <c r="F117" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="G117" s="78"/>
-      <c r="H117" s="79"/>
+      <c r="G117" s="80"/>
+      <c r="H117" s="81"/>
       <c r="I117" s="34" t="s">
         <v>1</v>
       </c>
       <c r="J117" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K117" s="80" t="s">
+      <c r="K117" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="L117" s="81"/>
+      <c r="L117" s="83"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C118" s="36"/>
-      <c r="D118" s="58" t="s">
+      <c r="D118" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="E118" s="59"/>
-      <c r="F118" s="53" t="s">
+      <c r="E118" s="73"/>
+      <c r="F118" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="G118" s="53"/>
-      <c r="H118" s="54"/>
+      <c r="G118" s="74"/>
+      <c r="H118" s="75"/>
       <c r="I118" s="37" t="s">
         <v>26</v>
       </c>
       <c r="J118" s="38"/>
-      <c r="K118" s="55"/>
-      <c r="L118" s="56"/>
+      <c r="K118" s="76"/>
+      <c r="L118" s="77"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C119" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="D119" s="58" t="s">
+      <c r="D119" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="E119" s="59"/>
-      <c r="F119" s="53" t="s">
+      <c r="E119" s="73"/>
+      <c r="F119" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="G119" s="53"/>
-      <c r="H119" s="54"/>
+      <c r="G119" s="74"/>
+      <c r="H119" s="75"/>
       <c r="I119" s="37" t="s">
         <v>25</v>
       </c>
       <c r="J119" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K119" s="55"/>
-      <c r="L119" s="56"/>
+      <c r="K119" s="76"/>
+      <c r="L119" s="77"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C120" s="36"/>
-      <c r="D120" s="58" t="s">
+      <c r="D120" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="E120" s="59"/>
-      <c r="F120" s="53" t="s">
+      <c r="E120" s="73"/>
+      <c r="F120" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="G120" s="53"/>
-      <c r="H120" s="54"/>
+      <c r="G120" s="74"/>
+      <c r="H120" s="75"/>
       <c r="I120" s="37" t="s">
         <v>124</v>
       </c>
       <c r="J120" s="38"/>
-      <c r="K120" s="55"/>
-      <c r="L120" s="56"/>
+      <c r="K120" s="76"/>
+      <c r="L120" s="77"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C121" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D121" s="58" t="s">
+      <c r="D121" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="E121" s="59"/>
-      <c r="F121" s="53" t="s">
+      <c r="E121" s="73"/>
+      <c r="F121" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="G121" s="53"/>
-      <c r="H121" s="54"/>
+      <c r="G121" s="74"/>
+      <c r="H121" s="75"/>
       <c r="I121" s="37" t="s">
         <v>1</v>
       </c>
       <c r="J121" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="K121" s="55" t="s">
+      <c r="K121" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="L121" s="56"/>
+      <c r="L121" s="77"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C122" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D122" s="58" t="s">
+      <c r="D122" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="E122" s="59"/>
-      <c r="F122" s="53" t="s">
+      <c r="E122" s="73"/>
+      <c r="F122" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="G122" s="53"/>
-      <c r="H122" s="54"/>
+      <c r="G122" s="74"/>
+      <c r="H122" s="75"/>
       <c r="I122" s="37" t="s">
         <v>1</v>
       </c>
       <c r="J122" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K122" s="55" t="s">
+      <c r="K122" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="L122" s="56"/>
+      <c r="L122" s="77"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C123" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D123" s="58" t="s">
+      <c r="D123" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="E123" s="59"/>
-      <c r="F123" s="53" t="s">
+      <c r="E123" s="73"/>
+      <c r="F123" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="G123" s="53"/>
-      <c r="H123" s="54"/>
+      <c r="G123" s="74"/>
+      <c r="H123" s="75"/>
       <c r="I123" s="37" t="s">
         <v>1</v>
       </c>
       <c r="J123" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K123" s="55" t="s">
+      <c r="K123" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="L123" s="56"/>
+      <c r="L123" s="77"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C124" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="58" t="s">
+      <c r="D124" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="E124" s="59"/>
-      <c r="F124" s="53" t="s">
+      <c r="E124" s="73"/>
+      <c r="F124" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="G124" s="53"/>
-      <c r="H124" s="54"/>
+      <c r="G124" s="74"/>
+      <c r="H124" s="75"/>
       <c r="I124" s="37" t="s">
         <v>1</v>
       </c>
       <c r="J124" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K124" s="55" t="s">
+      <c r="K124" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="L124" s="56"/>
+      <c r="L124" s="77"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="51"/>
       <c r="C125" s="36"/>
-      <c r="D125" s="58" t="s">
+      <c r="D125" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="E125" s="59"/>
-      <c r="F125" s="53" t="s">
+      <c r="E125" s="73"/>
+      <c r="F125" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="G125" s="53"/>
-      <c r="H125" s="54"/>
+      <c r="G125" s="74"/>
+      <c r="H125" s="75"/>
       <c r="I125" s="37" t="s">
         <v>225</v>
       </c>
       <c r="J125" s="38"/>
-      <c r="K125" s="55"/>
-      <c r="L125" s="56"/>
+      <c r="K125" s="76"/>
+      <c r="L125" s="77"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C126" s="36"/>
-      <c r="D126" s="58" t="s">
+      <c r="D126" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="E126" s="59"/>
-      <c r="F126" s="53" t="s">
+      <c r="E126" s="73"/>
+      <c r="F126" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="G126" s="53"/>
-      <c r="H126" s="54"/>
+      <c r="G126" s="74"/>
+      <c r="H126" s="75"/>
       <c r="I126" s="37" t="s">
         <v>125</v>
       </c>
       <c r="J126" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K126" s="55"/>
-      <c r="L126" s="56"/>
+      <c r="K126" s="76"/>
+      <c r="L126" s="77"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C127" s="36"/>
-      <c r="D127" s="58" t="s">
+      <c r="D127" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="E127" s="59"/>
-      <c r="F127" s="53" t="s">
+      <c r="E127" s="73"/>
+      <c r="F127" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="G127" s="53"/>
-      <c r="H127" s="54"/>
+      <c r="G127" s="74"/>
+      <c r="H127" s="75"/>
       <c r="I127" s="37" t="s">
         <v>126</v>
       </c>
       <c r="J127" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K127" s="55" t="s">
+      <c r="K127" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="L127" s="56"/>
+      <c r="L127" s="77"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C128" s="36"/>
-      <c r="D128" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E128" s="59"/>
-      <c r="F128" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="G128" s="53"/>
-      <c r="H128" s="54"/>
+      <c r="D128" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" s="73"/>
+      <c r="F128" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G128" s="74"/>
+      <c r="H128" s="75"/>
       <c r="I128" s="37" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="J128" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K128" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="L128" s="56"/>
+      <c r="K128" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="L128" s="77"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C129" s="36"/>
-      <c r="D129" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E129" s="59"/>
-      <c r="F129" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" s="53"/>
-      <c r="H129" s="54"/>
-      <c r="I129" s="37" t="s">
+      <c r="C129" s="39"/>
+      <c r="D129" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="E129" s="57"/>
+      <c r="F129" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="G129" s="58"/>
+      <c r="H129" s="59"/>
+      <c r="I129" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J129" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K129" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="L129" s="56"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C130" s="39"/>
-      <c r="D130" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="E130" s="64"/>
-      <c r="F130" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="G130" s="65"/>
-      <c r="H130" s="66"/>
-      <c r="I130" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="J130" s="41"/>
-      <c r="K130" s="94" t="s">
+      <c r="J129" s="41"/>
+      <c r="K129" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="L130" s="95"/>
-    </row>
-    <row r="131" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C131" s="60" t="s">
+      <c r="L129" s="110"/>
+    </row>
+    <row r="130" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C130" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D131" s="61"/>
-      <c r="E131" s="61"/>
-      <c r="F131" s="61"/>
-      <c r="G131" s="61"/>
-      <c r="H131" s="61"/>
-      <c r="I131" s="61"/>
-      <c r="J131" s="61"/>
-      <c r="K131" s="61"/>
-      <c r="L131" s="62"/>
+      <c r="D130" s="63"/>
+      <c r="E130" s="63"/>
+      <c r="F130" s="63"/>
+      <c r="G130" s="63"/>
+      <c r="H130" s="63"/>
+      <c r="I130" s="63"/>
+      <c r="J130" s="63"/>
+      <c r="K130" s="63"/>
+      <c r="L130" s="64"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C131" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="E131" s="55"/>
+      <c r="F131" s="55"/>
+      <c r="G131" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H131" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="I131" s="55"/>
+      <c r="J131" s="55"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="29"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C132" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D132" s="57" t="s">
-        <v>219</v>
-      </c>
-      <c r="E132" s="57"/>
-      <c r="F132" s="57"/>
+      <c r="D132" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E132" s="55"/>
+      <c r="F132" s="55"/>
       <c r="G132" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H132" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="I132" s="57"/>
-      <c r="J132" s="57"/>
+      <c r="H132" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="I132" s="55"/>
+      <c r="J132" s="55"/>
       <c r="K132" s="9"/>
       <c r="L132" s="29"/>
     </row>
@@ -4322,70 +4332,64 @@
       <c r="C133" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D133" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E133" s="57"/>
-      <c r="F133" s="57"/>
+      <c r="D133" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="E133" s="55"/>
+      <c r="F133" s="55"/>
       <c r="G133" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H133" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="I133" s="57"/>
-      <c r="J133" s="57"/>
+      <c r="H133" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="I133" s="55"/>
+      <c r="J133" s="55"/>
       <c r="K133" s="9"/>
       <c r="L133" s="29"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C134" s="31" t="s">
+    <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C134" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D134" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="E134" s="57"/>
-      <c r="F134" s="57"/>
-      <c r="G134" s="5" t="s">
+      <c r="D134" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="E134" s="87"/>
+      <c r="F134" s="87"/>
+      <c r="G134" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H134" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="I134" s="57"/>
-      <c r="J134" s="57"/>
-      <c r="K134" s="9"/>
-      <c r="L134" s="29"/>
-    </row>
-    <row r="135" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C135" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="E135" s="52"/>
-      <c r="F135" s="52"/>
-      <c r="G135" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H135" s="52" t="s">
+      <c r="H134" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="I135" s="52"/>
-      <c r="J135" s="52"/>
-      <c r="K135" s="25"/>
-      <c r="L135" s="26"/>
-    </row>
-    <row r="136" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="50">
+      <c r="I134" s="87"/>
+      <c r="J134" s="87"/>
+      <c r="K134" s="25"/>
+      <c r="L134" s="26"/>
+    </row>
+    <row r="135" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="137" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="50">
         <v>13</v>
       </c>
+      <c r="C137" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="D137" s="66"/>
+      <c r="E137" s="66"/>
+      <c r="F137" s="66"/>
+      <c r="G137" s="66"/>
+      <c r="H137" s="66"/>
+      <c r="I137" s="66"/>
+      <c r="J137" s="66"/>
+      <c r="K137" s="67"/>
+      <c r="L137" s="68"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C138" s="69" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D138" s="70"/>
       <c r="E138" s="70"/>
@@ -4394,108 +4398,108 @@
       <c r="H138" s="70"/>
       <c r="I138" s="70"/>
       <c r="J138" s="70"/>
-      <c r="K138" s="71"/>
-      <c r="L138" s="72"/>
+      <c r="K138" s="70"/>
+      <c r="L138" s="71"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C139" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="D139" s="74"/>
-      <c r="E139" s="74"/>
-      <c r="F139" s="74"/>
-      <c r="G139" s="74"/>
-      <c r="H139" s="74"/>
-      <c r="I139" s="74"/>
-      <c r="J139" s="74"/>
-      <c r="K139" s="74"/>
-      <c r="L139" s="75"/>
+      <c r="C139" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D139" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="E139" s="79"/>
+      <c r="F139" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="G139" s="80"/>
+      <c r="H139" s="81"/>
+      <c r="I139" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J139" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K139" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="L139" s="83"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C140" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D140" s="76" t="s">
-        <v>101</v>
-      </c>
-      <c r="E140" s="77"/>
-      <c r="F140" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="G140" s="78"/>
-      <c r="H140" s="79"/>
-      <c r="I140" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="J140" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K140" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="L140" s="81"/>
+      <c r="A140" s="51"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="E140" s="73"/>
+      <c r="F140" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" s="74"/>
+      <c r="H140" s="75"/>
+      <c r="I140" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J140" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K140" s="76"/>
+      <c r="L140" s="77"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="51"/>
-      <c r="C141" s="36"/>
-      <c r="D141" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="E141" s="59"/>
-      <c r="F141" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G141" s="53"/>
-      <c r="H141" s="54"/>
-      <c r="I141" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="J141" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K141" s="55"/>
-      <c r="L141" s="56"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C142" s="39"/>
-      <c r="D142" s="63" t="s">
+      <c r="C141" s="39"/>
+      <c r="D141" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="E142" s="64"/>
-      <c r="F142" s="65" t="s">
+      <c r="E141" s="57"/>
+      <c r="F141" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="G142" s="65"/>
-      <c r="H142" s="66"/>
-      <c r="I142" s="40" t="s">
+      <c r="G141" s="58"/>
+      <c r="H141" s="59"/>
+      <c r="I141" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="J142" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K142" s="67"/>
-      <c r="L142" s="68"/>
-    </row>
-    <row r="143" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C143" s="83"/>
-      <c r="D143" s="84"/>
-      <c r="E143" s="84"/>
-      <c r="F143" s="84"/>
-      <c r="G143" s="84"/>
-      <c r="H143" s="84"/>
-      <c r="I143" s="84"/>
-      <c r="J143" s="84"/>
-      <c r="K143" s="84"/>
-      <c r="L143" s="85"/>
-    </row>
-    <row r="144" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="50">
+      <c r="J141" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="K141" s="60"/>
+      <c r="L141" s="61"/>
+    </row>
+    <row r="142" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C142" s="91"/>
+      <c r="D142" s="92"/>
+      <c r="E142" s="92"/>
+      <c r="F142" s="92"/>
+      <c r="G142" s="92"/>
+      <c r="H142" s="92"/>
+      <c r="I142" s="92"/>
+      <c r="J142" s="92"/>
+      <c r="K142" s="92"/>
+      <c r="L142" s="93"/>
+    </row>
+    <row r="143" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="50">
         <v>14</v>
       </c>
+      <c r="C145" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="D145" s="66"/>
+      <c r="E145" s="66"/>
+      <c r="F145" s="66"/>
+      <c r="G145" s="66"/>
+      <c r="H145" s="66"/>
+      <c r="I145" s="66"/>
+      <c r="J145" s="66"/>
+      <c r="K145" s="67"/>
+      <c r="L145" s="68"/>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C146" s="69" t="s">
-        <v>100</v>
+        <v>218</v>
       </c>
       <c r="D146" s="70"/>
       <c r="E146" s="70"/>
@@ -4504,87 +4508,87 @@
       <c r="H146" s="70"/>
       <c r="I146" s="70"/>
       <c r="J146" s="70"/>
-      <c r="K146" s="71"/>
-      <c r="L146" s="72"/>
+      <c r="K146" s="70"/>
+      <c r="L146" s="71"/>
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C147" s="73" t="s">
-        <v>218</v>
-      </c>
-      <c r="D147" s="74"/>
-      <c r="E147" s="74"/>
-      <c r="F147" s="74"/>
-      <c r="G147" s="74"/>
-      <c r="H147" s="74"/>
-      <c r="I147" s="74"/>
-      <c r="J147" s="74"/>
-      <c r="K147" s="74"/>
-      <c r="L147" s="75"/>
+      <c r="C147" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D147" s="78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E147" s="79"/>
+      <c r="F147" s="80" t="s">
+        <v>220</v>
+      </c>
+      <c r="G147" s="80"/>
+      <c r="H147" s="81"/>
+      <c r="I147" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J147" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K147" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="L147" s="83"/>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C148" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D148" s="76" t="s">
-        <v>219</v>
-      </c>
-      <c r="E148" s="77"/>
-      <c r="F148" s="78" t="s">
-        <v>220</v>
-      </c>
-      <c r="G148" s="78"/>
-      <c r="H148" s="79"/>
-      <c r="I148" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="J148" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K148" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="L148" s="81"/>
-    </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C149" s="39"/>
-      <c r="D149" s="63" t="s">
+      <c r="C148" s="39"/>
+      <c r="D148" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="E149" s="64"/>
-      <c r="F149" s="65" t="s">
+      <c r="E148" s="57"/>
+      <c r="F148" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="G149" s="65"/>
-      <c r="H149" s="66"/>
-      <c r="I149" s="37" t="s">
+      <c r="G148" s="58"/>
+      <c r="H148" s="59"/>
+      <c r="I148" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="J149" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K149" s="86"/>
-      <c r="L149" s="87"/>
-    </row>
-    <row r="150" spans="2:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C150" s="83"/>
-      <c r="D150" s="84"/>
-      <c r="E150" s="84"/>
-      <c r="F150" s="84"/>
-      <c r="G150" s="84"/>
-      <c r="H150" s="84"/>
-      <c r="I150" s="84"/>
-      <c r="J150" s="84"/>
-      <c r="K150" s="84"/>
-      <c r="L150" s="85"/>
-    </row>
-    <row r="151" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="50">
+      <c r="J148" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="K148" s="113"/>
+      <c r="L148" s="114"/>
+    </row>
+    <row r="149" spans="2:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C149" s="91"/>
+      <c r="D149" s="92"/>
+      <c r="E149" s="92"/>
+      <c r="F149" s="92"/>
+      <c r="G149" s="92"/>
+      <c r="H149" s="92"/>
+      <c r="I149" s="92"/>
+      <c r="J149" s="92"/>
+      <c r="K149" s="92"/>
+      <c r="L149" s="93"/>
+    </row>
+    <row r="150" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="50">
         <v>15</v>
       </c>
+      <c r="C152" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D152" s="66"/>
+      <c r="E152" s="66"/>
+      <c r="F152" s="66"/>
+      <c r="G152" s="66"/>
+      <c r="H152" s="66"/>
+      <c r="I152" s="66"/>
+      <c r="J152" s="66"/>
+      <c r="K152" s="67"/>
+      <c r="L152" s="68"/>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C153" s="69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D153" s="70"/>
       <c r="E153" s="70"/>
@@ -4593,279 +4597,279 @@
       <c r="H153" s="70"/>
       <c r="I153" s="70"/>
       <c r="J153" s="70"/>
-      <c r="K153" s="71"/>
-      <c r="L153" s="72"/>
+      <c r="K153" s="70"/>
+      <c r="L153" s="71"/>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C154" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="D154" s="74"/>
-      <c r="E154" s="74"/>
-      <c r="F154" s="74"/>
-      <c r="G154" s="74"/>
-      <c r="H154" s="74"/>
-      <c r="I154" s="74"/>
-      <c r="J154" s="74"/>
-      <c r="K154" s="74"/>
-      <c r="L154" s="75"/>
+      <c r="C154" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="E154" s="79"/>
+      <c r="F154" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="G154" s="80"/>
+      <c r="H154" s="81"/>
+      <c r="I154" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J154" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K154" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="L154" s="83"/>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C155" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D155" s="76" t="s">
-        <v>122</v>
-      </c>
-      <c r="E155" s="77"/>
-      <c r="F155" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="G155" s="78"/>
-      <c r="H155" s="79"/>
-      <c r="I155" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="J155" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K155" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="L155" s="81"/>
+      <c r="C155" s="36"/>
+      <c r="D155" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="E155" s="73"/>
+      <c r="F155" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="G155" s="74"/>
+      <c r="H155" s="75"/>
+      <c r="I155" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="J155" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K155" s="76"/>
+      <c r="L155" s="77"/>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C156" s="36"/>
-      <c r="D156" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="E156" s="59"/>
-      <c r="F156" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="G156" s="53"/>
-      <c r="H156" s="54"/>
+      <c r="C156" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D156" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E156" s="73"/>
+      <c r="F156" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" s="74"/>
+      <c r="H156" s="75"/>
       <c r="I156" s="37" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="J156" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K156" s="55"/>
-      <c r="L156" s="56"/>
+      <c r="K156" s="76"/>
+      <c r="L156" s="77"/>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C157" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="D157" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="E157" s="59"/>
-      <c r="F157" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G157" s="53"/>
-      <c r="H157" s="54"/>
+        <v>14</v>
+      </c>
+      <c r="D157" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" s="73"/>
+      <c r="F157" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G157" s="74"/>
+      <c r="H157" s="75"/>
       <c r="I157" s="37" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="J157" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K157" s="55"/>
-      <c r="L157" s="56"/>
+      <c r="K157" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="L157" s="77"/>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C158" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D158" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" s="59"/>
-      <c r="F158" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G158" s="53"/>
-      <c r="H158" s="54"/>
+      <c r="C158" s="36"/>
+      <c r="D158" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="E158" s="73"/>
+      <c r="F158" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="G158" s="74"/>
+      <c r="H158" s="75"/>
       <c r="I158" s="37" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="J158" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K158" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="L158" s="56"/>
+      <c r="K158" s="76"/>
+      <c r="L158" s="77"/>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C159" s="36"/>
-      <c r="D159" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="E159" s="59"/>
-      <c r="F159" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="G159" s="53"/>
-      <c r="H159" s="54"/>
+      <c r="D159" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="73"/>
+      <c r="F159" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G159" s="74"/>
+      <c r="H159" s="75"/>
       <c r="I159" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="J159" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K159" s="55"/>
-      <c r="L159" s="56"/>
+      <c r="J159" s="38"/>
+      <c r="K159" s="76"/>
+      <c r="L159" s="77"/>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C160" s="36"/>
-      <c r="D160" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E160" s="59"/>
-      <c r="F160" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" s="53"/>
-      <c r="H160" s="54"/>
+      <c r="D160" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" s="73"/>
+      <c r="F160" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="G160" s="74"/>
+      <c r="H160" s="75"/>
       <c r="I160" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="J160" s="38"/>
-      <c r="K160" s="55"/>
-      <c r="L160" s="56"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C161" s="36"/>
-      <c r="D161" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E161" s="59"/>
-      <c r="F161" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" s="53"/>
-      <c r="H161" s="54"/>
+        <v>25</v>
+      </c>
+      <c r="J160" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K160" s="76"/>
+      <c r="L160" s="77"/>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C161" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" s="73"/>
+      <c r="F161" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G161" s="74"/>
+      <c r="H161" s="75"/>
       <c r="I161" s="37" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="J161" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K161" s="55"/>
-      <c r="L161" s="56"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C162" s="36" t="s">
+      <c r="K161" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="L161" s="77"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C162" s="39"/>
+      <c r="D162" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" s="57"/>
+      <c r="F162" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G162" s="58"/>
+      <c r="H162" s="59"/>
+      <c r="I162" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="J162" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="K162" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="L162" s="61"/>
+    </row>
+    <row r="163" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C163" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D163" s="63"/>
+      <c r="E163" s="63"/>
+      <c r="F163" s="63"/>
+      <c r="G163" s="63"/>
+      <c r="H163" s="63"/>
+      <c r="I163" s="63"/>
+      <c r="J163" s="63"/>
+      <c r="K163" s="63"/>
+      <c r="L163" s="64"/>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C164" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D162" s="58" t="s">
+      <c r="D164" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" s="86"/>
+      <c r="F164" s="86"/>
+      <c r="G164" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H164" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="I164" s="86"/>
+      <c r="J164" s="86"/>
+      <c r="K164" s="8"/>
+      <c r="L164" s="22"/>
+    </row>
+    <row r="165" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C165" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="E162" s="59"/>
-      <c r="F162" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" s="53"/>
-      <c r="H162" s="54"/>
-      <c r="I162" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="J162" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K162" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="L162" s="56"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C163" s="39"/>
-      <c r="D163" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="E163" s="64"/>
-      <c r="F163" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G163" s="65"/>
-      <c r="H163" s="66"/>
-      <c r="I163" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="J163" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K163" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="L163" s="68"/>
-    </row>
-    <row r="164" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C164" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="D164" s="61"/>
-      <c r="E164" s="61"/>
-      <c r="F164" s="61"/>
-      <c r="G164" s="61"/>
-      <c r="H164" s="61"/>
-      <c r="I164" s="61"/>
-      <c r="J164" s="61"/>
-      <c r="K164" s="61"/>
-      <c r="L164" s="62"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C165" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D165" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E165" s="82"/>
-      <c r="F165" s="82"/>
-      <c r="G165" s="4" t="s">
+      <c r="E165" s="87"/>
+      <c r="F165" s="87"/>
+      <c r="G165" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H165" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="I165" s="82"/>
-      <c r="J165" s="82"/>
-      <c r="K165" s="8"/>
-      <c r="L165" s="22"/>
-    </row>
-    <row r="166" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C166" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D166" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="E166" s="52"/>
-      <c r="F166" s="52"/>
-      <c r="G166" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H166" s="52" t="s">
+      <c r="H165" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="I166" s="52"/>
-      <c r="J166" s="52"/>
-      <c r="K166" s="25"/>
-      <c r="L166" s="26"/>
-    </row>
-    <row r="167" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="169" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="50">
+      <c r="I165" s="87"/>
+      <c r="J165" s="87"/>
+      <c r="K165" s="25"/>
+      <c r="L165" s="26"/>
+    </row>
+    <row r="166" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="168" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="50">
         <v>16</v>
       </c>
+      <c r="C168" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D168" s="66"/>
+      <c r="E168" s="66"/>
+      <c r="F168" s="66"/>
+      <c r="G168" s="66"/>
+      <c r="H168" s="66"/>
+      <c r="I168" s="66"/>
+      <c r="J168" s="66"/>
+      <c r="K168" s="67"/>
+      <c r="L168" s="68"/>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C169" s="69" t="s">
-        <v>130</v>
+        <v>234</v>
       </c>
       <c r="D169" s="70"/>
       <c r="E169" s="70"/>
@@ -4874,1512 +4878,1918 @@
       <c r="H169" s="70"/>
       <c r="I169" s="70"/>
       <c r="J169" s="70"/>
-      <c r="K169" s="71"/>
-      <c r="L169" s="72"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C170" s="73" t="s">
+      <c r="K169" s="70"/>
+      <c r="L169" s="71"/>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C170" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D170" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="E170" s="79"/>
+      <c r="F170" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="G170" s="80"/>
+      <c r="H170" s="81"/>
+      <c r="I170" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J170" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="K170" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="L170" s="83"/>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C171" s="36"/>
+      <c r="D171" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="E171" s="73"/>
+      <c r="F171" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="G171" s="74"/>
+      <c r="H171" s="75"/>
+      <c r="I171" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="J171" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="K171" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="L171" s="77"/>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C172" s="39"/>
+      <c r="D172" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="E172" s="57"/>
+      <c r="F172" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="G172" s="58"/>
+      <c r="H172" s="59"/>
+      <c r="I172" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="J172" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K172" s="60" t="s">
+        <v>224</v>
+      </c>
+      <c r="L172" s="61"/>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C173" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D173" s="63"/>
+      <c r="E173" s="63"/>
+      <c r="F173" s="63"/>
+      <c r="G173" s="63"/>
+      <c r="H173" s="63"/>
+      <c r="I173" s="63"/>
+      <c r="J173" s="63"/>
+      <c r="K173" s="63"/>
+      <c r="L173" s="64"/>
+    </row>
+    <row r="174" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C174" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="E174" s="87"/>
+      <c r="F174" s="87"/>
+      <c r="G174" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H174" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="I174" s="87"/>
+      <c r="J174" s="87"/>
+      <c r="K174" s="25"/>
+      <c r="L174" s="26"/>
+    </row>
+    <row r="175" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="177" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="50">
+        <v>17</v>
+      </c>
+      <c r="C177" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="D177" s="66"/>
+      <c r="E177" s="66"/>
+      <c r="F177" s="66"/>
+      <c r="G177" s="66"/>
+      <c r="H177" s="66"/>
+      <c r="I177" s="66"/>
+      <c r="J177" s="66"/>
+      <c r="K177" s="67"/>
+      <c r="L177" s="68"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C178" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="D170" s="74"/>
-      <c r="E170" s="74"/>
-      <c r="F170" s="74"/>
-      <c r="G170" s="74"/>
-      <c r="H170" s="74"/>
-      <c r="I170" s="74"/>
-      <c r="J170" s="74"/>
-      <c r="K170" s="74"/>
-      <c r="L170" s="75"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C171" s="33" t="s">
+      <c r="D178" s="70"/>
+      <c r="E178" s="70"/>
+      <c r="F178" s="70"/>
+      <c r="G178" s="70"/>
+      <c r="H178" s="70"/>
+      <c r="I178" s="70"/>
+      <c r="J178" s="70"/>
+      <c r="K178" s="70"/>
+      <c r="L178" s="71"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C179" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D171" s="76" t="s">
+      <c r="D179" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="E171" s="77"/>
-      <c r="F171" s="78" t="s">
+      <c r="E179" s="79"/>
+      <c r="F179" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="G171" s="78"/>
-      <c r="H171" s="79"/>
-      <c r="I171" s="34" t="s">
+      <c r="G179" s="80"/>
+      <c r="H179" s="81"/>
+      <c r="I179" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J171" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="K171" s="80" t="s">
+      <c r="J179" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="K179" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="L171" s="81"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C172" s="36" t="s">
+      <c r="L179" s="83"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C180" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D172" s="58" t="s">
+      <c r="D180" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="E172" s="59"/>
-      <c r="F172" s="53" t="s">
+      <c r="E180" s="73"/>
+      <c r="F180" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="G172" s="53"/>
-      <c r="H172" s="54"/>
-      <c r="I172" s="37" t="s">
+      <c r="G180" s="74"/>
+      <c r="H180" s="75"/>
+      <c r="I180" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J172" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="K172" s="55" t="s">
+      <c r="J180" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="K180" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="L172" s="56"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C173" s="36" t="s">
+      <c r="L180" s="77"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C181" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D173" s="58" t="s">
+      <c r="D181" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="E173" s="59"/>
-      <c r="F173" s="53" t="s">
+      <c r="E181" s="73"/>
+      <c r="F181" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="G173" s="53"/>
-      <c r="H173" s="54"/>
-      <c r="I173" s="37" t="s">
+      <c r="G181" s="74"/>
+      <c r="H181" s="75"/>
+      <c r="I181" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J173" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="K173" s="55" t="s">
+      <c r="J181" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="K181" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="L173" s="56"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="51"/>
-      <c r="C174" s="36"/>
-      <c r="D174" s="58" t="s">
+      <c r="L181" s="77"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="51"/>
+      <c r="C182" s="36"/>
+      <c r="D182" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="E174" s="59"/>
-      <c r="F174" s="53" t="s">
+      <c r="E182" s="73"/>
+      <c r="F182" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="G174" s="53"/>
-      <c r="H174" s="54"/>
-      <c r="I174" s="37" t="s">
+      <c r="G182" s="74"/>
+      <c r="H182" s="75"/>
+      <c r="I182" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="J174" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="K174" s="55"/>
-      <c r="L174" s="56"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C175" s="36"/>
-      <c r="D175" s="58" t="s">
+      <c r="J182" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="K182" s="76"/>
+      <c r="L182" s="77"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C183" s="36"/>
+      <c r="D183" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="E175" s="59"/>
-      <c r="F175" s="53" t="s">
+      <c r="E183" s="73"/>
+      <c r="F183" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="G175" s="53"/>
-      <c r="H175" s="54"/>
-      <c r="I175" s="37" t="s">
+      <c r="G183" s="74"/>
+      <c r="H183" s="75"/>
+      <c r="I183" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="J175" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="K175" s="55" t="s">
+      <c r="J183" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="K183" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="L175" s="56"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C176" s="39"/>
-      <c r="D176" s="92" t="s">
+      <c r="L183" s="77"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C184" s="39"/>
+      <c r="D184" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="E176" s="93"/>
-      <c r="F176" s="65" t="s">
+      <c r="E184" s="112"/>
+      <c r="F184" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G176" s="65"/>
-      <c r="H176" s="66"/>
-      <c r="I176" s="40" t="s">
+      <c r="G184" s="58"/>
+      <c r="H184" s="59"/>
+      <c r="I184" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J176" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="K176" s="67" t="s">
+      <c r="J184" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="K184" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="L176" s="68"/>
-    </row>
-    <row r="177" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C177" s="60" t="s">
+      <c r="L184" s="61"/>
+    </row>
+    <row r="185" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C185" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D177" s="61"/>
-      <c r="E177" s="61"/>
-      <c r="F177" s="61"/>
-      <c r="G177" s="61"/>
-      <c r="H177" s="61"/>
-      <c r="I177" s="61"/>
-      <c r="J177" s="61"/>
-      <c r="K177" s="61"/>
-      <c r="L177" s="62"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C178" s="28" t="s">
+      <c r="D185" s="63"/>
+      <c r="E185" s="63"/>
+      <c r="F185" s="63"/>
+      <c r="G185" s="63"/>
+      <c r="H185" s="63"/>
+      <c r="I185" s="63"/>
+      <c r="J185" s="63"/>
+      <c r="K185" s="63"/>
+      <c r="L185" s="64"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C186" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D178" s="57" t="s">
+      <c r="D186" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E178" s="57"/>
-      <c r="F178" s="57"/>
-      <c r="G178" s="5" t="s">
+      <c r="E186" s="55"/>
+      <c r="F186" s="55"/>
+      <c r="G186" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H178" s="57" t="s">
+      <c r="H186" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="I178" s="57"/>
-      <c r="J178" s="57"/>
-      <c r="K178" s="8"/>
-      <c r="L178" s="22"/>
-    </row>
-    <row r="179" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C179" s="23" t="s">
+      <c r="I186" s="55"/>
+      <c r="J186" s="55"/>
+      <c r="K186" s="8"/>
+      <c r="L186" s="22"/>
+    </row>
+    <row r="187" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C187" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D179" s="52" t="s">
+      <c r="D187" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="E179" s="52"/>
-      <c r="F179" s="52"/>
-      <c r="G179" s="24" t="s">
+      <c r="E187" s="87"/>
+      <c r="F187" s="87"/>
+      <c r="G187" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H179" s="52" t="s">
+      <c r="H187" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="I179" s="52"/>
-      <c r="J179" s="52"/>
-      <c r="K179" s="25"/>
-      <c r="L179" s="26"/>
-    </row>
-    <row r="180" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="182" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="50">
-        <v>17</v>
-      </c>
-      <c r="C182" s="69" t="s">
+      <c r="I187" s="87"/>
+      <c r="J187" s="87"/>
+      <c r="K187" s="25"/>
+      <c r="L187" s="26"/>
+    </row>
+    <row r="188" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="190" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="50">
+        <v>18</v>
+      </c>
+      <c r="C190" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="D182" s="70"/>
-      <c r="E182" s="70"/>
-      <c r="F182" s="70"/>
-      <c r="G182" s="70"/>
-      <c r="H182" s="70"/>
-      <c r="I182" s="70"/>
-      <c r="J182" s="70"/>
-      <c r="K182" s="71"/>
-      <c r="L182" s="72"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C183" s="73" t="s">
+      <c r="D190" s="66"/>
+      <c r="E190" s="66"/>
+      <c r="F190" s="66"/>
+      <c r="G190" s="66"/>
+      <c r="H190" s="66"/>
+      <c r="I190" s="66"/>
+      <c r="J190" s="66"/>
+      <c r="K190" s="67"/>
+      <c r="L190" s="68"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C191" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="D183" s="74"/>
-      <c r="E183" s="74"/>
-      <c r="F183" s="74"/>
-      <c r="G183" s="74"/>
-      <c r="H183" s="74"/>
-      <c r="I183" s="74"/>
-      <c r="J183" s="74"/>
-      <c r="K183" s="74"/>
-      <c r="L183" s="75"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C184" s="33" t="s">
+      <c r="D191" s="70"/>
+      <c r="E191" s="70"/>
+      <c r="F191" s="70"/>
+      <c r="G191" s="70"/>
+      <c r="H191" s="70"/>
+      <c r="I191" s="70"/>
+      <c r="J191" s="70"/>
+      <c r="K191" s="70"/>
+      <c r="L191" s="71"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C192" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D184" s="76" t="s">
+      <c r="D192" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="E184" s="77"/>
-      <c r="F184" s="78" t="s">
+      <c r="E192" s="79"/>
+      <c r="F192" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="G184" s="78"/>
-      <c r="H184" s="79"/>
-      <c r="I184" s="34" t="s">
+      <c r="G192" s="80"/>
+      <c r="H192" s="81"/>
+      <c r="I192" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J184" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K184" s="88" t="s">
+      <c r="J192" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K192" s="103" t="s">
         <v>196</v>
       </c>
-      <c r="L184" s="89"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C185" s="36" t="s">
+      <c r="L192" s="104"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C193" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D185" s="58" t="s">
+      <c r="D193" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="E185" s="59"/>
-      <c r="F185" s="53" t="s">
+      <c r="E193" s="73"/>
+      <c r="F193" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="G185" s="53"/>
-      <c r="H185" s="54"/>
-      <c r="I185" s="37" t="s">
+      <c r="G193" s="74"/>
+      <c r="H193" s="75"/>
+      <c r="I193" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J185" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K185" s="90" t="s">
+      <c r="J193" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K193" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="L185" s="91"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="51"/>
-      <c r="C186" s="36"/>
-      <c r="D186" s="58" t="s">
+      <c r="L193" s="106"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="51"/>
+      <c r="C194" s="36"/>
+      <c r="D194" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="E186" s="59"/>
-      <c r="F186" s="53" t="s">
+      <c r="E194" s="73"/>
+      <c r="F194" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="G186" s="53"/>
-      <c r="H186" s="54"/>
-      <c r="I186" s="37" t="s">
+      <c r="G194" s="74"/>
+      <c r="H194" s="75"/>
+      <c r="I194" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="J186" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K186" s="55"/>
-      <c r="L186" s="56"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C187" s="39"/>
-      <c r="D187" s="63" t="s">
+      <c r="J194" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K194" s="76"/>
+      <c r="L194" s="77"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C195" s="39"/>
+      <c r="D195" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="E187" s="64"/>
-      <c r="F187" s="65" t="s">
+      <c r="E195" s="57"/>
+      <c r="F195" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="G187" s="65"/>
-      <c r="H187" s="66"/>
-      <c r="I187" s="40" t="s">
+      <c r="G195" s="58"/>
+      <c r="H195" s="59"/>
+      <c r="I195" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="J187" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K187" s="67"/>
-      <c r="L187" s="68"/>
-    </row>
-    <row r="188" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C188" s="60" t="s">
+      <c r="J195" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="K195" s="60"/>
+      <c r="L195" s="61"/>
+    </row>
+    <row r="196" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C196" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D188" s="61"/>
-      <c r="E188" s="61"/>
-      <c r="F188" s="61"/>
-      <c r="G188" s="61"/>
-      <c r="H188" s="61"/>
-      <c r="I188" s="61"/>
-      <c r="J188" s="61"/>
-      <c r="K188" s="61"/>
-      <c r="L188" s="62"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C189" s="21" t="s">
+      <c r="D196" s="63"/>
+      <c r="E196" s="63"/>
+      <c r="F196" s="63"/>
+      <c r="G196" s="63"/>
+      <c r="H196" s="63"/>
+      <c r="I196" s="63"/>
+      <c r="J196" s="63"/>
+      <c r="K196" s="63"/>
+      <c r="L196" s="64"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C197" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D189" s="82" t="s">
+      <c r="D197" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="E189" s="82"/>
-      <c r="F189" s="82"/>
-      <c r="G189" s="4"/>
-      <c r="H189" s="82"/>
-      <c r="I189" s="82"/>
-      <c r="J189" s="82"/>
-      <c r="K189" s="8"/>
-      <c r="L189" s="22"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C190" s="28" t="s">
+      <c r="E197" s="86"/>
+      <c r="F197" s="86"/>
+      <c r="G197" s="4"/>
+      <c r="H197" s="86"/>
+      <c r="I197" s="86"/>
+      <c r="J197" s="86"/>
+      <c r="K197" s="8"/>
+      <c r="L197" s="22"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C198" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D190" s="57" t="s">
+      <c r="D198" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E190" s="57"/>
-      <c r="F190" s="57"/>
-      <c r="G190" s="5" t="s">
+      <c r="E198" s="55"/>
+      <c r="F198" s="55"/>
+      <c r="G198" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H190" s="57" t="s">
+      <c r="H198" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="I190" s="57"/>
-      <c r="J190" s="57"/>
-      <c r="K190" s="9"/>
-      <c r="L190" s="29"/>
-    </row>
-    <row r="191" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C191" s="23" t="s">
+      <c r="I198" s="55"/>
+      <c r="J198" s="55"/>
+      <c r="K198" s="9"/>
+      <c r="L198" s="29"/>
+    </row>
+    <row r="199" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C199" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D191" s="52" t="s">
+      <c r="D199" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="E191" s="52"/>
-      <c r="F191" s="52"/>
-      <c r="G191" s="24" t="s">
+      <c r="E199" s="87"/>
+      <c r="F199" s="87"/>
+      <c r="G199" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H191" s="52" t="s">
+      <c r="H199" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="I191" s="52"/>
-      <c r="J191" s="52"/>
-      <c r="K191" s="25"/>
-      <c r="L191" s="26"/>
-    </row>
-    <row r="192" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="194" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="50">
-        <v>18</v>
-      </c>
-      <c r="C194" s="69" t="s">
+      <c r="I199" s="87"/>
+      <c r="J199" s="87"/>
+      <c r="K199" s="25"/>
+      <c r="L199" s="26"/>
+    </row>
+    <row r="200" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="202" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="50">
+        <v>19</v>
+      </c>
+      <c r="C202" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="D194" s="70"/>
-      <c r="E194" s="70"/>
-      <c r="F194" s="70"/>
-      <c r="G194" s="70"/>
-      <c r="H194" s="70"/>
-      <c r="I194" s="70"/>
-      <c r="J194" s="70"/>
-      <c r="K194" s="71"/>
-      <c r="L194" s="72"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C195" s="73" t="s">
+      <c r="D202" s="66"/>
+      <c r="E202" s="66"/>
+      <c r="F202" s="66"/>
+      <c r="G202" s="66"/>
+      <c r="H202" s="66"/>
+      <c r="I202" s="66"/>
+      <c r="J202" s="66"/>
+      <c r="K202" s="67"/>
+      <c r="L202" s="68"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C203" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="D195" s="74"/>
-      <c r="E195" s="74"/>
-      <c r="F195" s="74"/>
-      <c r="G195" s="74"/>
-      <c r="H195" s="74"/>
-      <c r="I195" s="74"/>
-      <c r="J195" s="74"/>
-      <c r="K195" s="74"/>
-      <c r="L195" s="75"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C196" s="33" t="s">
+      <c r="D203" s="70"/>
+      <c r="E203" s="70"/>
+      <c r="F203" s="70"/>
+      <c r="G203" s="70"/>
+      <c r="H203" s="70"/>
+      <c r="I203" s="70"/>
+      <c r="J203" s="70"/>
+      <c r="K203" s="70"/>
+      <c r="L203" s="71"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C204" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D196" s="76" t="s">
+      <c r="D204" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="E196" s="77"/>
-      <c r="F196" s="78" t="s">
+      <c r="E204" s="79"/>
+      <c r="F204" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="G196" s="78"/>
-      <c r="H196" s="79"/>
-      <c r="I196" s="34" t="s">
+      <c r="G204" s="80"/>
+      <c r="H204" s="81"/>
+      <c r="I204" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J196" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K196" s="80" t="s">
+      <c r="J204" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K204" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="L196" s="81"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A197" s="51"/>
-      <c r="C197" s="39"/>
-      <c r="D197" s="63" t="s">
+      <c r="L204" s="83"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" s="51"/>
+      <c r="C205" s="39"/>
+      <c r="D205" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="E197" s="64"/>
-      <c r="F197" s="65" t="s">
+      <c r="E205" s="57"/>
+      <c r="F205" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="G197" s="65"/>
-      <c r="H197" s="66"/>
-      <c r="I197" s="40" t="s">
+      <c r="G205" s="58"/>
+      <c r="H205" s="59"/>
+      <c r="I205" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="J197" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K197" s="67"/>
-      <c r="L197" s="68"/>
-    </row>
-    <row r="198" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C198" s="83"/>
-      <c r="D198" s="84"/>
-      <c r="E198" s="84"/>
-      <c r="F198" s="84"/>
-      <c r="G198" s="84"/>
-      <c r="H198" s="84"/>
-      <c r="I198" s="84"/>
-      <c r="J198" s="84"/>
-      <c r="K198" s="84"/>
-      <c r="L198" s="85"/>
-    </row>
-    <row r="199" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="201" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="50">
-        <v>19</v>
-      </c>
-      <c r="C201" s="69" t="s">
+      <c r="J205" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="K205" s="60"/>
+      <c r="L205" s="61"/>
+    </row>
+    <row r="206" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C206" s="91"/>
+      <c r="D206" s="92"/>
+      <c r="E206" s="92"/>
+      <c r="F206" s="92"/>
+      <c r="G206" s="92"/>
+      <c r="H206" s="92"/>
+      <c r="I206" s="92"/>
+      <c r="J206" s="92"/>
+      <c r="K206" s="92"/>
+      <c r="L206" s="93"/>
+    </row>
+    <row r="207" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="209" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="50">
+        <v>20</v>
+      </c>
+      <c r="C209" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="D201" s="70"/>
-      <c r="E201" s="70"/>
-      <c r="F201" s="70"/>
-      <c r="G201" s="70"/>
-      <c r="H201" s="70"/>
-      <c r="I201" s="70"/>
-      <c r="J201" s="70"/>
-      <c r="K201" s="71"/>
-      <c r="L201" s="72"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C202" s="73" t="s">
+      <c r="D209" s="66"/>
+      <c r="E209" s="66"/>
+      <c r="F209" s="66"/>
+      <c r="G209" s="66"/>
+      <c r="H209" s="66"/>
+      <c r="I209" s="66"/>
+      <c r="J209" s="66"/>
+      <c r="K209" s="67"/>
+      <c r="L209" s="68"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C210" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="D202" s="74"/>
-      <c r="E202" s="74"/>
-      <c r="F202" s="74"/>
-      <c r="G202" s="74"/>
-      <c r="H202" s="74"/>
-      <c r="I202" s="74"/>
-      <c r="J202" s="74"/>
-      <c r="K202" s="74"/>
-      <c r="L202" s="75"/>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C203" s="33" t="s">
+      <c r="D210" s="70"/>
+      <c r="E210" s="70"/>
+      <c r="F210" s="70"/>
+      <c r="G210" s="70"/>
+      <c r="H210" s="70"/>
+      <c r="I210" s="70"/>
+      <c r="J210" s="70"/>
+      <c r="K210" s="70"/>
+      <c r="L210" s="71"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C211" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D203" s="76" t="s">
+      <c r="D211" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="E203" s="77"/>
-      <c r="F203" s="78" t="s">
+      <c r="E211" s="79"/>
+      <c r="F211" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="G203" s="78"/>
-      <c r="H203" s="79"/>
-      <c r="I203" s="34" t="s">
+      <c r="G211" s="80"/>
+      <c r="H211" s="81"/>
+      <c r="I211" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J203" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K203" s="80" t="s">
+      <c r="J211" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K211" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="L203" s="81"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C204" s="36" t="s">
+      <c r="L211" s="83"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C212" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="D204" s="58" t="s">
+      <c r="D212" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="E204" s="59"/>
-      <c r="F204" s="53" t="s">
+      <c r="E212" s="73"/>
+      <c r="F212" s="74" t="s">
         <v>154</v>
       </c>
-      <c r="G204" s="53"/>
-      <c r="H204" s="54"/>
-      <c r="I204" s="37" t="s">
+      <c r="G212" s="74"/>
+      <c r="H212" s="75"/>
+      <c r="I212" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="J204" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K204" s="55"/>
-      <c r="L204" s="56"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C205" s="36" t="s">
+      <c r="J212" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K212" s="76"/>
+      <c r="L212" s="77"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C213" s="36" t="s">
         <v>211</v>
       </c>
-      <c r="D205" s="58" t="s">
+      <c r="D213" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="E205" s="59"/>
-      <c r="F205" s="53" t="s">
+      <c r="E213" s="73"/>
+      <c r="F213" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="G205" s="53"/>
-      <c r="H205" s="54"/>
-      <c r="I205" s="37" t="s">
+      <c r="G213" s="74"/>
+      <c r="H213" s="75"/>
+      <c r="I213" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J205" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K205" s="55" t="s">
+      <c r="J213" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K213" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="L205" s="56"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C206" s="36" t="s">
+      <c r="L213" s="77"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C214" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D206" s="58" t="s">
+      <c r="D214" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="E206" s="59"/>
-      <c r="F206" s="53" t="s">
+      <c r="E214" s="73"/>
+      <c r="F214" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="G206" s="53"/>
-      <c r="H206" s="54"/>
-      <c r="I206" s="37" t="s">
+      <c r="G214" s="74"/>
+      <c r="H214" s="75"/>
+      <c r="I214" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J206" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K206" s="55" t="s">
+      <c r="J214" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K214" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="L206" s="56"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C207" s="36"/>
-      <c r="D207" s="58" t="s">
+      <c r="L214" s="77"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C215" s="36"/>
+      <c r="D215" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="E207" s="59"/>
-      <c r="F207" s="53" t="s">
+      <c r="E215" s="73"/>
+      <c r="F215" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="G207" s="53"/>
-      <c r="H207" s="54"/>
-      <c r="I207" s="37" t="s">
+      <c r="G215" s="74"/>
+      <c r="H215" s="75"/>
+      <c r="I215" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="J207" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K207" s="55"/>
-      <c r="L207" s="56"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A208" s="51"/>
-      <c r="C208" s="39" t="s">
+      <c r="J215" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K215" s="76"/>
+      <c r="L215" s="77"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" s="51"/>
+      <c r="C216" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D208" s="63" t="s">
+      <c r="D216" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="E208" s="64"/>
-      <c r="F208" s="65" t="s">
+      <c r="E216" s="57"/>
+      <c r="F216" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="G208" s="65"/>
-      <c r="H208" s="66"/>
-      <c r="I208" s="40" t="s">
+      <c r="G216" s="58"/>
+      <c r="H216" s="59"/>
+      <c r="I216" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="J208" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K208" s="67" t="s">
+      <c r="J216" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="K216" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="L208" s="68"/>
-    </row>
-    <row r="209" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C209" s="60" t="s">
+      <c r="L216" s="61"/>
+    </row>
+    <row r="217" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C217" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D209" s="61"/>
-      <c r="E209" s="61"/>
-      <c r="F209" s="61"/>
-      <c r="G209" s="61"/>
-      <c r="H209" s="61"/>
-      <c r="I209" s="61"/>
-      <c r="J209" s="61"/>
-      <c r="K209" s="61"/>
-      <c r="L209" s="62"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C210" s="28" t="s">
+      <c r="D217" s="63"/>
+      <c r="E217" s="63"/>
+      <c r="F217" s="63"/>
+      <c r="G217" s="63"/>
+      <c r="H217" s="63"/>
+      <c r="I217" s="63"/>
+      <c r="J217" s="63"/>
+      <c r="K217" s="63"/>
+      <c r="L217" s="64"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C218" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="D210" s="57" t="s">
+      <c r="D218" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="E210" s="57"/>
-      <c r="F210" s="57"/>
-      <c r="G210" s="5" t="s">
+      <c r="E218" s="55"/>
+      <c r="F218" s="55"/>
+      <c r="G218" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H210" s="57"/>
-      <c r="I210" s="57"/>
-      <c r="J210" s="57"/>
-      <c r="K210" s="8"/>
-      <c r="L210" s="22"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C211" s="28" t="s">
+      <c r="H218" s="55"/>
+      <c r="I218" s="55"/>
+      <c r="J218" s="55"/>
+      <c r="K218" s="8"/>
+      <c r="L218" s="22"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C219" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="D211" s="57" t="s">
+      <c r="D219" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E211" s="57"/>
-      <c r="F211" s="57"/>
-      <c r="G211" s="5" t="s">
+      <c r="E219" s="55"/>
+      <c r="F219" s="55"/>
+      <c r="G219" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H211" s="18"/>
-      <c r="I211" s="6"/>
-      <c r="J211" s="6"/>
-      <c r="K211" s="9"/>
-      <c r="L211" s="29"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C212" s="28" t="s">
+      <c r="H219" s="18"/>
+      <c r="I219" s="6"/>
+      <c r="J219" s="6"/>
+      <c r="K219" s="9"/>
+      <c r="L219" s="29"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C220" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D212" s="57" t="s">
+      <c r="D220" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E212" s="57"/>
-      <c r="F212" s="57"/>
-      <c r="G212" s="5" t="s">
+      <c r="E220" s="55"/>
+      <c r="F220" s="55"/>
+      <c r="G220" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H212" s="57" t="s">
+      <c r="H220" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="I212" s="57"/>
-      <c r="J212" s="57"/>
-      <c r="K212" s="9"/>
-      <c r="L212" s="29"/>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C213" s="28" t="s">
+      <c r="I220" s="55"/>
+      <c r="J220" s="55"/>
+      <c r="K220" s="9"/>
+      <c r="L220" s="29"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C221" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D213" s="57" t="s">
+      <c r="D221" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="E213" s="57"/>
-      <c r="F213" s="57"/>
-      <c r="G213" s="5" t="s">
+      <c r="E221" s="55"/>
+      <c r="F221" s="55"/>
+      <c r="G221" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H213" s="57" t="s">
+      <c r="H221" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="I213" s="57"/>
-      <c r="J213" s="57"/>
-      <c r="K213" s="9"/>
-      <c r="L213" s="29"/>
-    </row>
-    <row r="214" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C214" s="23" t="s">
+      <c r="I221" s="55"/>
+      <c r="J221" s="55"/>
+      <c r="K221" s="9"/>
+      <c r="L221" s="29"/>
+    </row>
+    <row r="222" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C222" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D214" s="52" t="s">
+      <c r="D222" s="87" t="s">
         <v>227</v>
       </c>
-      <c r="E214" s="52"/>
-      <c r="F214" s="52"/>
-      <c r="G214" s="24" t="s">
+      <c r="E222" s="87"/>
+      <c r="F222" s="87"/>
+      <c r="G222" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H214" s="52" t="s">
+      <c r="H222" s="87" t="s">
         <v>228</v>
       </c>
-      <c r="I214" s="52"/>
-      <c r="J214" s="52"/>
-      <c r="K214" s="25"/>
-      <c r="L214" s="26"/>
-    </row>
-    <row r="215" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="216" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="217" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="50">
-        <v>20</v>
-      </c>
-      <c r="C217" s="69" t="s">
+      <c r="I222" s="87"/>
+      <c r="J222" s="87"/>
+      <c r="K222" s="25"/>
+      <c r="L222" s="26"/>
+    </row>
+    <row r="223" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="225" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="50">
+        <v>21</v>
+      </c>
+      <c r="C225" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D217" s="70"/>
-      <c r="E217" s="70"/>
-      <c r="F217" s="70"/>
-      <c r="G217" s="70"/>
-      <c r="H217" s="70"/>
-      <c r="I217" s="70"/>
-      <c r="J217" s="70"/>
-      <c r="K217" s="71"/>
-      <c r="L217" s="72"/>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C218" s="73" t="s">
+      <c r="D225" s="66"/>
+      <c r="E225" s="66"/>
+      <c r="F225" s="66"/>
+      <c r="G225" s="66"/>
+      <c r="H225" s="66"/>
+      <c r="I225" s="66"/>
+      <c r="J225" s="66"/>
+      <c r="K225" s="67"/>
+      <c r="L225" s="68"/>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C226" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="D218" s="74"/>
-      <c r="E218" s="74"/>
-      <c r="F218" s="74"/>
-      <c r="G218" s="74"/>
-      <c r="H218" s="74"/>
-      <c r="I218" s="74"/>
-      <c r="J218" s="74"/>
-      <c r="K218" s="74"/>
-      <c r="L218" s="75"/>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A219" s="51"/>
-      <c r="C219" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D219" s="76" t="s">
-        <v>227</v>
-      </c>
-      <c r="E219" s="77"/>
-      <c r="F219" s="78" t="s">
-        <v>165</v>
-      </c>
-      <c r="G219" s="78"/>
-      <c r="H219" s="79"/>
-      <c r="I219" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="J219" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K219" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="L219" s="81"/>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A220" s="51"/>
-      <c r="C220" s="39"/>
-      <c r="D220" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="E220" s="64"/>
-      <c r="F220" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="G220" s="65"/>
-      <c r="H220" s="66"/>
-      <c r="I220" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="J220" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K220" s="67"/>
-      <c r="L220" s="68"/>
-    </row>
-    <row r="221" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="51"/>
-      <c r="C221" s="83"/>
-      <c r="D221" s="84"/>
-      <c r="E221" s="84"/>
-      <c r="F221" s="84"/>
-      <c r="G221" s="84"/>
-      <c r="H221" s="84"/>
-      <c r="I221" s="84"/>
-      <c r="J221" s="84"/>
-      <c r="K221" s="84"/>
-      <c r="L221" s="85"/>
-    </row>
-    <row r="222" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="51"/>
-    </row>
-    <row r="223" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="51"/>
-    </row>
-    <row r="224" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="51"/>
-      <c r="B224" s="50">
-        <v>21</v>
-      </c>
-      <c r="C224" s="69" t="s">
-        <v>176</v>
-      </c>
-      <c r="D224" s="70"/>
-      <c r="E224" s="70"/>
-      <c r="F224" s="70"/>
-      <c r="G224" s="70"/>
-      <c r="H224" s="70"/>
-      <c r="I224" s="70"/>
-      <c r="J224" s="70"/>
-      <c r="K224" s="71"/>
-      <c r="L224" s="72"/>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A225" s="51"/>
-      <c r="C225" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="D225" s="74"/>
-      <c r="E225" s="74"/>
-      <c r="F225" s="74"/>
-      <c r="G225" s="74"/>
-      <c r="H225" s="74"/>
-      <c r="I225" s="74"/>
-      <c r="J225" s="74"/>
-      <c r="K225" s="74"/>
-      <c r="L225" s="75"/>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A226" s="51"/>
-      <c r="C226" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D226" s="76" t="s">
-        <v>229</v>
-      </c>
-      <c r="E226" s="77"/>
-      <c r="F226" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="G226" s="78"/>
-      <c r="H226" s="79"/>
-      <c r="I226" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="J226" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K226" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="L226" s="81"/>
+      <c r="D226" s="70"/>
+      <c r="E226" s="70"/>
+      <c r="F226" s="70"/>
+      <c r="G226" s="70"/>
+      <c r="H226" s="70"/>
+      <c r="I226" s="70"/>
+      <c r="J226" s="70"/>
+      <c r="K226" s="70"/>
+      <c r="L226" s="71"/>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="51"/>
-      <c r="C227" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="D227" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="E227" s="59"/>
-      <c r="F227" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="G227" s="53"/>
-      <c r="H227" s="54"/>
-      <c r="I227" s="37" t="s">
+      <c r="C227" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D227" s="78" t="s">
+        <v>227</v>
+      </c>
+      <c r="E227" s="79"/>
+      <c r="F227" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="G227" s="80"/>
+      <c r="H227" s="81"/>
+      <c r="I227" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J227" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K227" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="L227" s="56"/>
-      <c r="P227" t="s">
-        <v>223</v>
-      </c>
+      <c r="J227" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K227" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="L227" s="83"/>
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="51"/>
-      <c r="C228" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D228" s="63" t="s">
-        <v>230</v>
-      </c>
-      <c r="E228" s="64"/>
-      <c r="F228" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="G228" s="65"/>
-      <c r="H228" s="66"/>
+      <c r="C228" s="39"/>
+      <c r="D228" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="E228" s="57"/>
+      <c r="F228" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="G228" s="58"/>
+      <c r="H228" s="59"/>
       <c r="I228" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="J228" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="K228" s="60"/>
+      <c r="L228" s="61"/>
+    </row>
+    <row r="229" spans="1:16" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="51"/>
+      <c r="C229" s="91"/>
+      <c r="D229" s="92"/>
+      <c r="E229" s="92"/>
+      <c r="F229" s="92"/>
+      <c r="G229" s="92"/>
+      <c r="H229" s="92"/>
+      <c r="I229" s="92"/>
+      <c r="J229" s="92"/>
+      <c r="K229" s="92"/>
+      <c r="L229" s="93"/>
+    </row>
+    <row r="230" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="51"/>
+    </row>
+    <row r="231" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="51"/>
+    </row>
+    <row r="232" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="51"/>
+      <c r="B232" s="50">
+        <v>22</v>
+      </c>
+      <c r="C232" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="D232" s="66"/>
+      <c r="E232" s="66"/>
+      <c r="F232" s="66"/>
+      <c r="G232" s="66"/>
+      <c r="H232" s="66"/>
+      <c r="I232" s="66"/>
+      <c r="J232" s="66"/>
+      <c r="K232" s="67"/>
+      <c r="L232" s="68"/>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A233" s="51"/>
+      <c r="C233" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="D233" s="70"/>
+      <c r="E233" s="70"/>
+      <c r="F233" s="70"/>
+      <c r="G233" s="70"/>
+      <c r="H233" s="70"/>
+      <c r="I233" s="70"/>
+      <c r="J233" s="70"/>
+      <c r="K233" s="70"/>
+      <c r="L233" s="71"/>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A234" s="51"/>
+      <c r="C234" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D234" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="E234" s="79"/>
+      <c r="F234" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="G234" s="80"/>
+      <c r="H234" s="81"/>
+      <c r="I234" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J228" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K228" s="67" t="s">
+      <c r="J234" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K234" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="L234" s="83"/>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A235" s="51"/>
+      <c r="C235" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D235" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="E235" s="73"/>
+      <c r="F235" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="G235" s="74"/>
+      <c r="H235" s="75"/>
+      <c r="I235" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J235" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K235" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="L228" s="68"/>
-    </row>
-    <row r="229" spans="1:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="51"/>
-      <c r="C229" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="D229" s="61"/>
-      <c r="E229" s="61"/>
-      <c r="F229" s="61"/>
-      <c r="G229" s="61"/>
-      <c r="H229" s="61"/>
-      <c r="I229" s="61"/>
-      <c r="J229" s="61"/>
-      <c r="K229" s="61"/>
-      <c r="L229" s="62"/>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A230" s="51"/>
-      <c r="C230" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="D230" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="E230" s="57"/>
-      <c r="F230" s="57"/>
-      <c r="G230" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H230" s="57"/>
-      <c r="I230" s="57"/>
-      <c r="J230" s="57"/>
-      <c r="K230" s="9"/>
-      <c r="L230" s="29"/>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A231" s="51"/>
-      <c r="C231" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D231" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="E231" s="57"/>
-      <c r="F231" s="57"/>
-      <c r="G231" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H231" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="I231" s="57"/>
-      <c r="J231" s="57"/>
-      <c r="K231" s="9"/>
-      <c r="L231" s="29"/>
-    </row>
-    <row r="232" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="51"/>
-      <c r="C232" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D232" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="E232" s="52"/>
-      <c r="F232" s="52"/>
-      <c r="G232" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H232" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="I232" s="52"/>
-      <c r="J232" s="52"/>
-      <c r="K232" s="25"/>
-      <c r="L232" s="26"/>
-    </row>
-    <row r="233" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="51"/>
-    </row>
-    <row r="234" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="51"/>
-    </row>
-    <row r="235" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="51"/>
-      <c r="B235" s="50">
-        <v>22</v>
-      </c>
-      <c r="C235" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="D235" s="70"/>
-      <c r="E235" s="70"/>
-      <c r="F235" s="70"/>
-      <c r="G235" s="70"/>
-      <c r="H235" s="70"/>
-      <c r="I235" s="70"/>
-      <c r="J235" s="70"/>
-      <c r="K235" s="71"/>
-      <c r="L235" s="72"/>
+      <c r="L235" s="77"/>
+      <c r="P235" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="51"/>
-      <c r="C236" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="D236" s="74"/>
-      <c r="E236" s="74"/>
-      <c r="F236" s="74"/>
-      <c r="G236" s="74"/>
-      <c r="H236" s="74"/>
-      <c r="I236" s="74"/>
-      <c r="J236" s="74"/>
-      <c r="K236" s="74"/>
-      <c r="L236" s="75"/>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C236" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D236" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="E236" s="57"/>
+      <c r="F236" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="G236" s="58"/>
+      <c r="H236" s="59"/>
+      <c r="I236" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J236" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="K236" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="L236" s="61"/>
+    </row>
+    <row r="237" spans="1:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="51"/>
-      <c r="C237" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D237" s="76" t="s">
-        <v>230</v>
-      </c>
-      <c r="E237" s="77"/>
-      <c r="F237" s="78" t="s">
-        <v>169</v>
-      </c>
-      <c r="G237" s="78"/>
-      <c r="H237" s="79"/>
-      <c r="I237" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="J237" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K237" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="L237" s="81"/>
+      <c r="C237" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D237" s="63"/>
+      <c r="E237" s="63"/>
+      <c r="F237" s="63"/>
+      <c r="G237" s="63"/>
+      <c r="H237" s="63"/>
+      <c r="I237" s="63"/>
+      <c r="J237" s="63"/>
+      <c r="K237" s="63"/>
+      <c r="L237" s="64"/>
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="51"/>
-      <c r="C238" s="39"/>
-      <c r="D238" s="63" t="s">
+      <c r="C238" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="D238" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="E238" s="55"/>
+      <c r="F238" s="55"/>
+      <c r="G238" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H238" s="55"/>
+      <c r="I238" s="55"/>
+      <c r="J238" s="55"/>
+      <c r="K238" s="9"/>
+      <c r="L238" s="29"/>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A239" s="51"/>
+      <c r="C239" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D239" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="E239" s="55"/>
+      <c r="F239" s="55"/>
+      <c r="G239" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H239" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="I239" s="55"/>
+      <c r="J239" s="55"/>
+      <c r="K239" s="9"/>
+      <c r="L239" s="29"/>
+    </row>
+    <row r="240" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="51"/>
+      <c r="C240" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D240" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="E240" s="87"/>
+      <c r="F240" s="87"/>
+      <c r="G240" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H240" s="87" t="s">
+        <v>231</v>
+      </c>
+      <c r="I240" s="87"/>
+      <c r="J240" s="87"/>
+      <c r="K240" s="25"/>
+      <c r="L240" s="26"/>
+    </row>
+    <row r="241" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="51"/>
+    </row>
+    <row r="242" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="51"/>
+    </row>
+    <row r="243" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="51"/>
+      <c r="B243" s="50">
+        <v>23</v>
+      </c>
+      <c r="C243" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="E238" s="64"/>
-      <c r="F238" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="G238" s="65"/>
-      <c r="H238" s="66"/>
-      <c r="I238" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J238" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K238" s="67"/>
-      <c r="L238" s="68"/>
-    </row>
-    <row r="239" spans="1:16" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="51"/>
-      <c r="C239" s="83"/>
-      <c r="D239" s="84"/>
-      <c r="E239" s="84"/>
-      <c r="F239" s="84"/>
-      <c r="G239" s="84"/>
-      <c r="H239" s="84"/>
-      <c r="I239" s="84"/>
-      <c r="J239" s="84"/>
-      <c r="K239" s="84"/>
-      <c r="L239" s="85"/>
-    </row>
-    <row r="240" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="51"/>
-    </row>
-    <row r="241" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="51"/>
-    </row>
-    <row r="242" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="51"/>
-      <c r="B242" s="50">
-        <v>23</v>
-      </c>
-      <c r="C242" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="D242" s="70"/>
-      <c r="E242" s="70"/>
-      <c r="F242" s="70"/>
-      <c r="G242" s="70"/>
-      <c r="H242" s="70"/>
-      <c r="I242" s="70"/>
-      <c r="J242" s="70"/>
-      <c r="K242" s="71"/>
-      <c r="L242" s="72"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A243" s="51"/>
-      <c r="C243" s="73" t="s">
-        <v>183</v>
-      </c>
-      <c r="D243" s="74"/>
-      <c r="E243" s="74"/>
-      <c r="F243" s="74"/>
-      <c r="G243" s="74"/>
-      <c r="H243" s="74"/>
-      <c r="I243" s="74"/>
-      <c r="J243" s="74"/>
-      <c r="K243" s="74"/>
-      <c r="L243" s="75"/>
+      <c r="D243" s="66"/>
+      <c r="E243" s="66"/>
+      <c r="F243" s="66"/>
+      <c r="G243" s="66"/>
+      <c r="H243" s="66"/>
+      <c r="I243" s="66"/>
+      <c r="J243" s="66"/>
+      <c r="K243" s="67"/>
+      <c r="L243" s="68"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="51"/>
-      <c r="C244" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D244" s="76" t="s">
-        <v>152</v>
-      </c>
-      <c r="E244" s="77"/>
-      <c r="F244" s="78" t="s">
-        <v>156</v>
-      </c>
-      <c r="G244" s="78"/>
-      <c r="H244" s="79"/>
-      <c r="I244" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="J244" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K244" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="L244" s="81"/>
+      <c r="C244" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="D244" s="70"/>
+      <c r="E244" s="70"/>
+      <c r="F244" s="70"/>
+      <c r="G244" s="70"/>
+      <c r="H244" s="70"/>
+      <c r="I244" s="70"/>
+      <c r="J244" s="70"/>
+      <c r="K244" s="70"/>
+      <c r="L244" s="71"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="51"/>
-      <c r="C245" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="D245" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="E245" s="59"/>
-      <c r="F245" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="G245" s="53"/>
-      <c r="H245" s="54"/>
-      <c r="I245" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="J245" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K245" s="55"/>
-      <c r="L245" s="56"/>
+      <c r="C245" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D245" s="78" t="s">
+        <v>230</v>
+      </c>
+      <c r="E245" s="79"/>
+      <c r="F245" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="G245" s="80"/>
+      <c r="H245" s="81"/>
+      <c r="I245" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J245" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K245" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="L245" s="83"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="51"/>
-      <c r="C246" s="36"/>
-      <c r="D246" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="E246" s="59"/>
-      <c r="F246" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="G246" s="53"/>
-      <c r="H246" s="54"/>
-      <c r="I246" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="J246" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K246" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="L246" s="56"/>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C246" s="39"/>
+      <c r="D246" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="E246" s="57"/>
+      <c r="F246" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="G246" s="58"/>
+      <c r="H246" s="59"/>
+      <c r="I246" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="J246" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="K246" s="60"/>
+      <c r="L246" s="61"/>
+    </row>
+    <row r="247" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="51"/>
-      <c r="C247" s="36"/>
-      <c r="D247" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="E247" s="59"/>
-      <c r="F247" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="G247" s="53"/>
-      <c r="H247" s="54"/>
-      <c r="I247" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="J247" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K247" s="55"/>
-      <c r="L247" s="56"/>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C247" s="91"/>
+      <c r="D247" s="92"/>
+      <c r="E247" s="92"/>
+      <c r="F247" s="92"/>
+      <c r="G247" s="92"/>
+      <c r="H247" s="92"/>
+      <c r="I247" s="92"/>
+      <c r="J247" s="92"/>
+      <c r="K247" s="92"/>
+      <c r="L247" s="93"/>
+    </row>
+    <row r="248" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A248" s="51"/>
-      <c r="C248" s="36"/>
-      <c r="D248" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="E248" s="59"/>
-      <c r="F248" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="G248" s="53"/>
-      <c r="H248" s="54"/>
-      <c r="I248" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="J248" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K248" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="L248" s="56"/>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="51"/>
-      <c r="C249" s="36"/>
-      <c r="D249" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="E249" s="59"/>
-      <c r="F249" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="G249" s="53"/>
-      <c r="H249" s="54"/>
-      <c r="I249" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="J249" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K249" s="55"/>
-      <c r="L249" s="56"/>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A250" s="51"/>
-      <c r="C250" s="36"/>
-      <c r="D250" s="58" t="s">
-        <v>205</v>
-      </c>
-      <c r="E250" s="59"/>
-      <c r="F250" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="G250" s="53"/>
-      <c r="H250" s="54"/>
-      <c r="I250" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="J250" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K250" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="L250" s="56"/>
+      <c r="B250" s="50">
+        <v>24</v>
+      </c>
+      <c r="C250" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="D250" s="66"/>
+      <c r="E250" s="66"/>
+      <c r="F250" s="66"/>
+      <c r="G250" s="66"/>
+      <c r="H250" s="66"/>
+      <c r="I250" s="66"/>
+      <c r="J250" s="66"/>
+      <c r="K250" s="67"/>
+      <c r="L250" s="68"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="51"/>
-      <c r="C251" s="36"/>
-      <c r="D251" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="E251" s="59"/>
-      <c r="F251" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="G251" s="53"/>
-      <c r="H251" s="54"/>
-      <c r="I251" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="J251" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K251" s="55"/>
-      <c r="L251" s="56"/>
+      <c r="C251" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D251" s="70"/>
+      <c r="E251" s="70"/>
+      <c r="F251" s="70"/>
+      <c r="G251" s="70"/>
+      <c r="H251" s="70"/>
+      <c r="I251" s="70"/>
+      <c r="J251" s="70"/>
+      <c r="K251" s="70"/>
+      <c r="L251" s="71"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="51"/>
-      <c r="C252" s="39"/>
-      <c r="D252" s="63" t="s">
+      <c r="C252" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D252" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="E252" s="79"/>
+      <c r="F252" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="G252" s="80"/>
+      <c r="H252" s="81"/>
+      <c r="I252" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J252" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K252" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="L252" s="83"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A253" s="51"/>
+      <c r="C253" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="D253" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="E253" s="73"/>
+      <c r="F253" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="G253" s="74"/>
+      <c r="H253" s="75"/>
+      <c r="I253" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="J253" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K253" s="76"/>
+      <c r="L253" s="77"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A254" s="51"/>
+      <c r="C254" s="36"/>
+      <c r="D254" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="E254" s="73"/>
+      <c r="F254" s="74" t="s">
+        <v>194</v>
+      </c>
+      <c r="G254" s="74"/>
+      <c r="H254" s="75"/>
+      <c r="I254" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="J254" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K254" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="L254" s="77"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A255" s="51"/>
+      <c r="C255" s="36"/>
+      <c r="D255" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="E255" s="73"/>
+      <c r="F255" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="G255" s="74"/>
+      <c r="H255" s="75"/>
+      <c r="I255" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J255" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K255" s="76"/>
+      <c r="L255" s="77"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A256" s="51"/>
+      <c r="C256" s="36"/>
+      <c r="D256" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="E256" s="73"/>
+      <c r="F256" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="G256" s="74"/>
+      <c r="H256" s="75"/>
+      <c r="I256" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="J256" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K256" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="L256" s="77"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A257" s="51"/>
+      <c r="C257" s="36"/>
+      <c r="D257" s="72" t="s">
+        <v>198</v>
+      </c>
+      <c r="E257" s="73"/>
+      <c r="F257" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="G257" s="74"/>
+      <c r="H257" s="75"/>
+      <c r="I257" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="J257" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K257" s="76"/>
+      <c r="L257" s="77"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A258" s="51"/>
+      <c r="C258" s="36"/>
+      <c r="D258" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="E258" s="73"/>
+      <c r="F258" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="G258" s="74"/>
+      <c r="H258" s="75"/>
+      <c r="I258" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="J258" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K258" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="L258" s="77"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A259" s="51"/>
+      <c r="C259" s="36"/>
+      <c r="D259" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="E259" s="73"/>
+      <c r="F259" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="G259" s="74"/>
+      <c r="H259" s="75"/>
+      <c r="I259" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="J259" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K259" s="76"/>
+      <c r="L259" s="77"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A260" s="51"/>
+      <c r="C260" s="39"/>
+      <c r="D260" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="E252" s="64"/>
-      <c r="F252" s="65" t="s">
+      <c r="E260" s="57"/>
+      <c r="F260" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="G252" s="65"/>
-      <c r="H252" s="66"/>
-      <c r="I252" s="40" t="s">
+      <c r="G260" s="58"/>
+      <c r="H260" s="59"/>
+      <c r="I260" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="J252" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K252" s="67"/>
-      <c r="L252" s="68"/>
-    </row>
-    <row r="253" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="51"/>
-      <c r="C253" s="60" t="s">
+      <c r="J260" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="K260" s="60"/>
+      <c r="L260" s="61"/>
+    </row>
+    <row r="261" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="51"/>
+      <c r="C261" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D253" s="61"/>
-      <c r="E253" s="61"/>
-      <c r="F253" s="61"/>
-      <c r="G253" s="61"/>
-      <c r="H253" s="61"/>
-      <c r="I253" s="61"/>
-      <c r="J253" s="61"/>
-      <c r="K253" s="61"/>
-      <c r="L253" s="62"/>
-    </row>
-    <row r="254" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="51"/>
-      <c r="C254" s="23" t="s">
+      <c r="D261" s="63"/>
+      <c r="E261" s="63"/>
+      <c r="F261" s="63"/>
+      <c r="G261" s="63"/>
+      <c r="H261" s="63"/>
+      <c r="I261" s="63"/>
+      <c r="J261" s="63"/>
+      <c r="K261" s="63"/>
+      <c r="L261" s="64"/>
+    </row>
+    <row r="262" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="51"/>
+      <c r="C262" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="D254" s="52" t="s">
+      <c r="D262" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="E254" s="52"/>
-      <c r="F254" s="52"/>
-      <c r="G254" s="24" t="s">
+      <c r="E262" s="87"/>
+      <c r="F262" s="87"/>
+      <c r="G262" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="H254" s="52"/>
-      <c r="I254" s="52"/>
-      <c r="J254" s="52"/>
-      <c r="K254" s="25"/>
-      <c r="L254" s="26"/>
-    </row>
-    <row r="255" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="51"/>
+      <c r="H262" s="87"/>
+      <c r="I262" s="87"/>
+      <c r="J262" s="87"/>
+      <c r="K262" s="25"/>
+      <c r="L262" s="26"/>
+    </row>
+    <row r="263" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="453">
+    <mergeCell ref="C173:L173"/>
+    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="H174:J174"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="F172:H172"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="C168:L168"/>
+    <mergeCell ref="C169:L169"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="F170:H170"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="F171:H171"/>
+    <mergeCell ref="K171:L171"/>
+    <mergeCell ref="D262:F262"/>
+    <mergeCell ref="H262:J262"/>
+    <mergeCell ref="F258:H258"/>
+    <mergeCell ref="K258:L258"/>
     <mergeCell ref="D133:F133"/>
     <mergeCell ref="H133:J133"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="C35:L35"/>
-    <mergeCell ref="C36:L36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="C43:L43"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C40:L40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="D220:F220"/>
+    <mergeCell ref="H220:J220"/>
+    <mergeCell ref="D219:F219"/>
+    <mergeCell ref="K254:L254"/>
+    <mergeCell ref="K255:L255"/>
+    <mergeCell ref="K256:L256"/>
+    <mergeCell ref="K259:L259"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="F256:H256"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="F255:H255"/>
+    <mergeCell ref="D254:E254"/>
+    <mergeCell ref="F254:H254"/>
+    <mergeCell ref="C261:L261"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="F260:H260"/>
+    <mergeCell ref="K260:L260"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="F257:H257"/>
+    <mergeCell ref="K257:L257"/>
+    <mergeCell ref="C250:L250"/>
+    <mergeCell ref="C251:L251"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="F252:H252"/>
+    <mergeCell ref="K252:L252"/>
+    <mergeCell ref="D253:E253"/>
+    <mergeCell ref="F253:H253"/>
+    <mergeCell ref="K253:L253"/>
+    <mergeCell ref="D240:F240"/>
+    <mergeCell ref="H240:J240"/>
+    <mergeCell ref="D234:E234"/>
+    <mergeCell ref="F234:H234"/>
+    <mergeCell ref="D238:F238"/>
+    <mergeCell ref="H238:J238"/>
+    <mergeCell ref="C237:L237"/>
+    <mergeCell ref="D239:F239"/>
+    <mergeCell ref="H239:J239"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="F236:H236"/>
+    <mergeCell ref="K236:L236"/>
+    <mergeCell ref="K235:L235"/>
+    <mergeCell ref="D235:E235"/>
+    <mergeCell ref="F235:H235"/>
+    <mergeCell ref="K234:L234"/>
+    <mergeCell ref="C232:L232"/>
+    <mergeCell ref="C233:L233"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="F162:H162"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="C163:L163"/>
+    <mergeCell ref="D164:F164"/>
+    <mergeCell ref="H164:J164"/>
+    <mergeCell ref="D228:E228"/>
+    <mergeCell ref="F228:H228"/>
+    <mergeCell ref="K228:L228"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="F212:H212"/>
+    <mergeCell ref="K212:L212"/>
+    <mergeCell ref="C225:L225"/>
+    <mergeCell ref="C217:L217"/>
+    <mergeCell ref="D218:F218"/>
+    <mergeCell ref="H218:J218"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="H221:J221"/>
+    <mergeCell ref="D222:F222"/>
+    <mergeCell ref="H222:J222"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="F216:H216"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="F246:H246"/>
+    <mergeCell ref="K246:L246"/>
+    <mergeCell ref="C247:L247"/>
+    <mergeCell ref="C152:L152"/>
+    <mergeCell ref="C153:L153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="F154:H154"/>
+    <mergeCell ref="K154:L154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="C229:L229"/>
+    <mergeCell ref="C243:L243"/>
+    <mergeCell ref="C244:L244"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="F245:H245"/>
+    <mergeCell ref="K245:L245"/>
+    <mergeCell ref="C226:L226"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="F227:H227"/>
+    <mergeCell ref="K227:L227"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="K216:L216"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="F214:H214"/>
+    <mergeCell ref="K214:L214"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="F215:H215"/>
+    <mergeCell ref="K215:L215"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="F211:H211"/>
+    <mergeCell ref="K211:L211"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="F213:H213"/>
+    <mergeCell ref="K213:L213"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="F148:H148"/>
+    <mergeCell ref="K148:L148"/>
+    <mergeCell ref="C149:L149"/>
+    <mergeCell ref="C209:L209"/>
+    <mergeCell ref="C210:L210"/>
+    <mergeCell ref="C206:L206"/>
+    <mergeCell ref="C145:L145"/>
+    <mergeCell ref="C146:L146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="K147:L147"/>
+    <mergeCell ref="C202:L202"/>
+    <mergeCell ref="C203:L203"/>
+    <mergeCell ref="D204:E204"/>
+    <mergeCell ref="F204:H204"/>
+    <mergeCell ref="K204:L204"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="F205:H205"/>
+    <mergeCell ref="K205:L205"/>
+    <mergeCell ref="D198:F198"/>
+    <mergeCell ref="H198:J198"/>
+    <mergeCell ref="D199:F199"/>
+    <mergeCell ref="H199:J199"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="F195:H195"/>
+    <mergeCell ref="D194:E194"/>
+    <mergeCell ref="F194:H194"/>
+    <mergeCell ref="K194:L194"/>
+    <mergeCell ref="C196:L196"/>
+    <mergeCell ref="D197:F197"/>
+    <mergeCell ref="H197:J197"/>
+    <mergeCell ref="K195:L195"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="F192:H192"/>
+    <mergeCell ref="K192:L192"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="F193:H193"/>
+    <mergeCell ref="K193:L193"/>
+    <mergeCell ref="D187:F187"/>
+    <mergeCell ref="H187:J187"/>
+    <mergeCell ref="C190:L190"/>
+    <mergeCell ref="C191:L191"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="F183:H183"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="D186:F186"/>
+    <mergeCell ref="H186:J186"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="F184:H184"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="C185:L185"/>
+    <mergeCell ref="D179:E179"/>
+    <mergeCell ref="F179:H179"/>
+    <mergeCell ref="K179:L179"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="F182:H182"/>
+    <mergeCell ref="K182:L182"/>
+    <mergeCell ref="D180:E180"/>
+    <mergeCell ref="F180:H180"/>
+    <mergeCell ref="K180:L180"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="F181:H181"/>
+    <mergeCell ref="K181:L181"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="K141:L141"/>
+    <mergeCell ref="C142:L142"/>
+    <mergeCell ref="C177:L177"/>
+    <mergeCell ref="C178:L178"/>
+    <mergeCell ref="F155:H155"/>
+    <mergeCell ref="K155:L155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="F156:H156"/>
+    <mergeCell ref="K156:L156"/>
+    <mergeCell ref="K157:L157"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="F157:H157"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="D165:F165"/>
+    <mergeCell ref="H165:J165"/>
+    <mergeCell ref="C137:L137"/>
+    <mergeCell ref="C138:L138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="K139:L139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="K140:L140"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="H134:J134"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="C130:L130"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="C115:L115"/>
+    <mergeCell ref="C116:L116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="C109:L109"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="C104:L104"/>
+    <mergeCell ref="C105:L105"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="K119:L119"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="C100:L100"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:H98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="C92:L92"/>
+    <mergeCell ref="C95:L95"/>
+    <mergeCell ref="C96:L96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:H97"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="C84:L84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="C88:L88"/>
+    <mergeCell ref="C89:L89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="C75:L75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="C79:L79"/>
+    <mergeCell ref="C80:L80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="C70:L70"/>
+    <mergeCell ref="C71:L71"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="C66:L66"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="C60:L60"/>
+    <mergeCell ref="C61:L61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="C57:L57"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="K18:L18"/>
@@ -6404,352 +6814,78 @@
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:H46"/>
     <mergeCell ref="K46:L46"/>
-    <mergeCell ref="C60:L60"/>
-    <mergeCell ref="C61:L61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="C57:L57"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="C70:L70"/>
-    <mergeCell ref="C71:L71"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="C66:L66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="C75:L75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="C79:L79"/>
-    <mergeCell ref="C80:L80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="C84:L84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="C88:L88"/>
-    <mergeCell ref="C89:L89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:H98"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="C92:L92"/>
-    <mergeCell ref="C95:L95"/>
-    <mergeCell ref="C96:L96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:H97"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="C100:L100"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F107:H107"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="C109:L109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="H110:J110"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="K118:L118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="C104:L104"/>
-    <mergeCell ref="C105:L105"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="K108:L108"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="K119:L119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="F120:H120"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="H111:J111"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="H112:J112"/>
-    <mergeCell ref="C115:L115"/>
-    <mergeCell ref="C116:L116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="K117:L117"/>
-    <mergeCell ref="C131:L131"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="C43:L43"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C40:L40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="C35:L35"/>
+    <mergeCell ref="C36:L36"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="D132:F132"/>
     <mergeCell ref="H132:J132"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="F130:H130"/>
-    <mergeCell ref="K130:L130"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="K129:L129"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="F126:H126"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="K124:L124"/>
-    <mergeCell ref="C138:L138"/>
-    <mergeCell ref="C139:L139"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="K140:L140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="F141:H141"/>
-    <mergeCell ref="K141:L141"/>
-    <mergeCell ref="D135:F135"/>
-    <mergeCell ref="H135:J135"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="K142:L142"/>
-    <mergeCell ref="C143:L143"/>
-    <mergeCell ref="C169:L169"/>
-    <mergeCell ref="C170:L170"/>
-    <mergeCell ref="F156:H156"/>
-    <mergeCell ref="K156:L156"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="F157:H157"/>
-    <mergeCell ref="K157:L157"/>
-    <mergeCell ref="K158:L158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="F158:H158"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="F159:H159"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="F160:H160"/>
-    <mergeCell ref="K160:L160"/>
-    <mergeCell ref="D166:F166"/>
-    <mergeCell ref="H166:J166"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="F171:H171"/>
-    <mergeCell ref="K171:L171"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="F174:H174"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="F172:H172"/>
-    <mergeCell ref="K172:L172"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="F173:H173"/>
-    <mergeCell ref="K173:L173"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="F175:H175"/>
-    <mergeCell ref="K175:L175"/>
-    <mergeCell ref="D178:F178"/>
-    <mergeCell ref="H178:J178"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="F176:H176"/>
-    <mergeCell ref="K176:L176"/>
-    <mergeCell ref="C177:L177"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="F184:H184"/>
-    <mergeCell ref="K184:L184"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="F185:H185"/>
-    <mergeCell ref="K185:L185"/>
-    <mergeCell ref="D179:F179"/>
-    <mergeCell ref="H179:J179"/>
-    <mergeCell ref="C182:L182"/>
-    <mergeCell ref="C183:L183"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="F187:H187"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="F186:H186"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="C188:L188"/>
-    <mergeCell ref="D189:F189"/>
-    <mergeCell ref="H189:J189"/>
-    <mergeCell ref="K187:L187"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="K149:L149"/>
-    <mergeCell ref="C150:L150"/>
-    <mergeCell ref="C201:L201"/>
-    <mergeCell ref="C202:L202"/>
-    <mergeCell ref="C198:L198"/>
-    <mergeCell ref="C146:L146"/>
-    <mergeCell ref="C147:L147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="F148:H148"/>
-    <mergeCell ref="K148:L148"/>
-    <mergeCell ref="C194:L194"/>
-    <mergeCell ref="C195:L195"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="F196:H196"/>
-    <mergeCell ref="K196:L196"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="F197:H197"/>
-    <mergeCell ref="K197:L197"/>
-    <mergeCell ref="D190:F190"/>
-    <mergeCell ref="H190:J190"/>
-    <mergeCell ref="D191:F191"/>
-    <mergeCell ref="H191:J191"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="D206:E206"/>
-    <mergeCell ref="F206:H206"/>
-    <mergeCell ref="K206:L206"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="F207:H207"/>
-    <mergeCell ref="K207:L207"/>
-    <mergeCell ref="D203:E203"/>
-    <mergeCell ref="F203:H203"/>
-    <mergeCell ref="K203:L203"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="F205:H205"/>
-    <mergeCell ref="K205:L205"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="F238:H238"/>
-    <mergeCell ref="K238:L238"/>
-    <mergeCell ref="C239:L239"/>
-    <mergeCell ref="C153:L153"/>
-    <mergeCell ref="C154:L154"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="F155:H155"/>
-    <mergeCell ref="K155:L155"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="C221:L221"/>
-    <mergeCell ref="C235:L235"/>
-    <mergeCell ref="C236:L236"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="F237:H237"/>
-    <mergeCell ref="K237:L237"/>
-    <mergeCell ref="C218:L218"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="F219:H219"/>
-    <mergeCell ref="K219:L219"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="F162:H162"/>
-    <mergeCell ref="K162:L162"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="C224:L224"/>
-    <mergeCell ref="C225:L225"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="F163:H163"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="C164:L164"/>
-    <mergeCell ref="D165:F165"/>
-    <mergeCell ref="H165:J165"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="F220:H220"/>
-    <mergeCell ref="K220:L220"/>
-    <mergeCell ref="D204:E204"/>
-    <mergeCell ref="F204:H204"/>
-    <mergeCell ref="K204:L204"/>
-    <mergeCell ref="C217:L217"/>
-    <mergeCell ref="C209:L209"/>
-    <mergeCell ref="D210:F210"/>
-    <mergeCell ref="H210:J210"/>
-    <mergeCell ref="D213:F213"/>
-    <mergeCell ref="H213:J213"/>
-    <mergeCell ref="D214:F214"/>
-    <mergeCell ref="H214:J214"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="F208:H208"/>
-    <mergeCell ref="D232:F232"/>
-    <mergeCell ref="H232:J232"/>
-    <mergeCell ref="D226:E226"/>
-    <mergeCell ref="F226:H226"/>
-    <mergeCell ref="D230:F230"/>
-    <mergeCell ref="H230:J230"/>
-    <mergeCell ref="C229:L229"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="H231:J231"/>
-    <mergeCell ref="D228:E228"/>
-    <mergeCell ref="F228:H228"/>
-    <mergeCell ref="K228:L228"/>
-    <mergeCell ref="K227:L227"/>
-    <mergeCell ref="D227:E227"/>
-    <mergeCell ref="F227:H227"/>
-    <mergeCell ref="K226:L226"/>
-    <mergeCell ref="F252:H252"/>
-    <mergeCell ref="K252:L252"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="F249:H249"/>
-    <mergeCell ref="K249:L249"/>
-    <mergeCell ref="C242:L242"/>
-    <mergeCell ref="C243:L243"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="F244:H244"/>
-    <mergeCell ref="K244:L244"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="F245:H245"/>
-    <mergeCell ref="K245:L245"/>
-    <mergeCell ref="D254:F254"/>
-    <mergeCell ref="H254:J254"/>
-    <mergeCell ref="F250:H250"/>
-    <mergeCell ref="K250:L250"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="H134:J134"/>
-    <mergeCell ref="D212:F212"/>
-    <mergeCell ref="H212:J212"/>
-    <mergeCell ref="D211:F211"/>
-    <mergeCell ref="K246:L246"/>
-    <mergeCell ref="K247:L247"/>
-    <mergeCell ref="K248:L248"/>
-    <mergeCell ref="K251:L251"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="F248:H248"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="F251:H251"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="F247:H247"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="F246:H246"/>
-    <mergeCell ref="C253:L253"/>
-    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6757,8 +6893,8 @@
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="33" max="13" man="1"/>
     <brk id="102" max="13" man="1"/>
-    <brk id="180" max="13" man="1"/>
-    <brk id="240" max="13" man="1"/>
+    <brk id="188" max="13" man="1"/>
+    <brk id="248" max="13" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/mammoth-tables-description.xlsx
+++ b/mammoth-tables-description.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Google Drive (sereprec@gmail.com)\CoderHouse - SQL\proyecto_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7863C83-13E7-42DE-A27F-67E6CD8F6D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA5C639-3030-49D4-B62E-9598640DFE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{DA2EB09C-6906-4C44-BFBB-5AF4F6908B77}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA2EB09C-6906-4C44-BFBB-5AF4F6908B77}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$N$266</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$N$267</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="244">
   <si>
     <t>Descripción de tablas</t>
   </si>
@@ -762,6 +762,12 @@
   </si>
   <si>
     <t>VARCHAR(70)</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>tipo de factura</t>
   </si>
 </sst>
 </file>
@@ -1636,7 +1642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1659,7 +1665,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1763,16 +1768,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1782,6 +1797,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1800,6 +1824,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1810,25 +1844,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1843,58 +1883,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2212,21 +2221,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R267"/>
+  <dimension ref="A1:R268"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B228" sqref="B228:L233"/>
+      <selection activeCell="C1" sqref="C1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" style="50" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="49" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="13"/>
-    <col min="6" max="6" width="11.42578125" style="15"/>
-    <col min="7" max="7" width="11.42578125" style="19"/>
-    <col min="8" max="8" width="11.42578125" style="17"/>
+    <col min="4" max="4" width="12.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="12"/>
+    <col min="6" max="6" width="11.42578125" style="14"/>
+    <col min="7" max="7" width="11.42578125" style="18"/>
+    <col min="8" max="8" width="11.42578125" style="16"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" style="7" customWidth="1"/>
     <col min="11" max="12" width="11.7109375" style="7" customWidth="1"/>
@@ -2235,29 +2244,29 @@
   <sheetData>
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="11"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="114" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="118"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="1"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="16"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -2267,11 +2276,11 @@
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="1"/>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="16" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="15" t="s">
         <v>207</v>
       </c>
       <c r="I3" s="3"/>
@@ -2280,15 +2289,15 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="32"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="1"/>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="15" t="s">
         <v>208</v>
       </c>
       <c r="I4" s="3"/>
@@ -2299,69 +2308,69 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="27"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:18" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="50">
+      <c r="B6" s="49">
         <v>1</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="69"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="75"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="72"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="78"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="75" t="s">
+      <c r="E8" s="86"/>
+      <c r="F8" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="34" t="s">
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="77" t="s">
+      <c r="J8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="78"/>
+      <c r="L8" s="90"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>209</v>
       </c>
       <c r="D9" s="79" t="s">
@@ -2373,10 +2382,10 @@
       </c>
       <c r="G9" s="81"/>
       <c r="H9" s="82"/>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="38" t="s">
+      <c r="J9" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="83"/>
@@ -2387,7 +2396,7 @@
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C10" s="36"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="79" t="s">
         <v>6</v>
       </c>
@@ -2397,17 +2406,17 @@
       </c>
       <c r="G10" s="81"/>
       <c r="H10" s="82"/>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="83"/>
       <c r="L10" s="84"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C11" s="36"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="79" t="s">
         <v>7</v>
       </c>
@@ -2417,17 +2426,17 @@
       </c>
       <c r="G11" s="81"/>
       <c r="H11" s="82"/>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K11" s="83"/>
       <c r="L11" s="84"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="79" t="s">
@@ -2439,10 +2448,10 @@
       </c>
       <c r="G12" s="81"/>
       <c r="H12" s="82"/>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="83" t="s">
@@ -2451,7 +2460,7 @@
       <c r="L12" s="84"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C13" s="36"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="79" t="s">
         <v>60</v>
       </c>
@@ -2461,17 +2470,17 @@
       </c>
       <c r="G13" s="81"/>
       <c r="H13" s="82"/>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K13" s="83"/>
       <c r="L13" s="84"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C14" s="36"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="79" t="s">
         <v>11</v>
       </c>
@@ -2481,18 +2490,18 @@
       </c>
       <c r="G14" s="81"/>
       <c r="H14" s="82"/>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="38"/>
+      <c r="J14" s="37"/>
       <c r="K14" s="83"/>
       <c r="L14" s="84"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>209</v>
       </c>
       <c r="D15" s="79" t="s">
@@ -2504,20 +2513,20 @@
       </c>
       <c r="G15" s="81"/>
       <c r="H15" s="82"/>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="83"/>
       <c r="L15" s="84"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C16" s="36"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="79" t="s">
         <v>27</v>
       </c>
@@ -2527,20 +2536,20 @@
       </c>
       <c r="G16" s="81"/>
       <c r="H16" s="82"/>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="J16" s="38" t="s">
+      <c r="J16" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K16" s="83"/>
       <c r="L16" s="84"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="79" t="s">
@@ -2552,22 +2561,22 @@
       </c>
       <c r="G17" s="81"/>
       <c r="H17" s="82"/>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="83" t="s">
         <v>195</v>
       </c>
       <c r="L17" s="84"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C18" s="36"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="79" t="s">
         <v>64</v>
       </c>
@@ -2577,305 +2586,305 @@
       </c>
       <c r="G18" s="81"/>
       <c r="H18" s="82"/>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="83"/>
       <c r="L18" s="84"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C19" s="39"/>
-      <c r="D19" s="60" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62" t="s">
+      <c r="E19" s="64"/>
+      <c r="F19" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="40" t="s">
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="64" t="s">
+      <c r="J19" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="65"/>
+      <c r="L19" s="68"/>
     </row>
     <row r="20" spans="2:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="58"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="71"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="86" t="s">
+      <c r="D21" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
       <c r="G21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="86" t="s">
+      <c r="H21" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="22"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="24" t="s">
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="26"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="50">
+      <c r="B25" s="49">
         <v>2</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="69"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="75"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="72"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="78"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="74"/>
-      <c r="F27" s="75" t="s">
+      <c r="E27" s="86"/>
+      <c r="F27" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="75"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="34" t="s">
+      <c r="G27" s="87"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J27" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="77" t="s">
+      <c r="J27" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="L27" s="78"/>
+      <c r="L27" s="90"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62" t="s">
+      <c r="E28" s="64"/>
+      <c r="F28" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="40" t="s">
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J28" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K28" s="64" t="s">
+      <c r="J28" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="L28" s="65"/>
+      <c r="L28" s="68"/>
     </row>
     <row r="29" spans="2:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="111" t="s">
+      <c r="C29" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="113"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="96"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="86" t="s">
+      <c r="D30" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
       <c r="K30" s="8"/>
-      <c r="L30" s="22"/>
+      <c r="L30" s="21"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="85" t="s">
+      <c r="H31" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
       <c r="K31" s="9"/>
-      <c r="L31" s="29"/>
+      <c r="L31" s="28"/>
     </row>
     <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="24" t="s">
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="59" t="s">
+      <c r="H32" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="26"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="25"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="50">
-        <v>3</v>
-      </c>
-      <c r="C35" s="66" t="s">
+      <c r="B35" s="49">
+        <v>3</v>
+      </c>
+      <c r="C35" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="69"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="75"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="72"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="78"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="73" t="s">
+      <c r="D37" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="74"/>
-      <c r="F37" s="75" t="s">
+      <c r="E37" s="86"/>
+      <c r="F37" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="75"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="34" t="s">
+      <c r="G37" s="87"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J37" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K37" s="77" t="s">
+      <c r="J37" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="L37" s="78"/>
+      <c r="L37" s="90"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="C38" s="36"/>
+      <c r="A38" s="50"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="79" t="s">
         <v>44</v>
       </c>
@@ -2885,347 +2894,347 @@
       </c>
       <c r="G38" s="81"/>
       <c r="H38" s="82"/>
-      <c r="I38" s="37" t="s">
+      <c r="I38" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="J38" s="38" t="s">
+      <c r="J38" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="83"/>
       <c r="L38" s="84"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C39" s="39"/>
-      <c r="D39" s="60" t="s">
+      <c r="C39" s="38"/>
+      <c r="D39" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="61"/>
-      <c r="F39" s="62" t="s">
+      <c r="E39" s="64"/>
+      <c r="F39" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="62"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="40" t="s">
+      <c r="G39" s="65"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J39" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K39" s="64"/>
-      <c r="L39" s="65"/>
+      <c r="J39" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" s="67"/>
+      <c r="L39" s="68"/>
     </row>
     <row r="40" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="87"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="89"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="98"/>
+      <c r="H40" s="98"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="98"/>
+      <c r="L40" s="99"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="50">
+      <c r="B43" s="49">
         <v>4</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="69"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="75"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C44" s="70" t="s">
+      <c r="C44" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="72"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="78"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="73" t="s">
+      <c r="D45" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="74"/>
-      <c r="F45" s="75" t="s">
+      <c r="E45" s="86"/>
+      <c r="F45" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="G45" s="75"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="34" t="s">
+      <c r="G45" s="87"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J45" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="77" t="s">
+      <c r="J45" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="L45" s="78"/>
+      <c r="L45" s="90"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="60" t="s">
+      <c r="D46" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="61"/>
-      <c r="F46" s="62" t="s">
+      <c r="E46" s="64"/>
+      <c r="F46" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="G46" s="62"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="40" t="s">
+      <c r="G46" s="65"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J46" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="64" t="s">
+      <c r="J46" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="L46" s="65"/>
+      <c r="L46" s="68"/>
     </row>
     <row r="47" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="111" t="s">
+      <c r="C47" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="112"/>
-      <c r="E47" s="112"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="112"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="112"/>
-      <c r="K47" s="112"/>
-      <c r="L47" s="113"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="96"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="86" t="s">
+      <c r="D48" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="86"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="93"/>
       <c r="K48" s="8"/>
-      <c r="L48" s="22"/>
+      <c r="L48" s="21"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="85" t="s">
+      <c r="D49" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
       <c r="G49" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="85" t="s">
+      <c r="H49" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
       <c r="K49" s="9"/>
-      <c r="L49" s="29"/>
+      <c r="L49" s="28"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="59" t="s">
+      <c r="D50" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="24" t="s">
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H50" s="59" t="s">
+      <c r="H50" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="26"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="25"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="117">
+      <c r="B53" s="57">
         <v>5</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="68"/>
-      <c r="L53" s="69"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="75"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C54" s="70" t="s">
+      <c r="C54" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="71"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="72"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="78"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="73" t="s">
+      <c r="D55" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="75" t="s">
+      <c r="E55" s="86"/>
+      <c r="F55" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="G55" s="75"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="34" t="s">
+      <c r="G55" s="87"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J55" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K55" s="77" t="s">
+      <c r="J55" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K55" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="L55" s="78"/>
+      <c r="L55" s="90"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="60" t="s">
+      <c r="A56" s="50"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="61"/>
-      <c r="F56" s="62" t="s">
+      <c r="E56" s="64"/>
+      <c r="F56" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="G56" s="62"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="40" t="s">
+      <c r="G56" s="65"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J56" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K56" s="64"/>
-      <c r="L56" s="65"/>
+      <c r="J56" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K56" s="67"/>
+      <c r="L56" s="68"/>
     </row>
     <row r="57" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="87"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
-      <c r="L57" s="89"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="98"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="98"/>
+      <c r="G57" s="98"/>
+      <c r="H57" s="98"/>
+      <c r="I57" s="98"/>
+      <c r="J57" s="98"/>
+      <c r="K57" s="98"/>
+      <c r="L57" s="99"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="117">
+      <c r="B60" s="57">
         <v>6</v>
       </c>
-      <c r="C60" s="66" t="s">
+      <c r="C60" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="69"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="75"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C61" s="70" t="s">
+      <c r="C61" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="71"/>
-      <c r="I61" s="71"/>
-      <c r="J61" s="71"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="72"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="77"/>
+      <c r="K61" s="77"/>
+      <c r="L61" s="78"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="73" t="s">
+      <c r="D62" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="74"/>
-      <c r="F62" s="75" t="s">
+      <c r="E62" s="86"/>
+      <c r="F62" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="G62" s="75"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="34" t="s">
+      <c r="G62" s="87"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J62" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="77" t="s">
+      <c r="J62" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K62" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="L62" s="78"/>
+      <c r="L62" s="90"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C63" s="36"/>
+      <c r="C63" s="35"/>
       <c r="D63" s="79" t="s">
         <v>67</v>
       </c>
@@ -3235,17 +3244,17 @@
       </c>
       <c r="G63" s="81"/>
       <c r="H63" s="82"/>
-      <c r="I63" s="37" t="s">
+      <c r="I63" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="J63" s="38" t="s">
+      <c r="J63" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K63" s="83"/>
       <c r="L63" s="84"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C64" s="36" t="s">
+      <c r="C64" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="79" t="s">
@@ -3257,10 +3266,10 @@
       </c>
       <c r="G64" s="81"/>
       <c r="H64" s="82"/>
-      <c r="I64" s="37" t="s">
+      <c r="I64" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J64" s="38" t="s">
+      <c r="J64" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K64" s="83" t="s">
@@ -3269,122 +3278,122 @@
       <c r="L64" s="84"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="60" t="s">
+      <c r="A65" s="50"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="61"/>
-      <c r="F65" s="62" t="s">
+      <c r="E65" s="64"/>
+      <c r="F65" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="G65" s="62"/>
-      <c r="H65" s="63"/>
-      <c r="I65" s="40" t="s">
+      <c r="G65" s="65"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J65" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K65" s="64" t="s">
+      <c r="J65" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K65" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="L65" s="65"/>
+      <c r="L65" s="68"/>
     </row>
     <row r="66" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="56" t="s">
+      <c r="C66" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="57"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="58"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="70"/>
+      <c r="H66" s="70"/>
+      <c r="I66" s="70"/>
+      <c r="J66" s="70"/>
+      <c r="K66" s="70"/>
+      <c r="L66" s="71"/>
     </row>
     <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="59" t="s">
+      <c r="D67" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="24" t="s">
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H67" s="59" t="s">
+      <c r="H67" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="26"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="25"/>
     </row>
     <row r="68" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="117">
+      <c r="B70" s="57">
         <v>7</v>
       </c>
-      <c r="C70" s="66" t="s">
+      <c r="C70" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
-      <c r="K70" s="68"/>
-      <c r="L70" s="69"/>
+      <c r="D70" s="73"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="73"/>
+      <c r="J70" s="73"/>
+      <c r="K70" s="74"/>
+      <c r="L70" s="75"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C71" s="70" t="s">
+      <c r="C71" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="D71" s="71"/>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="71"/>
-      <c r="I71" s="71"/>
-      <c r="J71" s="71"/>
-      <c r="K71" s="71"/>
-      <c r="L71" s="72"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="77"/>
+      <c r="I71" s="77"/>
+      <c r="J71" s="77"/>
+      <c r="K71" s="77"/>
+      <c r="L71" s="78"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="73" t="s">
+      <c r="D72" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="74"/>
-      <c r="F72" s="75" t="s">
+      <c r="E72" s="86"/>
+      <c r="F72" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="G72" s="75"/>
-      <c r="H72" s="76"/>
-      <c r="I72" s="34" t="s">
+      <c r="G72" s="87"/>
+      <c r="H72" s="88"/>
+      <c r="I72" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J72" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="77" t="s">
+      <c r="J72" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="L72" s="78"/>
+      <c r="L72" s="90"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="51"/>
-      <c r="C73" s="36"/>
+      <c r="A73" s="50"/>
+      <c r="C73" s="35"/>
       <c r="D73" s="79" t="s">
         <v>70</v>
       </c>
@@ -3394,132 +3403,132 @@
       </c>
       <c r="G73" s="81"/>
       <c r="H73" s="82"/>
-      <c r="I73" s="37" t="s">
+      <c r="I73" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="J73" s="38" t="s">
+      <c r="J73" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K73" s="83"/>
       <c r="L73" s="84"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C74" s="39" t="s">
+      <c r="C74" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="60" t="s">
+      <c r="D74" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="E74" s="61"/>
-      <c r="F74" s="62" t="s">
+      <c r="E74" s="64"/>
+      <c r="F74" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="G74" s="62"/>
-      <c r="H74" s="63"/>
-      <c r="I74" s="40" t="s">
+      <c r="G74" s="65"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J74" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K74" s="64" t="s">
+      <c r="J74" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K74" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="L74" s="65"/>
+      <c r="L74" s="68"/>
     </row>
     <row r="75" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="56" t="s">
+      <c r="C75" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="57"/>
-      <c r="E75" s="57"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="57"/>
-      <c r="I75" s="57"/>
-      <c r="J75" s="57"/>
-      <c r="K75" s="57"/>
-      <c r="L75" s="58"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="70"/>
+      <c r="K75" s="70"/>
+      <c r="L75" s="71"/>
     </row>
     <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="59" t="s">
+      <c r="D76" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="24" t="s">
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H76" s="59" t="s">
+      <c r="H76" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="26"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="25"/>
     </row>
     <row r="77" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="117">
+      <c r="B79" s="57">
         <v>8</v>
       </c>
-      <c r="C79" s="66" t="s">
+      <c r="C79" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="67"/>
-      <c r="I79" s="67"/>
-      <c r="J79" s="67"/>
-      <c r="K79" s="68"/>
-      <c r="L79" s="69"/>
+      <c r="D79" s="73"/>
+      <c r="E79" s="73"/>
+      <c r="F79" s="73"/>
+      <c r="G79" s="73"/>
+      <c r="H79" s="73"/>
+      <c r="I79" s="73"/>
+      <c r="J79" s="73"/>
+      <c r="K79" s="74"/>
+      <c r="L79" s="75"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C80" s="70" t="s">
+      <c r="C80" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="D80" s="71"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71"/>
-      <c r="H80" s="71"/>
-      <c r="I80" s="71"/>
-      <c r="J80" s="71"/>
-      <c r="K80" s="71"/>
-      <c r="L80" s="72"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="77"/>
+      <c r="H80" s="77"/>
+      <c r="I80" s="77"/>
+      <c r="J80" s="77"/>
+      <c r="K80" s="77"/>
+      <c r="L80" s="78"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="73" t="s">
+      <c r="D81" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="E81" s="74"/>
-      <c r="F81" s="75" t="s">
+      <c r="E81" s="86"/>
+      <c r="F81" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="G81" s="75"/>
-      <c r="H81" s="76"/>
-      <c r="I81" s="34" t="s">
+      <c r="G81" s="87"/>
+      <c r="H81" s="88"/>
+      <c r="I81" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J81" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="77" t="s">
+      <c r="J81" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K81" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="L81" s="78"/>
+      <c r="L81" s="90"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C82" s="116" t="s">
+      <c r="C82" s="56" t="s">
         <v>179</v>
       </c>
       <c r="D82" s="79" t="s">
@@ -3531,18 +3540,18 @@
       </c>
       <c r="G82" s="81"/>
       <c r="H82" s="82"/>
-      <c r="I82" s="37" t="s">
+      <c r="I82" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="J82" s="55" t="s">
+      <c r="J82" s="54" t="s">
         <v>3</v>
       </c>
       <c r="K82" s="83"/>
       <c r="L82" s="84"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="51"/>
-      <c r="C83" s="36"/>
+      <c r="A83" s="50"/>
+      <c r="C83" s="35"/>
       <c r="D83" s="79" t="s">
         <v>80</v>
       </c>
@@ -3552,150 +3561,150 @@
       </c>
       <c r="G83" s="81"/>
       <c r="H83" s="82"/>
-      <c r="I83" s="37" t="s">
+      <c r="I83" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="J83" s="38" t="s">
+      <c r="J83" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="83"/>
       <c r="L83" s="84"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C84" s="42" t="s">
+      <c r="C84" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="105" t="s">
+      <c r="D84" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="E84" s="106"/>
-      <c r="F84" s="107" t="s">
+      <c r="E84" s="101"/>
+      <c r="F84" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="G84" s="107"/>
-      <c r="H84" s="108"/>
-      <c r="I84" s="43" t="s">
+      <c r="G84" s="102"/>
+      <c r="H84" s="103"/>
+      <c r="I84" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="J84" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="K84" s="109" t="s">
+      <c r="J84" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="K84" s="104" t="s">
         <v>195</v>
       </c>
-      <c r="L84" s="110"/>
+      <c r="L84" s="105"/>
     </row>
     <row r="85" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="102" t="s">
+      <c r="C85" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D85" s="103"/>
-      <c r="E85" s="103"/>
-      <c r="F85" s="103"/>
-      <c r="G85" s="103"/>
-      <c r="H85" s="103"/>
-      <c r="I85" s="103"/>
-      <c r="J85" s="103"/>
-      <c r="K85" s="103"/>
-      <c r="L85" s="104"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="59"/>
+      <c r="K85" s="59"/>
+      <c r="L85" s="60"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C86" s="28" t="s">
+      <c r="C86" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D86" s="85" t="s">
+      <c r="D86" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="E86" s="85"/>
-      <c r="F86" s="85"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="62"/>
       <c r="G86" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="H86" s="85"/>
-      <c r="I86" s="85"/>
-      <c r="J86" s="85"/>
+      <c r="H86" s="62"/>
+      <c r="I86" s="62"/>
+      <c r="J86" s="62"/>
       <c r="K86" s="8"/>
-      <c r="L86" s="22"/>
+      <c r="L86" s="21"/>
     </row>
     <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="23" t="s">
+      <c r="C87" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="59" t="s">
+      <c r="D87" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="24" t="s">
+      <c r="E87" s="61"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H87" s="59" t="s">
+      <c r="H87" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="I87" s="59"/>
-      <c r="J87" s="59"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="26"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="61"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="25"/>
     </row>
     <row r="88" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="117">
+      <c r="B90" s="57">
         <v>9</v>
       </c>
-      <c r="C90" s="66" t="s">
+      <c r="C90" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="67"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="67"/>
-      <c r="J90" s="67"/>
-      <c r="K90" s="68"/>
-      <c r="L90" s="69"/>
+      <c r="D90" s="73"/>
+      <c r="E90" s="73"/>
+      <c r="F90" s="73"/>
+      <c r="G90" s="73"/>
+      <c r="H90" s="73"/>
+      <c r="I90" s="73"/>
+      <c r="J90" s="73"/>
+      <c r="K90" s="74"/>
+      <c r="L90" s="75"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C91" s="70" t="s">
+      <c r="C91" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="D91" s="71"/>
-      <c r="E91" s="71"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="71"/>
-      <c r="I91" s="71"/>
-      <c r="J91" s="71"/>
-      <c r="K91" s="71"/>
-      <c r="L91" s="72"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="77"/>
+      <c r="H91" s="77"/>
+      <c r="I91" s="77"/>
+      <c r="J91" s="77"/>
+      <c r="K91" s="77"/>
+      <c r="L91" s="78"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C92" s="33" t="s">
+      <c r="C92" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D92" s="73" t="s">
+      <c r="D92" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="E92" s="74"/>
-      <c r="F92" s="75" t="s">
+      <c r="E92" s="86"/>
+      <c r="F92" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="G92" s="75"/>
-      <c r="H92" s="76"/>
-      <c r="I92" s="34" t="s">
+      <c r="G92" s="87"/>
+      <c r="H92" s="88"/>
+      <c r="I92" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J92" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K92" s="77" t="s">
+      <c r="J92" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K92" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="L92" s="78"/>
+      <c r="L92" s="90"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C93" s="116" t="s">
+      <c r="C93" s="56" t="s">
         <v>179</v>
       </c>
       <c r="D93" s="79" t="s">
@@ -3707,129 +3716,129 @@
       </c>
       <c r="G93" s="81"/>
       <c r="H93" s="82"/>
-      <c r="I93" s="37" t="s">
+      <c r="I93" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="J93" s="55" t="s">
+      <c r="J93" s="54" t="s">
         <v>3</v>
       </c>
       <c r="K93" s="83"/>
       <c r="L93" s="84"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="60" t="s">
+      <c r="A94" s="50"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="E94" s="61"/>
-      <c r="F94" s="62" t="s">
+      <c r="E94" s="64"/>
+      <c r="F94" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G94" s="62"/>
-      <c r="H94" s="63"/>
-      <c r="I94" s="40" t="s">
+      <c r="G94" s="65"/>
+      <c r="H94" s="66"/>
+      <c r="I94" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J94" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="64"/>
-      <c r="L94" s="65"/>
+      <c r="J94" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="67"/>
+      <c r="L94" s="68"/>
     </row>
     <row r="95" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
-      <c r="C95" s="102" t="s">
+      <c r="A95" s="50"/>
+      <c r="C95" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="D95" s="103"/>
-      <c r="E95" s="103"/>
-      <c r="F95" s="103"/>
-      <c r="G95" s="103"/>
-      <c r="H95" s="103"/>
-      <c r="I95" s="103"/>
-      <c r="J95" s="103"/>
-      <c r="K95" s="103"/>
-      <c r="L95" s="104"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="59"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="59"/>
+      <c r="K95" s="59"/>
+      <c r="L95" s="60"/>
     </row>
     <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="51"/>
-      <c r="C96" s="23" t="s">
+      <c r="A96" s="50"/>
+      <c r="C96" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="D96" s="59" t="s">
+      <c r="D96" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="E96" s="59"/>
-      <c r="F96" s="59"/>
-      <c r="G96" s="24" t="s">
+      <c r="E96" s="61"/>
+      <c r="F96" s="61"/>
+      <c r="G96" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="H96" s="59"/>
-      <c r="I96" s="59"/>
-      <c r="J96" s="59"/>
-      <c r="K96" s="25"/>
-      <c r="L96" s="26"/>
+      <c r="H96" s="61"/>
+      <c r="I96" s="61"/>
+      <c r="J96" s="61"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="25"/>
     </row>
     <row r="97" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="99" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="50">
+      <c r="B99" s="49">
         <v>10</v>
       </c>
-      <c r="C99" s="66" t="s">
+      <c r="C99" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="67"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="67"/>
-      <c r="J99" s="67"/>
-      <c r="K99" s="68"/>
-      <c r="L99" s="69"/>
+      <c r="D99" s="73"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="73"/>
+      <c r="H99" s="73"/>
+      <c r="I99" s="73"/>
+      <c r="J99" s="73"/>
+      <c r="K99" s="74"/>
+      <c r="L99" s="75"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C100" s="70" t="s">
+      <c r="C100" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="D100" s="71"/>
-      <c r="E100" s="71"/>
-      <c r="F100" s="71"/>
-      <c r="G100" s="71"/>
-      <c r="H100" s="71"/>
-      <c r="I100" s="71"/>
-      <c r="J100" s="71"/>
-      <c r="K100" s="71"/>
-      <c r="L100" s="72"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
+      <c r="J100" s="77"/>
+      <c r="K100" s="77"/>
+      <c r="L100" s="78"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C101" s="33" t="s">
+      <c r="C101" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D101" s="73" t="s">
+      <c r="D101" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="E101" s="74"/>
-      <c r="F101" s="75" t="s">
+      <c r="E101" s="86"/>
+      <c r="F101" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="G101" s="75"/>
-      <c r="H101" s="76"/>
-      <c r="I101" s="34" t="s">
+      <c r="G101" s="87"/>
+      <c r="H101" s="88"/>
+      <c r="I101" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J101" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="77" t="s">
+      <c r="J101" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="L101" s="78"/>
+      <c r="L101" s="90"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C102" s="36" t="s">
+      <c r="C102" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="79" t="s">
@@ -3841,10 +3850,10 @@
       </c>
       <c r="G102" s="81"/>
       <c r="H102" s="82"/>
-      <c r="I102" s="37" t="s">
+      <c r="I102" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J102" s="38" t="s">
+      <c r="J102" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="83" t="s">
@@ -3853,119 +3862,119 @@
       <c r="L102" s="84"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C103" s="39"/>
-      <c r="D103" s="60" t="s">
+      <c r="C103" s="38"/>
+      <c r="D103" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="E103" s="61"/>
-      <c r="F103" s="62" t="s">
+      <c r="E103" s="64"/>
+      <c r="F103" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="G103" s="62"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="40" t="s">
+      <c r="G103" s="65"/>
+      <c r="H103" s="66"/>
+      <c r="I103" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J103" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K103" s="64" t="s">
+      <c r="J103" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K103" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="L103" s="65"/>
+      <c r="L103" s="68"/>
     </row>
     <row r="104" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="56" t="s">
+      <c r="C104" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D104" s="57"/>
-      <c r="E104" s="57"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="57"/>
-      <c r="H104" s="57"/>
-      <c r="I104" s="57"/>
-      <c r="J104" s="57"/>
-      <c r="K104" s="57"/>
-      <c r="L104" s="58"/>
+      <c r="D104" s="70"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="70"/>
+      <c r="H104" s="70"/>
+      <c r="I104" s="70"/>
+      <c r="J104" s="70"/>
+      <c r="K104" s="70"/>
+      <c r="L104" s="71"/>
     </row>
     <row r="105" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="23" t="s">
+      <c r="C105" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D105" s="59" t="s">
+      <c r="D105" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="E105" s="59"/>
-      <c r="F105" s="59"/>
-      <c r="G105" s="24" t="s">
+      <c r="E105" s="61"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H105" s="59" t="s">
+      <c r="H105" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="I105" s="59"/>
-      <c r="J105" s="59"/>
-      <c r="K105" s="25"/>
-      <c r="L105" s="26"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="61"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="25"/>
     </row>
     <row r="106" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="108" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="50">
+      <c r="B108" s="49">
         <v>11</v>
       </c>
-      <c r="C108" s="66" t="s">
+      <c r="C108" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="D108" s="67"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
-      <c r="G108" s="67"/>
-      <c r="H108" s="67"/>
-      <c r="I108" s="67"/>
-      <c r="J108" s="67"/>
-      <c r="K108" s="68"/>
-      <c r="L108" s="69"/>
+      <c r="D108" s="73"/>
+      <c r="E108" s="73"/>
+      <c r="F108" s="73"/>
+      <c r="G108" s="73"/>
+      <c r="H108" s="73"/>
+      <c r="I108" s="73"/>
+      <c r="J108" s="73"/>
+      <c r="K108" s="74"/>
+      <c r="L108" s="75"/>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C109" s="70" t="s">
+      <c r="C109" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D109" s="71"/>
-      <c r="E109" s="71"/>
-      <c r="F109" s="71"/>
-      <c r="G109" s="71"/>
-      <c r="H109" s="71"/>
-      <c r="I109" s="71"/>
-      <c r="J109" s="71"/>
-      <c r="K109" s="71"/>
-      <c r="L109" s="72"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="77"/>
+      <c r="H109" s="77"/>
+      <c r="I109" s="77"/>
+      <c r="J109" s="77"/>
+      <c r="K109" s="77"/>
+      <c r="L109" s="78"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C110" s="33" t="s">
+      <c r="C110" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D110" s="73" t="s">
+      <c r="D110" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="E110" s="74"/>
-      <c r="F110" s="75" t="s">
+      <c r="E110" s="86"/>
+      <c r="F110" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="G110" s="75"/>
-      <c r="H110" s="76"/>
-      <c r="I110" s="34" t="s">
+      <c r="G110" s="87"/>
+      <c r="H110" s="88"/>
+      <c r="I110" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J110" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K110" s="92" t="s">
+      <c r="J110" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K110" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="L110" s="93"/>
+      <c r="L110" s="107"/>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C111" s="36" t="s">
+      <c r="C111" s="35" t="s">
         <v>40</v>
       </c>
       <c r="D111" s="79" t="s">
@@ -3977,172 +3986,172 @@
       </c>
       <c r="G111" s="81"/>
       <c r="H111" s="82"/>
-      <c r="I111" s="37" t="s">
+      <c r="I111" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J111" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K111" s="94" t="s">
+      <c r="J111" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K111" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="L111" s="95"/>
+      <c r="L111" s="109"/>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C112" s="39"/>
-      <c r="D112" s="60" t="s">
+      <c r="C112" s="38"/>
+      <c r="D112" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="E112" s="61"/>
-      <c r="F112" s="62" t="s">
+      <c r="E112" s="64"/>
+      <c r="F112" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="G112" s="62"/>
-      <c r="H112" s="63"/>
-      <c r="I112" s="40" t="s">
+      <c r="G112" s="65"/>
+      <c r="H112" s="66"/>
+      <c r="I112" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="J112" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K112" s="100" t="s">
+      <c r="J112" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K112" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="L112" s="101"/>
+      <c r="L112" s="111"/>
     </row>
     <row r="113" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="56" t="s">
+      <c r="C113" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D113" s="57"/>
-      <c r="E113" s="57"/>
-      <c r="F113" s="57"/>
-      <c r="G113" s="57"/>
-      <c r="H113" s="57"/>
-      <c r="I113" s="57"/>
-      <c r="J113" s="57"/>
-      <c r="K113" s="57"/>
-      <c r="L113" s="58"/>
+      <c r="D113" s="70"/>
+      <c r="E113" s="70"/>
+      <c r="F113" s="70"/>
+      <c r="G113" s="70"/>
+      <c r="H113" s="70"/>
+      <c r="I113" s="70"/>
+      <c r="J113" s="70"/>
+      <c r="K113" s="70"/>
+      <c r="L113" s="71"/>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C114" s="21" t="s">
+      <c r="C114" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D114" s="86" t="s">
+      <c r="D114" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="E114" s="86"/>
-      <c r="F114" s="86"/>
+      <c r="E114" s="93"/>
+      <c r="F114" s="93"/>
       <c r="G114" s="4"/>
-      <c r="H114" s="86"/>
-      <c r="I114" s="86"/>
-      <c r="J114" s="86"/>
+      <c r="H114" s="93"/>
+      <c r="I114" s="93"/>
+      <c r="J114" s="93"/>
       <c r="K114" s="8"/>
-      <c r="L114" s="22"/>
+      <c r="L114" s="21"/>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C115" s="28" t="s">
+      <c r="C115" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D115" s="85" t="s">
+      <c r="D115" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="E115" s="85"/>
-      <c r="F115" s="85"/>
+      <c r="E115" s="62"/>
+      <c r="F115" s="62"/>
       <c r="G115" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H115" s="85" t="s">
+      <c r="H115" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="I115" s="85"/>
-      <c r="J115" s="85"/>
+      <c r="I115" s="62"/>
+      <c r="J115" s="62"/>
       <c r="K115" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="L115" s="30" t="s">
+      <c r="L115" s="29" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="116" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="23" t="s">
+      <c r="C116" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D116" s="59" t="s">
+      <c r="D116" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="E116" s="59"/>
-      <c r="F116" s="59"/>
-      <c r="G116" s="24" t="s">
+      <c r="E116" s="61"/>
+      <c r="F116" s="61"/>
+      <c r="G116" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H116" s="59" t="s">
+      <c r="H116" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="I116" s="59"/>
-      <c r="J116" s="59"/>
-      <c r="K116" s="25"/>
-      <c r="L116" s="26"/>
+      <c r="I116" s="61"/>
+      <c r="J116" s="61"/>
+      <c r="K116" s="24"/>
+      <c r="L116" s="25"/>
     </row>
     <row r="117" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="119" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="117">
+      <c r="B119" s="57">
         <v>12</v>
       </c>
-      <c r="C119" s="66" t="s">
+      <c r="C119" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="D119" s="67"/>
-      <c r="E119" s="67"/>
-      <c r="F119" s="67"/>
-      <c r="G119" s="67"/>
-      <c r="H119" s="67"/>
-      <c r="I119" s="67"/>
-      <c r="J119" s="67"/>
-      <c r="K119" s="68"/>
-      <c r="L119" s="69"/>
+      <c r="D119" s="73"/>
+      <c r="E119" s="73"/>
+      <c r="F119" s="73"/>
+      <c r="G119" s="73"/>
+      <c r="H119" s="73"/>
+      <c r="I119" s="73"/>
+      <c r="J119" s="73"/>
+      <c r="K119" s="74"/>
+      <c r="L119" s="75"/>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C120" s="70" t="s">
+      <c r="C120" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="D120" s="71"/>
-      <c r="E120" s="71"/>
-      <c r="F120" s="71"/>
-      <c r="G120" s="71"/>
-      <c r="H120" s="71"/>
-      <c r="I120" s="71"/>
-      <c r="J120" s="71"/>
-      <c r="K120" s="71"/>
-      <c r="L120" s="72"/>
+      <c r="D120" s="77"/>
+      <c r="E120" s="77"/>
+      <c r="F120" s="77"/>
+      <c r="G120" s="77"/>
+      <c r="H120" s="77"/>
+      <c r="I120" s="77"/>
+      <c r="J120" s="77"/>
+      <c r="K120" s="77"/>
+      <c r="L120" s="78"/>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C121" s="33" t="s">
+      <c r="C121" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D121" s="73" t="s">
+      <c r="D121" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="E121" s="74"/>
-      <c r="F121" s="75" t="s">
+      <c r="E121" s="86"/>
+      <c r="F121" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="G121" s="75"/>
-      <c r="H121" s="76"/>
-      <c r="I121" s="34" t="s">
+      <c r="G121" s="87"/>
+      <c r="H121" s="88"/>
+      <c r="I121" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J121" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K121" s="77" t="s">
+      <c r="J121" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K121" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="L121" s="78"/>
+      <c r="L121" s="90"/>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C122" s="36"/>
+      <c r="C122" s="35"/>
       <c r="D122" s="79" t="s">
         <v>99</v>
       </c>
@@ -4152,15 +4161,15 @@
       </c>
       <c r="G122" s="81"/>
       <c r="H122" s="82"/>
-      <c r="I122" s="37" t="s">
+      <c r="I122" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="J122" s="38"/>
+      <c r="J122" s="37"/>
       <c r="K122" s="83"/>
       <c r="L122" s="84"/>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C123" s="36" t="s">
+      <c r="C123" s="35" t="s">
         <v>209</v>
       </c>
       <c r="D123" s="79" t="s">
@@ -4172,17 +4181,17 @@
       </c>
       <c r="G123" s="81"/>
       <c r="H123" s="82"/>
-      <c r="I123" s="37" t="s">
+      <c r="I123" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="J123" s="38" t="s">
+      <c r="J123" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K123" s="83"/>
       <c r="L123" s="84"/>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C124" s="36"/>
+      <c r="C124" s="35"/>
       <c r="D124" s="79" t="s">
         <v>47</v>
       </c>
@@ -4192,15 +4201,15 @@
       </c>
       <c r="G124" s="81"/>
       <c r="H124" s="82"/>
-      <c r="I124" s="37" t="s">
+      <c r="I124" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="J124" s="38"/>
+      <c r="J124" s="37"/>
       <c r="K124" s="83"/>
       <c r="L124" s="84"/>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C125" s="36" t="s">
+      <c r="C125" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="79" t="s">
@@ -4212,10 +4221,10 @@
       </c>
       <c r="G125" s="81"/>
       <c r="H125" s="82"/>
-      <c r="I125" s="37" t="s">
+      <c r="I125" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J125" s="46" t="s">
+      <c r="J125" s="45" t="s">
         <v>3</v>
       </c>
       <c r="K125" s="83" t="s">
@@ -4224,7 +4233,7 @@
       <c r="L125" s="84"/>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C126" s="36" t="s">
+      <c r="C126" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="79" t="s">
@@ -4236,10 +4245,10 @@
       </c>
       <c r="G126" s="81"/>
       <c r="H126" s="82"/>
-      <c r="I126" s="37" t="s">
+      <c r="I126" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J126" s="38" t="s">
+      <c r="J126" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K126" s="83" t="s">
@@ -4248,7 +4257,7 @@
       <c r="L126" s="84"/>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C127" s="36" t="s">
+      <c r="C127" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="79" t="s">
@@ -4260,10 +4269,10 @@
       </c>
       <c r="G127" s="81"/>
       <c r="H127" s="82"/>
-      <c r="I127" s="37" t="s">
+      <c r="I127" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J127" s="38" t="s">
+      <c r="J127" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K127" s="83" t="s">
@@ -4272,7 +4281,7 @@
       <c r="L127" s="84"/>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C128" s="36" t="s">
+      <c r="C128" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="79" t="s">
@@ -4284,10 +4293,10 @@
       </c>
       <c r="G128" s="81"/>
       <c r="H128" s="82"/>
-      <c r="I128" s="37" t="s">
+      <c r="I128" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J128" s="38" t="s">
+      <c r="J128" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K128" s="83" t="s">
@@ -4296,8 +4305,8 @@
       <c r="L128" s="84"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="51"/>
-      <c r="C129" s="36"/>
+      <c r="A129" s="50"/>
+      <c r="C129" s="35"/>
       <c r="D129" s="79" t="s">
         <v>105</v>
       </c>
@@ -4307,15 +4316,15 @@
       </c>
       <c r="G129" s="81"/>
       <c r="H129" s="82"/>
-      <c r="I129" s="37" t="s">
+      <c r="I129" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="J129" s="38"/>
+      <c r="J129" s="37"/>
       <c r="K129" s="83"/>
       <c r="L129" s="84"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C130" s="36"/>
+      <c r="C130" s="35"/>
       <c r="D130" s="79" t="s">
         <v>102</v>
       </c>
@@ -4325,17 +4334,17 @@
       </c>
       <c r="G130" s="81"/>
       <c r="H130" s="82"/>
-      <c r="I130" s="37" t="s">
+      <c r="I130" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="J130" s="38" t="s">
+      <c r="J130" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K130" s="83"/>
       <c r="L130" s="84"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C131" s="36"/>
+      <c r="C131" s="35"/>
       <c r="D131" s="79" t="s">
         <v>103</v>
       </c>
@@ -4345,10 +4354,10 @@
       </c>
       <c r="G131" s="81"/>
       <c r="H131" s="82"/>
-      <c r="I131" s="37" t="s">
+      <c r="I131" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="J131" s="38" t="s">
+      <c r="J131" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K131" s="83" t="s">
@@ -4357,7 +4366,7 @@
       <c r="L131" s="84"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C132" s="36"/>
+      <c r="C132" s="35"/>
       <c r="D132" s="79" t="s">
         <v>13</v>
       </c>
@@ -4367,10 +4376,10 @@
       </c>
       <c r="G132" s="81"/>
       <c r="H132" s="82"/>
-      <c r="I132" s="37" t="s">
+      <c r="I132" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J132" s="38" t="s">
+      <c r="J132" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K132" s="83" t="s">
@@ -4379,179 +4388,179 @@
       <c r="L132" s="84"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C133" s="39"/>
-      <c r="D133" s="60" t="s">
+      <c r="C133" s="38"/>
+      <c r="D133" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="E133" s="61"/>
-      <c r="F133" s="62" t="s">
+      <c r="E133" s="64"/>
+      <c r="F133" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="G133" s="62"/>
-      <c r="H133" s="63"/>
-      <c r="I133" s="40" t="s">
+      <c r="G133" s="65"/>
+      <c r="H133" s="66"/>
+      <c r="I133" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J133" s="41"/>
-      <c r="K133" s="98" t="s">
+      <c r="J133" s="40"/>
+      <c r="K133" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="L133" s="99"/>
+      <c r="L133" s="113"/>
     </row>
     <row r="134" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="56" t="s">
+      <c r="C134" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D134" s="57"/>
-      <c r="E134" s="57"/>
-      <c r="F134" s="57"/>
-      <c r="G134" s="57"/>
-      <c r="H134" s="57"/>
-      <c r="I134" s="57"/>
-      <c r="J134" s="57"/>
-      <c r="K134" s="57"/>
-      <c r="L134" s="58"/>
+      <c r="D134" s="70"/>
+      <c r="E134" s="70"/>
+      <c r="F134" s="70"/>
+      <c r="G134" s="70"/>
+      <c r="H134" s="70"/>
+      <c r="I134" s="70"/>
+      <c r="J134" s="70"/>
+      <c r="K134" s="70"/>
+      <c r="L134" s="71"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C135" s="31" t="s">
+      <c r="C135" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D135" s="85" t="s">
+      <c r="D135" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="E135" s="85"/>
-      <c r="F135" s="85"/>
+      <c r="E135" s="62"/>
+      <c r="F135" s="62"/>
       <c r="G135" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H135" s="85" t="s">
+      <c r="H135" s="62" t="s">
         <v>220</v>
       </c>
-      <c r="I135" s="85"/>
-      <c r="J135" s="85"/>
+      <c r="I135" s="62"/>
+      <c r="J135" s="62"/>
       <c r="K135" s="9"/>
-      <c r="L135" s="29"/>
+      <c r="L135" s="28"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C136" s="31" t="s">
+      <c r="C136" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D136" s="85" t="s">
+      <c r="D136" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="E136" s="85"/>
-      <c r="F136" s="85"/>
+      <c r="E136" s="62"/>
+      <c r="F136" s="62"/>
       <c r="G136" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H136" s="85" t="s">
+      <c r="H136" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="I136" s="85"/>
-      <c r="J136" s="85"/>
+      <c r="I136" s="62"/>
+      <c r="J136" s="62"/>
       <c r="K136" s="9"/>
-      <c r="L136" s="29"/>
+      <c r="L136" s="28"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C137" s="31" t="s">
+      <c r="C137" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D137" s="85" t="s">
+      <c r="D137" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="E137" s="85"/>
-      <c r="F137" s="85"/>
+      <c r="E137" s="62"/>
+      <c r="F137" s="62"/>
       <c r="G137" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H137" s="85" t="s">
+      <c r="H137" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="I137" s="85"/>
-      <c r="J137" s="85"/>
+      <c r="I137" s="62"/>
+      <c r="J137" s="62"/>
       <c r="K137" s="9"/>
-      <c r="L137" s="29"/>
+      <c r="L137" s="28"/>
     </row>
     <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C138" s="23" t="s">
+      <c r="C138" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D138" s="59" t="s">
+      <c r="D138" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="E138" s="59"/>
-      <c r="F138" s="59"/>
-      <c r="G138" s="24" t="s">
+      <c r="E138" s="61"/>
+      <c r="F138" s="61"/>
+      <c r="G138" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H138" s="59" t="s">
+      <c r="H138" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="I138" s="59"/>
-      <c r="J138" s="59"/>
-      <c r="K138" s="25"/>
-      <c r="L138" s="26"/>
+      <c r="I138" s="61"/>
+      <c r="J138" s="61"/>
+      <c r="K138" s="24"/>
+      <c r="L138" s="25"/>
     </row>
     <row r="139" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="140" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="141" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="50">
+      <c r="B141" s="49">
         <v>13</v>
       </c>
-      <c r="C141" s="66" t="s">
+      <c r="C141" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="D141" s="67"/>
-      <c r="E141" s="67"/>
-      <c r="F141" s="67"/>
-      <c r="G141" s="67"/>
-      <c r="H141" s="67"/>
-      <c r="I141" s="67"/>
-      <c r="J141" s="67"/>
-      <c r="K141" s="68"/>
-      <c r="L141" s="69"/>
+      <c r="D141" s="73"/>
+      <c r="E141" s="73"/>
+      <c r="F141" s="73"/>
+      <c r="G141" s="73"/>
+      <c r="H141" s="73"/>
+      <c r="I141" s="73"/>
+      <c r="J141" s="73"/>
+      <c r="K141" s="74"/>
+      <c r="L141" s="75"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C142" s="70" t="s">
+      <c r="C142" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="D142" s="71"/>
-      <c r="E142" s="71"/>
-      <c r="F142" s="71"/>
-      <c r="G142" s="71"/>
-      <c r="H142" s="71"/>
-      <c r="I142" s="71"/>
-      <c r="J142" s="71"/>
-      <c r="K142" s="71"/>
-      <c r="L142" s="72"/>
+      <c r="D142" s="77"/>
+      <c r="E142" s="77"/>
+      <c r="F142" s="77"/>
+      <c r="G142" s="77"/>
+      <c r="H142" s="77"/>
+      <c r="I142" s="77"/>
+      <c r="J142" s="77"/>
+      <c r="K142" s="77"/>
+      <c r="L142" s="78"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C143" s="33" t="s">
+      <c r="C143" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D143" s="73" t="s">
+      <c r="D143" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="E143" s="74"/>
-      <c r="F143" s="75" t="s">
+      <c r="E143" s="86"/>
+      <c r="F143" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="G143" s="75"/>
-      <c r="H143" s="76"/>
-      <c r="I143" s="34" t="s">
+      <c r="G143" s="87"/>
+      <c r="H143" s="88"/>
+      <c r="I143" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J143" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K143" s="77" t="s">
+      <c r="J143" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K143" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="L143" s="78"/>
+      <c r="L143" s="90"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="51"/>
-      <c r="C144" s="36"/>
+      <c r="A144" s="50"/>
+      <c r="C144" s="35"/>
       <c r="D144" s="79" t="s">
         <v>128</v>
       </c>
@@ -4561,195 +4570,195 @@
       </c>
       <c r="G144" s="81"/>
       <c r="H144" s="82"/>
-      <c r="I144" s="37" t="s">
+      <c r="I144" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="J144" s="38" t="s">
+      <c r="J144" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K144" s="83"/>
       <c r="L144" s="84"/>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C145" s="39"/>
-      <c r="D145" s="60" t="s">
+      <c r="C145" s="38"/>
+      <c r="D145" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="E145" s="61"/>
-      <c r="F145" s="62" t="s">
+      <c r="E145" s="64"/>
+      <c r="F145" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="G145" s="62"/>
-      <c r="H145" s="63"/>
-      <c r="I145" s="40" t="s">
+      <c r="G145" s="65"/>
+      <c r="H145" s="66"/>
+      <c r="I145" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="J145" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K145" s="64"/>
-      <c r="L145" s="65"/>
+      <c r="J145" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K145" s="67"/>
+      <c r="L145" s="68"/>
     </row>
     <row r="146" spans="2:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C146" s="87"/>
-      <c r="D146" s="88"/>
-      <c r="E146" s="88"/>
-      <c r="F146" s="88"/>
-      <c r="G146" s="88"/>
-      <c r="H146" s="88"/>
-      <c r="I146" s="88"/>
-      <c r="J146" s="88"/>
-      <c r="K146" s="88"/>
-      <c r="L146" s="89"/>
+      <c r="C146" s="97"/>
+      <c r="D146" s="98"/>
+      <c r="E146" s="98"/>
+      <c r="F146" s="98"/>
+      <c r="G146" s="98"/>
+      <c r="H146" s="98"/>
+      <c r="I146" s="98"/>
+      <c r="J146" s="98"/>
+      <c r="K146" s="98"/>
+      <c r="L146" s="99"/>
     </row>
     <row r="147" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="148" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="149" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="50">
+      <c r="B149" s="49">
         <v>14</v>
       </c>
-      <c r="C149" s="66" t="s">
+      <c r="C149" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="D149" s="67"/>
-      <c r="E149" s="67"/>
-      <c r="F149" s="67"/>
-      <c r="G149" s="67"/>
-      <c r="H149" s="67"/>
-      <c r="I149" s="67"/>
-      <c r="J149" s="67"/>
-      <c r="K149" s="68"/>
-      <c r="L149" s="69"/>
+      <c r="D149" s="73"/>
+      <c r="E149" s="73"/>
+      <c r="F149" s="73"/>
+      <c r="G149" s="73"/>
+      <c r="H149" s="73"/>
+      <c r="I149" s="73"/>
+      <c r="J149" s="73"/>
+      <c r="K149" s="74"/>
+      <c r="L149" s="75"/>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C150" s="70" t="s">
+      <c r="C150" s="76" t="s">
         <v>217</v>
       </c>
-      <c r="D150" s="71"/>
-      <c r="E150" s="71"/>
-      <c r="F150" s="71"/>
-      <c r="G150" s="71"/>
-      <c r="H150" s="71"/>
-      <c r="I150" s="71"/>
-      <c r="J150" s="71"/>
-      <c r="K150" s="71"/>
-      <c r="L150" s="72"/>
+      <c r="D150" s="77"/>
+      <c r="E150" s="77"/>
+      <c r="F150" s="77"/>
+      <c r="G150" s="77"/>
+      <c r="H150" s="77"/>
+      <c r="I150" s="77"/>
+      <c r="J150" s="77"/>
+      <c r="K150" s="77"/>
+      <c r="L150" s="78"/>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C151" s="33" t="s">
+      <c r="C151" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D151" s="73" t="s">
+      <c r="D151" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="E151" s="74"/>
-      <c r="F151" s="75" t="s">
+      <c r="E151" s="86"/>
+      <c r="F151" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="G151" s="75"/>
-      <c r="H151" s="76"/>
-      <c r="I151" s="34" t="s">
+      <c r="G151" s="87"/>
+      <c r="H151" s="88"/>
+      <c r="I151" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J151" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K151" s="77" t="s">
+      <c r="J151" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K151" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="L151" s="78"/>
+      <c r="L151" s="90"/>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C152" s="39"/>
-      <c r="D152" s="60" t="s">
+      <c r="C152" s="38"/>
+      <c r="D152" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="E152" s="61"/>
-      <c r="F152" s="62" t="s">
+      <c r="E152" s="64"/>
+      <c r="F152" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="G152" s="62"/>
-      <c r="H152" s="63"/>
-      <c r="I152" s="37" t="s">
+      <c r="G152" s="65"/>
+      <c r="H152" s="66"/>
+      <c r="I152" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J152" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K152" s="90"/>
-      <c r="L152" s="91"/>
+      <c r="J152" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K152" s="116"/>
+      <c r="L152" s="117"/>
     </row>
     <row r="153" spans="2:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C153" s="87"/>
-      <c r="D153" s="88"/>
-      <c r="E153" s="88"/>
-      <c r="F153" s="88"/>
-      <c r="G153" s="88"/>
-      <c r="H153" s="88"/>
-      <c r="I153" s="88"/>
-      <c r="J153" s="88"/>
-      <c r="K153" s="88"/>
-      <c r="L153" s="89"/>
+      <c r="C153" s="97"/>
+      <c r="D153" s="98"/>
+      <c r="E153" s="98"/>
+      <c r="F153" s="98"/>
+      <c r="G153" s="98"/>
+      <c r="H153" s="98"/>
+      <c r="I153" s="98"/>
+      <c r="J153" s="98"/>
+      <c r="K153" s="98"/>
+      <c r="L153" s="99"/>
     </row>
     <row r="154" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="155" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="156" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="50">
+      <c r="B156" s="49">
         <v>15</v>
       </c>
-      <c r="C156" s="66" t="s">
+      <c r="C156" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="D156" s="67"/>
-      <c r="E156" s="67"/>
-      <c r="F156" s="67"/>
-      <c r="G156" s="67"/>
-      <c r="H156" s="67"/>
-      <c r="I156" s="67"/>
-      <c r="J156" s="67"/>
-      <c r="K156" s="68"/>
-      <c r="L156" s="69"/>
+      <c r="D156" s="73"/>
+      <c r="E156" s="73"/>
+      <c r="F156" s="73"/>
+      <c r="G156" s="73"/>
+      <c r="H156" s="73"/>
+      <c r="I156" s="73"/>
+      <c r="J156" s="73"/>
+      <c r="K156" s="74"/>
+      <c r="L156" s="75"/>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C157" s="70" t="s">
+      <c r="C157" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="D157" s="71"/>
-      <c r="E157" s="71"/>
-      <c r="F157" s="71"/>
-      <c r="G157" s="71"/>
-      <c r="H157" s="71"/>
-      <c r="I157" s="71"/>
-      <c r="J157" s="71"/>
-      <c r="K157" s="71"/>
-      <c r="L157" s="72"/>
+      <c r="D157" s="77"/>
+      <c r="E157" s="77"/>
+      <c r="F157" s="77"/>
+      <c r="G157" s="77"/>
+      <c r="H157" s="77"/>
+      <c r="I157" s="77"/>
+      <c r="J157" s="77"/>
+      <c r="K157" s="77"/>
+      <c r="L157" s="78"/>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C158" s="33" t="s">
+      <c r="C158" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D158" s="73" t="s">
+      <c r="D158" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="E158" s="74"/>
-      <c r="F158" s="75" t="s">
+      <c r="E158" s="86"/>
+      <c r="F158" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="G158" s="75"/>
-      <c r="H158" s="76"/>
-      <c r="I158" s="34" t="s">
+      <c r="G158" s="87"/>
+      <c r="H158" s="88"/>
+      <c r="I158" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J158" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K158" s="77" t="s">
+      <c r="J158" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K158" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="L158" s="78"/>
+      <c r="L158" s="90"/>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C159" s="36"/>
+      <c r="C159" s="35"/>
       <c r="D159" s="79" t="s">
         <v>172</v>
       </c>
@@ -4759,17 +4768,17 @@
       </c>
       <c r="G159" s="81"/>
       <c r="H159" s="82"/>
-      <c r="I159" s="37" t="s">
+      <c r="I159" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="J159" s="38" t="s">
+      <c r="J159" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K159" s="83"/>
       <c r="L159" s="84"/>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C160" s="36" t="s">
+      <c r="C160" s="35" t="s">
         <v>209</v>
       </c>
       <c r="D160" s="79" t="s">
@@ -4781,17 +4790,17 @@
       </c>
       <c r="G160" s="81"/>
       <c r="H160" s="82"/>
-      <c r="I160" s="37" t="s">
+      <c r="I160" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="J160" s="38" t="s">
+      <c r="J160" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K160" s="83"/>
       <c r="L160" s="84"/>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C161" s="36" t="s">
+      <c r="C161" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D161" s="79" t="s">
@@ -4803,10 +4812,10 @@
       </c>
       <c r="G161" s="81"/>
       <c r="H161" s="82"/>
-      <c r="I161" s="37" t="s">
+      <c r="I161" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J161" s="38" t="s">
+      <c r="J161" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K161" s="83" t="s">
@@ -4815,7 +4824,7 @@
       <c r="L161" s="84"/>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C162" s="36"/>
+      <c r="C162" s="35"/>
       <c r="D162" s="79" t="s">
         <v>60</v>
       </c>
@@ -4825,17 +4834,17 @@
       </c>
       <c r="G162" s="81"/>
       <c r="H162" s="82"/>
-      <c r="I162" s="37" t="s">
+      <c r="I162" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="J162" s="38" t="s">
+      <c r="J162" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K162" s="83"/>
       <c r="L162" s="84"/>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C163" s="36"/>
+      <c r="C163" s="35"/>
       <c r="D163" s="79" t="s">
         <v>11</v>
       </c>
@@ -4845,15 +4854,15 @@
       </c>
       <c r="G163" s="81"/>
       <c r="H163" s="82"/>
-      <c r="I163" s="37" t="s">
+      <c r="I163" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="J163" s="38"/>
+      <c r="J163" s="37"/>
       <c r="K163" s="83"/>
       <c r="L163" s="84"/>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C164" s="36"/>
+      <c r="C164" s="35"/>
       <c r="D164" s="79" t="s">
         <v>12</v>
       </c>
@@ -4863,17 +4872,17 @@
       </c>
       <c r="G164" s="81"/>
       <c r="H164" s="82"/>
-      <c r="I164" s="37" t="s">
+      <c r="I164" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="J164" s="38" t="s">
+      <c r="J164" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K164" s="83"/>
       <c r="L164" s="84"/>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C165" s="36" t="s">
+      <c r="C165" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D165" s="79" t="s">
@@ -4885,10 +4894,10 @@
       </c>
       <c r="G165" s="81"/>
       <c r="H165" s="82"/>
-      <c r="I165" s="37" t="s">
+      <c r="I165" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J165" s="38" t="s">
+      <c r="J165" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K165" s="83" t="s">
@@ -4897,140 +4906,140 @@
       <c r="L165" s="84"/>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C166" s="39"/>
-      <c r="D166" s="60" t="s">
+      <c r="C166" s="38"/>
+      <c r="D166" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="E166" s="61"/>
-      <c r="F166" s="62" t="s">
+      <c r="E166" s="64"/>
+      <c r="F166" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G166" s="62"/>
-      <c r="H166" s="63"/>
-      <c r="I166" s="40" t="s">
+      <c r="G166" s="65"/>
+      <c r="H166" s="66"/>
+      <c r="I166" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J166" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K166" s="64" t="s">
+      <c r="J166" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K166" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L166" s="65"/>
+      <c r="L166" s="68"/>
     </row>
     <row r="167" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C167" s="56" t="s">
+      <c r="C167" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D167" s="57"/>
-      <c r="E167" s="57"/>
-      <c r="F167" s="57"/>
-      <c r="G167" s="57"/>
-      <c r="H167" s="57"/>
-      <c r="I167" s="57"/>
-      <c r="J167" s="57"/>
-      <c r="K167" s="57"/>
-      <c r="L167" s="58"/>
+      <c r="D167" s="70"/>
+      <c r="E167" s="70"/>
+      <c r="F167" s="70"/>
+      <c r="G167" s="70"/>
+      <c r="H167" s="70"/>
+      <c r="I167" s="70"/>
+      <c r="J167" s="70"/>
+      <c r="K167" s="70"/>
+      <c r="L167" s="71"/>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C168" s="21" t="s">
+      <c r="C168" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D168" s="86" t="s">
+      <c r="D168" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="E168" s="86"/>
-      <c r="F168" s="86"/>
+      <c r="E168" s="93"/>
+      <c r="F168" s="93"/>
       <c r="G168" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H168" s="86" t="s">
+      <c r="H168" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="I168" s="86"/>
-      <c r="J168" s="86"/>
+      <c r="I168" s="93"/>
+      <c r="J168" s="93"/>
       <c r="K168" s="8"/>
-      <c r="L168" s="22"/>
+      <c r="L168" s="21"/>
     </row>
     <row r="169" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C169" s="23" t="s">
+      <c r="C169" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D169" s="59" t="s">
+      <c r="D169" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="E169" s="59"/>
-      <c r="F169" s="59"/>
-      <c r="G169" s="24" t="s">
+      <c r="E169" s="61"/>
+      <c r="F169" s="61"/>
+      <c r="G169" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H169" s="59" t="s">
+      <c r="H169" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="I169" s="59"/>
-      <c r="J169" s="59"/>
-      <c r="K169" s="25"/>
-      <c r="L169" s="26"/>
+      <c r="I169" s="61"/>
+      <c r="J169" s="61"/>
+      <c r="K169" s="24"/>
+      <c r="L169" s="25"/>
     </row>
     <row r="170" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="171" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="172" spans="2:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="50">
+      <c r="B172" s="49">
         <v>16</v>
       </c>
-      <c r="C172" s="66" t="s">
+      <c r="C172" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="D172" s="67"/>
-      <c r="E172" s="67"/>
-      <c r="F172" s="67"/>
-      <c r="G172" s="67"/>
-      <c r="H172" s="67"/>
-      <c r="I172" s="67"/>
-      <c r="J172" s="67"/>
-      <c r="K172" s="68"/>
-      <c r="L172" s="69"/>
+      <c r="D172" s="73"/>
+      <c r="E172" s="73"/>
+      <c r="F172" s="73"/>
+      <c r="G172" s="73"/>
+      <c r="H172" s="73"/>
+      <c r="I172" s="73"/>
+      <c r="J172" s="73"/>
+      <c r="K172" s="74"/>
+      <c r="L172" s="75"/>
     </row>
     <row r="173" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C173" s="70" t="s">
+      <c r="C173" s="76" t="s">
         <v>233</v>
       </c>
-      <c r="D173" s="71"/>
-      <c r="E173" s="71"/>
-      <c r="F173" s="71"/>
-      <c r="G173" s="71"/>
-      <c r="H173" s="71"/>
-      <c r="I173" s="71"/>
-      <c r="J173" s="71"/>
-      <c r="K173" s="71"/>
-      <c r="L173" s="72"/>
+      <c r="D173" s="77"/>
+      <c r="E173" s="77"/>
+      <c r="F173" s="77"/>
+      <c r="G173" s="77"/>
+      <c r="H173" s="77"/>
+      <c r="I173" s="77"/>
+      <c r="J173" s="77"/>
+      <c r="K173" s="77"/>
+      <c r="L173" s="78"/>
     </row>
     <row r="174" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C174" s="33" t="s">
+      <c r="C174" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D174" s="73" t="s">
+      <c r="D174" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="E174" s="74"/>
-      <c r="F174" s="75" t="s">
+      <c r="E174" s="86"/>
+      <c r="F174" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="G174" s="75"/>
-      <c r="H174" s="76"/>
-      <c r="I174" s="34" t="s">
+      <c r="G174" s="87"/>
+      <c r="H174" s="88"/>
+      <c r="I174" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J174" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="K174" s="77" t="s">
+      <c r="J174" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K174" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="L174" s="78"/>
+      <c r="L174" s="90"/>
     </row>
     <row r="175" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C175" s="36"/>
+      <c r="C175" s="35"/>
       <c r="D175" s="79" t="s">
         <v>104</v>
       </c>
@@ -5040,10 +5049,10 @@
       </c>
       <c r="G175" s="81"/>
       <c r="H175" s="82"/>
-      <c r="I175" s="37" t="s">
+      <c r="I175" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="J175" s="52" t="s">
+      <c r="J175" s="51" t="s">
         <v>3</v>
       </c>
       <c r="K175" s="83" t="s">
@@ -5052,120 +5061,120 @@
       <c r="L175" s="84"/>
     </row>
     <row r="176" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C176" s="39"/>
-      <c r="D176" s="60" t="s">
+      <c r="C176" s="38"/>
+      <c r="D176" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="E176" s="61"/>
-      <c r="F176" s="62" t="s">
+      <c r="E176" s="64"/>
+      <c r="F176" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="G176" s="62"/>
-      <c r="H176" s="63"/>
-      <c r="I176" s="40" t="s">
+      <c r="G176" s="65"/>
+      <c r="H176" s="66"/>
+      <c r="I176" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J176" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="K176" s="64" t="s">
+      <c r="J176" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="K176" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="L176" s="65"/>
+      <c r="L176" s="68"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C177" s="56" t="s">
+      <c r="C177" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D177" s="57"/>
-      <c r="E177" s="57"/>
-      <c r="F177" s="57"/>
-      <c r="G177" s="57"/>
-      <c r="H177" s="57"/>
-      <c r="I177" s="57"/>
-      <c r="J177" s="57"/>
-      <c r="K177" s="57"/>
-      <c r="L177" s="58"/>
+      <c r="D177" s="70"/>
+      <c r="E177" s="70"/>
+      <c r="F177" s="70"/>
+      <c r="G177" s="70"/>
+      <c r="H177" s="70"/>
+      <c r="I177" s="70"/>
+      <c r="J177" s="70"/>
+      <c r="K177" s="70"/>
+      <c r="L177" s="71"/>
     </row>
     <row r="178" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C178" s="23" t="s">
+      <c r="C178" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D178" s="59" t="s">
+      <c r="D178" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="E178" s="59"/>
-      <c r="F178" s="59"/>
-      <c r="G178" s="24" t="s">
+      <c r="E178" s="61"/>
+      <c r="F178" s="61"/>
+      <c r="G178" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H178" s="59" t="s">
+      <c r="H178" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="I178" s="59"/>
-      <c r="J178" s="59"/>
-      <c r="K178" s="25"/>
-      <c r="L178" s="26"/>
+      <c r="I178" s="61"/>
+      <c r="J178" s="61"/>
+      <c r="K178" s="24"/>
+      <c r="L178" s="25"/>
     </row>
     <row r="179" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="181" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="50">
+      <c r="B181" s="49">
         <v>17</v>
       </c>
-      <c r="C181" s="66" t="s">
+      <c r="C181" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="D181" s="67"/>
-      <c r="E181" s="67"/>
-      <c r="F181" s="67"/>
-      <c r="G181" s="67"/>
-      <c r="H181" s="67"/>
-      <c r="I181" s="67"/>
-      <c r="J181" s="67"/>
-      <c r="K181" s="68"/>
-      <c r="L181" s="69"/>
+      <c r="D181" s="73"/>
+      <c r="E181" s="73"/>
+      <c r="F181" s="73"/>
+      <c r="G181" s="73"/>
+      <c r="H181" s="73"/>
+      <c r="I181" s="73"/>
+      <c r="J181" s="73"/>
+      <c r="K181" s="74"/>
+      <c r="L181" s="75"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C182" s="70" t="s">
+      <c r="C182" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="D182" s="71"/>
-      <c r="E182" s="71"/>
-      <c r="F182" s="71"/>
-      <c r="G182" s="71"/>
-      <c r="H182" s="71"/>
-      <c r="I182" s="71"/>
-      <c r="J182" s="71"/>
-      <c r="K182" s="71"/>
-      <c r="L182" s="72"/>
+      <c r="D182" s="77"/>
+      <c r="E182" s="77"/>
+      <c r="F182" s="77"/>
+      <c r="G182" s="77"/>
+      <c r="H182" s="77"/>
+      <c r="I182" s="77"/>
+      <c r="J182" s="77"/>
+      <c r="K182" s="77"/>
+      <c r="L182" s="78"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C183" s="33" t="s">
+      <c r="C183" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D183" s="73" t="s">
+      <c r="D183" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="E183" s="74"/>
-      <c r="F183" s="75" t="s">
+      <c r="E183" s="86"/>
+      <c r="F183" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="G183" s="75"/>
-      <c r="H183" s="76"/>
-      <c r="I183" s="34" t="s">
+      <c r="G183" s="87"/>
+      <c r="H183" s="88"/>
+      <c r="I183" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J183" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="K183" s="77" t="s">
+      <c r="J183" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="K183" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="L183" s="78"/>
+      <c r="L183" s="90"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C184" s="36" t="s">
+      <c r="C184" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D184" s="79" t="s">
@@ -5177,10 +5186,10 @@
       </c>
       <c r="G184" s="81"/>
       <c r="H184" s="82"/>
-      <c r="I184" s="37" t="s">
+      <c r="I184" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J184" s="46" t="s">
+      <c r="J184" s="45" t="s">
         <v>3</v>
       </c>
       <c r="K184" s="83" t="s">
@@ -5189,7 +5198,7 @@
       <c r="L184" s="84"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C185" s="36" t="s">
+      <c r="C185" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D185" s="79" t="s">
@@ -5201,10 +5210,10 @@
       </c>
       <c r="G185" s="81"/>
       <c r="H185" s="82"/>
-      <c r="I185" s="37" t="s">
+      <c r="I185" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J185" s="46" t="s">
+      <c r="J185" s="45" t="s">
         <v>3</v>
       </c>
       <c r="K185" s="83" t="s">
@@ -5213,8 +5222,8 @@
       <c r="L185" s="84"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="51"/>
-      <c r="C186" s="36"/>
+      <c r="A186" s="50"/>
+      <c r="C186" s="35"/>
       <c r="D186" s="79" t="s">
         <v>225</v>
       </c>
@@ -5224,17 +5233,17 @@
       </c>
       <c r="G186" s="81"/>
       <c r="H186" s="82"/>
-      <c r="I186" s="37" t="s">
+      <c r="I186" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="J186" s="46" t="s">
+      <c r="J186" s="45" t="s">
         <v>3</v>
       </c>
       <c r="K186" s="83"/>
       <c r="L186" s="84"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C187" s="36"/>
+      <c r="C187" s="35"/>
       <c r="D187" s="79" t="s">
         <v>148</v>
       </c>
@@ -5244,10 +5253,10 @@
       </c>
       <c r="G187" s="81"/>
       <c r="H187" s="82"/>
-      <c r="I187" s="37" t="s">
+      <c r="I187" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="J187" s="46" t="s">
+      <c r="J187" s="45" t="s">
         <v>3</v>
       </c>
       <c r="K187" s="83" t="s">
@@ -5256,140 +5265,140 @@
       <c r="L187" s="84"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C188" s="39"/>
-      <c r="D188" s="96" t="s">
+      <c r="C188" s="38"/>
+      <c r="D188" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="E188" s="97"/>
-      <c r="F188" s="62" t="s">
+      <c r="E188" s="115"/>
+      <c r="F188" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G188" s="62"/>
-      <c r="H188" s="63"/>
-      <c r="I188" s="40" t="s">
+      <c r="G188" s="65"/>
+      <c r="H188" s="66"/>
+      <c r="I188" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J188" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="K188" s="64" t="s">
+      <c r="J188" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="K188" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L188" s="65"/>
+      <c r="L188" s="68"/>
     </row>
     <row r="189" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C189" s="56" t="s">
+      <c r="C189" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D189" s="57"/>
-      <c r="E189" s="57"/>
-      <c r="F189" s="57"/>
-      <c r="G189" s="57"/>
-      <c r="H189" s="57"/>
-      <c r="I189" s="57"/>
-      <c r="J189" s="57"/>
-      <c r="K189" s="57"/>
-      <c r="L189" s="58"/>
+      <c r="D189" s="70"/>
+      <c r="E189" s="70"/>
+      <c r="F189" s="70"/>
+      <c r="G189" s="70"/>
+      <c r="H189" s="70"/>
+      <c r="I189" s="70"/>
+      <c r="J189" s="70"/>
+      <c r="K189" s="70"/>
+      <c r="L189" s="71"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C190" s="28" t="s">
+      <c r="C190" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D190" s="85" t="s">
+      <c r="D190" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E190" s="85"/>
-      <c r="F190" s="85"/>
+      <c r="E190" s="62"/>
+      <c r="F190" s="62"/>
       <c r="G190" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H190" s="85" t="s">
+      <c r="H190" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="I190" s="85"/>
-      <c r="J190" s="85"/>
+      <c r="I190" s="62"/>
+      <c r="J190" s="62"/>
       <c r="K190" s="8"/>
-      <c r="L190" s="22"/>
+      <c r="L190" s="21"/>
     </row>
     <row r="191" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C191" s="23" t="s">
+      <c r="C191" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D191" s="59" t="s">
+      <c r="D191" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="E191" s="59"/>
-      <c r="F191" s="59"/>
-      <c r="G191" s="24" t="s">
+      <c r="E191" s="61"/>
+      <c r="F191" s="61"/>
+      <c r="G191" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H191" s="59" t="s">
+      <c r="H191" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="I191" s="59"/>
-      <c r="J191" s="59"/>
-      <c r="K191" s="25"/>
-      <c r="L191" s="26"/>
+      <c r="I191" s="61"/>
+      <c r="J191" s="61"/>
+      <c r="K191" s="24"/>
+      <c r="L191" s="25"/>
     </row>
     <row r="192" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="193" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="194" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="50">
+      <c r="B194" s="49">
         <v>18</v>
       </c>
-      <c r="C194" s="66" t="s">
+      <c r="C194" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="D194" s="67"/>
-      <c r="E194" s="67"/>
-      <c r="F194" s="67"/>
-      <c r="G194" s="67"/>
-      <c r="H194" s="67"/>
-      <c r="I194" s="67"/>
-      <c r="J194" s="67"/>
-      <c r="K194" s="68"/>
-      <c r="L194" s="69"/>
+      <c r="D194" s="73"/>
+      <c r="E194" s="73"/>
+      <c r="F194" s="73"/>
+      <c r="G194" s="73"/>
+      <c r="H194" s="73"/>
+      <c r="I194" s="73"/>
+      <c r="J194" s="73"/>
+      <c r="K194" s="74"/>
+      <c r="L194" s="75"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C195" s="70" t="s">
+      <c r="C195" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="D195" s="71"/>
-      <c r="E195" s="71"/>
-      <c r="F195" s="71"/>
-      <c r="G195" s="71"/>
-      <c r="H195" s="71"/>
-      <c r="I195" s="71"/>
-      <c r="J195" s="71"/>
-      <c r="K195" s="71"/>
-      <c r="L195" s="72"/>
+      <c r="D195" s="77"/>
+      <c r="E195" s="77"/>
+      <c r="F195" s="77"/>
+      <c r="G195" s="77"/>
+      <c r="H195" s="77"/>
+      <c r="I195" s="77"/>
+      <c r="J195" s="77"/>
+      <c r="K195" s="77"/>
+      <c r="L195" s="78"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C196" s="33" t="s">
+      <c r="C196" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D196" s="73" t="s">
+      <c r="D196" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="E196" s="74"/>
-      <c r="F196" s="75" t="s">
+      <c r="E196" s="86"/>
+      <c r="F196" s="87" t="s">
         <v>133</v>
       </c>
-      <c r="G196" s="75"/>
-      <c r="H196" s="76"/>
-      <c r="I196" s="34" t="s">
+      <c r="G196" s="87"/>
+      <c r="H196" s="88"/>
+      <c r="I196" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J196" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K196" s="92" t="s">
+      <c r="J196" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K196" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="L196" s="93"/>
+      <c r="L196" s="107"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C197" s="36" t="s">
+      <c r="C197" s="35" t="s">
         <v>40</v>
       </c>
       <c r="D197" s="79" t="s">
@@ -5401,20 +5410,20 @@
       </c>
       <c r="G197" s="81"/>
       <c r="H197" s="82"/>
-      <c r="I197" s="37" t="s">
+      <c r="I197" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J197" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K197" s="94" t="s">
+      <c r="J197" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K197" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="L197" s="95"/>
+      <c r="L197" s="109"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A198" s="51"/>
-      <c r="C198" s="36"/>
+      <c r="A198" s="50"/>
+      <c r="C198" s="35"/>
       <c r="D198" s="79" t="s">
         <v>94</v>
       </c>
@@ -5424,254 +5433,254 @@
       </c>
       <c r="G198" s="81"/>
       <c r="H198" s="82"/>
-      <c r="I198" s="37" t="s">
+      <c r="I198" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="J198" s="38" t="s">
+      <c r="J198" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K198" s="83"/>
       <c r="L198" s="84"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C199" s="39"/>
-      <c r="D199" s="60" t="s">
+      <c r="C199" s="38"/>
+      <c r="D199" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="E199" s="61"/>
-      <c r="F199" s="62" t="s">
+      <c r="E199" s="64"/>
+      <c r="F199" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="G199" s="62"/>
-      <c r="H199" s="63"/>
-      <c r="I199" s="40" t="s">
+      <c r="G199" s="65"/>
+      <c r="H199" s="66"/>
+      <c r="I199" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="J199" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K199" s="64"/>
-      <c r="L199" s="65"/>
+      <c r="J199" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K199" s="67"/>
+      <c r="L199" s="68"/>
     </row>
     <row r="200" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C200" s="56" t="s">
+      <c r="C200" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D200" s="57"/>
-      <c r="E200" s="57"/>
-      <c r="F200" s="57"/>
-      <c r="G200" s="57"/>
-      <c r="H200" s="57"/>
-      <c r="I200" s="57"/>
-      <c r="J200" s="57"/>
-      <c r="K200" s="57"/>
-      <c r="L200" s="58"/>
+      <c r="D200" s="70"/>
+      <c r="E200" s="70"/>
+      <c r="F200" s="70"/>
+      <c r="G200" s="70"/>
+      <c r="H200" s="70"/>
+      <c r="I200" s="70"/>
+      <c r="J200" s="70"/>
+      <c r="K200" s="70"/>
+      <c r="L200" s="71"/>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C201" s="21" t="s">
+      <c r="C201" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D201" s="86" t="s">
+      <c r="D201" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="E201" s="86"/>
-      <c r="F201" s="86"/>
+      <c r="E201" s="93"/>
+      <c r="F201" s="93"/>
       <c r="G201" s="4"/>
-      <c r="H201" s="86"/>
-      <c r="I201" s="86"/>
-      <c r="J201" s="86"/>
+      <c r="H201" s="93"/>
+      <c r="I201" s="93"/>
+      <c r="J201" s="93"/>
       <c r="K201" s="8"/>
-      <c r="L201" s="22"/>
+      <c r="L201" s="21"/>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C202" s="28" t="s">
+      <c r="C202" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D202" s="85" t="s">
+      <c r="D202" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="E202" s="85"/>
-      <c r="F202" s="85"/>
+      <c r="E202" s="62"/>
+      <c r="F202" s="62"/>
       <c r="G202" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H202" s="85" t="s">
+      <c r="H202" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="I202" s="85"/>
-      <c r="J202" s="85"/>
+      <c r="I202" s="62"/>
+      <c r="J202" s="62"/>
       <c r="K202" s="9"/>
-      <c r="L202" s="29"/>
+      <c r="L202" s="28"/>
     </row>
     <row r="203" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C203" s="23" t="s">
+      <c r="C203" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D203" s="59" t="s">
+      <c r="D203" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="E203" s="59"/>
-      <c r="F203" s="59"/>
-      <c r="G203" s="24" t="s">
+      <c r="E203" s="61"/>
+      <c r="F203" s="61"/>
+      <c r="G203" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H203" s="59" t="s">
+      <c r="H203" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="I203" s="59"/>
-      <c r="J203" s="59"/>
-      <c r="K203" s="25"/>
-      <c r="L203" s="26"/>
+      <c r="I203" s="61"/>
+      <c r="J203" s="61"/>
+      <c r="K203" s="24"/>
+      <c r="L203" s="25"/>
     </row>
     <row r="204" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="205" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="206" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="117">
+      <c r="B206" s="57">
         <v>19</v>
       </c>
-      <c r="C206" s="66" t="s">
+      <c r="C206" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="D206" s="67"/>
-      <c r="E206" s="67"/>
-      <c r="F206" s="67"/>
-      <c r="G206" s="67"/>
-      <c r="H206" s="67"/>
-      <c r="I206" s="67"/>
-      <c r="J206" s="67"/>
-      <c r="K206" s="68"/>
-      <c r="L206" s="69"/>
+      <c r="D206" s="73"/>
+      <c r="E206" s="73"/>
+      <c r="F206" s="73"/>
+      <c r="G206" s="73"/>
+      <c r="H206" s="73"/>
+      <c r="I206" s="73"/>
+      <c r="J206" s="73"/>
+      <c r="K206" s="74"/>
+      <c r="L206" s="75"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C207" s="70" t="s">
+      <c r="C207" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="D207" s="71"/>
-      <c r="E207" s="71"/>
-      <c r="F207" s="71"/>
-      <c r="G207" s="71"/>
-      <c r="H207" s="71"/>
-      <c r="I207" s="71"/>
-      <c r="J207" s="71"/>
-      <c r="K207" s="71"/>
-      <c r="L207" s="72"/>
+      <c r="D207" s="77"/>
+      <c r="E207" s="77"/>
+      <c r="F207" s="77"/>
+      <c r="G207" s="77"/>
+      <c r="H207" s="77"/>
+      <c r="I207" s="77"/>
+      <c r="J207" s="77"/>
+      <c r="K207" s="77"/>
+      <c r="L207" s="78"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C208" s="33" t="s">
+      <c r="C208" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D208" s="73" t="s">
+      <c r="D208" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="E208" s="74"/>
-      <c r="F208" s="75" t="s">
+      <c r="E208" s="86"/>
+      <c r="F208" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="G208" s="75"/>
-      <c r="H208" s="76"/>
-      <c r="I208" s="34" t="s">
+      <c r="G208" s="87"/>
+      <c r="H208" s="88"/>
+      <c r="I208" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J208" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K208" s="77" t="s">
+      <c r="J208" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K208" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="L208" s="78"/>
+      <c r="L208" s="90"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A209" s="51"/>
-      <c r="C209" s="39"/>
-      <c r="D209" s="60" t="s">
+      <c r="A209" s="50"/>
+      <c r="C209" s="38"/>
+      <c r="D209" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="E209" s="61"/>
-      <c r="F209" s="62" t="s">
+      <c r="E209" s="64"/>
+      <c r="F209" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="G209" s="62"/>
-      <c r="H209" s="63"/>
-      <c r="I209" s="40" t="s">
+      <c r="G209" s="65"/>
+      <c r="H209" s="66"/>
+      <c r="I209" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="J209" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K209" s="64"/>
-      <c r="L209" s="65"/>
+      <c r="J209" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K209" s="67"/>
+      <c r="L209" s="68"/>
     </row>
     <row r="210" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C210" s="87"/>
-      <c r="D210" s="88"/>
-      <c r="E210" s="88"/>
-      <c r="F210" s="88"/>
-      <c r="G210" s="88"/>
-      <c r="H210" s="88"/>
-      <c r="I210" s="88"/>
-      <c r="J210" s="88"/>
-      <c r="K210" s="88"/>
-      <c r="L210" s="89"/>
+      <c r="C210" s="97"/>
+      <c r="D210" s="98"/>
+      <c r="E210" s="98"/>
+      <c r="F210" s="98"/>
+      <c r="G210" s="98"/>
+      <c r="H210" s="98"/>
+      <c r="I210" s="98"/>
+      <c r="J210" s="98"/>
+      <c r="K210" s="98"/>
+      <c r="L210" s="99"/>
     </row>
     <row r="211" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="212" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="213" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="50">
+      <c r="B213" s="57">
         <v>20</v>
       </c>
-      <c r="C213" s="66" t="s">
+      <c r="C213" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="D213" s="67"/>
-      <c r="E213" s="67"/>
-      <c r="F213" s="67"/>
-      <c r="G213" s="67"/>
-      <c r="H213" s="67"/>
-      <c r="I213" s="67"/>
-      <c r="J213" s="67"/>
-      <c r="K213" s="68"/>
-      <c r="L213" s="69"/>
+      <c r="D213" s="73"/>
+      <c r="E213" s="73"/>
+      <c r="F213" s="73"/>
+      <c r="G213" s="73"/>
+      <c r="H213" s="73"/>
+      <c r="I213" s="73"/>
+      <c r="J213" s="73"/>
+      <c r="K213" s="74"/>
+      <c r="L213" s="75"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C214" s="70" t="s">
+      <c r="C214" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="D214" s="71"/>
-      <c r="E214" s="71"/>
-      <c r="F214" s="71"/>
-      <c r="G214" s="71"/>
-      <c r="H214" s="71"/>
-      <c r="I214" s="71"/>
-      <c r="J214" s="71"/>
-      <c r="K214" s="71"/>
-      <c r="L214" s="72"/>
+      <c r="D214" s="77"/>
+      <c r="E214" s="77"/>
+      <c r="F214" s="77"/>
+      <c r="G214" s="77"/>
+      <c r="H214" s="77"/>
+      <c r="I214" s="77"/>
+      <c r="J214" s="77"/>
+      <c r="K214" s="77"/>
+      <c r="L214" s="78"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C215" s="33" t="s">
+      <c r="C215" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D215" s="73" t="s">
+      <c r="D215" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="E215" s="74"/>
-      <c r="F215" s="75" t="s">
+      <c r="E215" s="86"/>
+      <c r="F215" s="87" t="s">
         <v>155</v>
       </c>
-      <c r="G215" s="75"/>
-      <c r="H215" s="76"/>
-      <c r="I215" s="34" t="s">
+      <c r="G215" s="87"/>
+      <c r="H215" s="88"/>
+      <c r="I215" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J215" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K215" s="77" t="s">
+      <c r="J215" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K215" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="L215" s="78"/>
+      <c r="L215" s="90"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C216" s="36" t="s">
+      <c r="C216" s="35" t="s">
         <v>179</v>
       </c>
       <c r="D216" s="79" t="s">
@@ -5683,56 +5692,52 @@
       </c>
       <c r="G216" s="81"/>
       <c r="H216" s="82"/>
-      <c r="I216" s="37" t="s">
+      <c r="I216" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="J216" s="38" t="s">
+      <c r="J216" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K216" s="83"/>
       <c r="L216" s="84"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C217" s="36" t="s">
-        <v>210</v>
-      </c>
+      <c r="C217" s="35"/>
       <c r="D217" s="79" t="s">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="E217" s="80"/>
       <c r="F217" s="81" t="s">
-        <v>133</v>
+        <v>243</v>
       </c>
       <c r="G217" s="81"/>
       <c r="H217" s="82"/>
-      <c r="I217" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="J217" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K217" s="83" t="s">
-        <v>195</v>
-      </c>
+      <c r="I217" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="J217" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="K217" s="83"/>
       <c r="L217" s="84"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C218" s="36" t="s">
-        <v>14</v>
+      <c r="C218" s="35" t="s">
+        <v>210</v>
       </c>
       <c r="D218" s="79" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E218" s="80"/>
       <c r="F218" s="81" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="G218" s="81"/>
       <c r="H218" s="82"/>
-      <c r="I218" s="37" t="s">
+      <c r="I218" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J218" s="38" t="s">
+      <c r="J218" s="37" t="s">
         <v>3</v>
       </c>
       <c r="K218" s="83" t="s">
@@ -5741,899 +5746,1215 @@
       <c r="L218" s="84"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C219" s="36"/>
+      <c r="C219" s="35" t="s">
+        <v>14</v>
+      </c>
       <c r="D219" s="79" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E219" s="80"/>
       <c r="F219" s="81" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="G219" s="81"/>
       <c r="H219" s="82"/>
-      <c r="I219" s="37" t="s">
+      <c r="I219" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J219" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K219" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="L219" s="84"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C220" s="35"/>
+      <c r="D220" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="E220" s="80"/>
+      <c r="F220" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="G220" s="81"/>
+      <c r="H220" s="82"/>
+      <c r="I220" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="J219" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K219" s="83"/>
-      <c r="L219" s="84"/>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A220" s="51"/>
-      <c r="C220" s="39" t="s">
+      <c r="J220" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K220" s="83"/>
+      <c r="L220" s="84"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" s="50"/>
+      <c r="C221" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D220" s="60" t="s">
+      <c r="D221" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="E220" s="61"/>
-      <c r="F220" s="62" t="s">
+      <c r="E221" s="64"/>
+      <c r="F221" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="G220" s="62"/>
-      <c r="H220" s="63"/>
-      <c r="I220" s="40" t="s">
+      <c r="G221" s="65"/>
+      <c r="H221" s="66"/>
+      <c r="I221" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J220" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K220" s="64" t="s">
+      <c r="J221" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K221" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="L220" s="65"/>
-    </row>
-    <row r="221" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C221" s="56" t="s">
+      <c r="L221" s="68"/>
+    </row>
+    <row r="222" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C222" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D221" s="57"/>
-      <c r="E221" s="57"/>
-      <c r="F221" s="57"/>
-      <c r="G221" s="57"/>
-      <c r="H221" s="57"/>
-      <c r="I221" s="57"/>
-      <c r="J221" s="57"/>
-      <c r="K221" s="57"/>
-      <c r="L221" s="58"/>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C222" s="28" t="s">
+      <c r="D222" s="70"/>
+      <c r="E222" s="70"/>
+      <c r="F222" s="70"/>
+      <c r="G222" s="70"/>
+      <c r="H222" s="70"/>
+      <c r="I222" s="70"/>
+      <c r="J222" s="70"/>
+      <c r="K222" s="70"/>
+      <c r="L222" s="71"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C223" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D222" s="85" t="s">
+      <c r="D223" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="E222" s="85"/>
-      <c r="F222" s="85"/>
-      <c r="G222" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="H222" s="85"/>
-      <c r="I222" s="85"/>
-      <c r="J222" s="85"/>
-      <c r="K222" s="8"/>
-      <c r="L222" s="22"/>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C223" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="D223" s="85" t="s">
-        <v>132</v>
-      </c>
-      <c r="E223" s="85"/>
-      <c r="F223" s="85"/>
+      <c r="E223" s="62"/>
+      <c r="F223" s="62"/>
       <c r="G223" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="H223" s="18"/>
-      <c r="I223" s="6"/>
-      <c r="J223" s="6"/>
-      <c r="K223" s="9"/>
-      <c r="L223" s="29"/>
+      <c r="H223" s="62"/>
+      <c r="I223" s="62"/>
+      <c r="J223" s="62"/>
+      <c r="K223" s="8"/>
+      <c r="L223" s="21"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C224" s="28" t="s">
+      <c r="C224" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="D224" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E224" s="62"/>
+      <c r="F224" s="62"/>
+      <c r="G224" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H224" s="17"/>
+      <c r="I224" s="6"/>
+      <c r="J224" s="6"/>
+      <c r="K224" s="9"/>
+      <c r="L224" s="28"/>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C225" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D224" s="85" t="s">
+      <c r="D225" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="E224" s="85"/>
-      <c r="F224" s="85"/>
-      <c r="G224" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H224" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="I224" s="85"/>
-      <c r="J224" s="85"/>
-      <c r="K224" s="9"/>
-      <c r="L224" s="29"/>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C225" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D225" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="E225" s="85"/>
-      <c r="F225" s="85"/>
+      <c r="E225" s="62"/>
+      <c r="F225" s="62"/>
       <c r="G225" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H225" s="85" t="s">
+      <c r="H225" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="I225" s="62"/>
+      <c r="J225" s="62"/>
+      <c r="K225" s="9"/>
+      <c r="L225" s="28"/>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C226" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D226" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="E226" s="62"/>
+      <c r="F226" s="62"/>
+      <c r="G226" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H226" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="I225" s="85"/>
-      <c r="J225" s="85"/>
-      <c r="K225" s="9"/>
-      <c r="L225" s="29"/>
-    </row>
-    <row r="226" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C226" s="23" t="s">
+      <c r="I226" s="62"/>
+      <c r="J226" s="62"/>
+      <c r="K226" s="9"/>
+      <c r="L226" s="28"/>
+    </row>
+    <row r="227" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C227" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D226" s="59" t="s">
+      <c r="D227" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="E226" s="59"/>
-      <c r="F226" s="59"/>
-      <c r="G226" s="24" t="s">
+      <c r="E227" s="61"/>
+      <c r="F227" s="61"/>
+      <c r="G227" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H226" s="59" t="s">
+      <c r="H227" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="I226" s="59"/>
-      <c r="J226" s="59"/>
-      <c r="K226" s="25"/>
-      <c r="L226" s="26"/>
-    </row>
-    <row r="227" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="228" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="229" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="117">
+      <c r="I227" s="61"/>
+      <c r="J227" s="61"/>
+      <c r="K227" s="24"/>
+      <c r="L227" s="25"/>
+    </row>
+    <row r="228" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="229" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="230" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="57">
         <v>21</v>
       </c>
-      <c r="C229" s="66" t="s">
+      <c r="C230" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="D229" s="67"/>
-      <c r="E229" s="67"/>
-      <c r="F229" s="67"/>
-      <c r="G229" s="67"/>
-      <c r="H229" s="67"/>
-      <c r="I229" s="67"/>
-      <c r="J229" s="67"/>
-      <c r="K229" s="68"/>
-      <c r="L229" s="69"/>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C230" s="70" t="s">
+      <c r="D230" s="73"/>
+      <c r="E230" s="73"/>
+      <c r="F230" s="73"/>
+      <c r="G230" s="73"/>
+      <c r="H230" s="73"/>
+      <c r="I230" s="73"/>
+      <c r="J230" s="73"/>
+      <c r="K230" s="74"/>
+      <c r="L230" s="75"/>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C231" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="D230" s="71"/>
-      <c r="E230" s="71"/>
-      <c r="F230" s="71"/>
-      <c r="G230" s="71"/>
-      <c r="H230" s="71"/>
-      <c r="I230" s="71"/>
-      <c r="J230" s="71"/>
-      <c r="K230" s="71"/>
-      <c r="L230" s="72"/>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A231" s="51"/>
-      <c r="C231" s="33" t="s">
+      <c r="D231" s="77"/>
+      <c r="E231" s="77"/>
+      <c r="F231" s="77"/>
+      <c r="G231" s="77"/>
+      <c r="H231" s="77"/>
+      <c r="I231" s="77"/>
+      <c r="J231" s="77"/>
+      <c r="K231" s="77"/>
+      <c r="L231" s="78"/>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A232" s="50"/>
+      <c r="C232" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D231" s="73" t="s">
+      <c r="D232" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="E231" s="74"/>
-      <c r="F231" s="75" t="s">
+      <c r="E232" s="86"/>
+      <c r="F232" s="87" t="s">
         <v>164</v>
       </c>
-      <c r="G231" s="75"/>
-      <c r="H231" s="76"/>
-      <c r="I231" s="34" t="s">
+      <c r="G232" s="87"/>
+      <c r="H232" s="88"/>
+      <c r="I232" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J231" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K231" s="77" t="s">
+      <c r="J232" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K232" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="L231" s="78"/>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A232" s="51"/>
-      <c r="C232" s="39"/>
-      <c r="D232" s="60" t="s">
+      <c r="L232" s="90"/>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A233" s="50"/>
+      <c r="C233" s="38"/>
+      <c r="D233" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="E232" s="61"/>
-      <c r="F232" s="62" t="s">
+      <c r="E233" s="64"/>
+      <c r="F233" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="G232" s="62"/>
-      <c r="H232" s="63"/>
-      <c r="I232" s="40" t="s">
+      <c r="G233" s="65"/>
+      <c r="H233" s="66"/>
+      <c r="I233" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J232" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K232" s="64"/>
-      <c r="L232" s="65"/>
-    </row>
-    <row r="233" spans="1:16" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="51"/>
-      <c r="C233" s="87"/>
-      <c r="D233" s="88"/>
-      <c r="E233" s="88"/>
-      <c r="F233" s="88"/>
-      <c r="G233" s="88"/>
-      <c r="H233" s="88"/>
-      <c r="I233" s="88"/>
-      <c r="J233" s="88"/>
-      <c r="K233" s="88"/>
-      <c r="L233" s="89"/>
-    </row>
-    <row r="234" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="51"/>
-    </row>
-    <row r="235" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="51"/>
-    </row>
-    <row r="236" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="51"/>
-      <c r="B236" s="50">
+      <c r="J233" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K233" s="67"/>
+      <c r="L233" s="68"/>
+    </row>
+    <row r="234" spans="1:16" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="50"/>
+      <c r="C234" s="97"/>
+      <c r="D234" s="98"/>
+      <c r="E234" s="98"/>
+      <c r="F234" s="98"/>
+      <c r="G234" s="98"/>
+      <c r="H234" s="98"/>
+      <c r="I234" s="98"/>
+      <c r="J234" s="98"/>
+      <c r="K234" s="98"/>
+      <c r="L234" s="99"/>
+    </row>
+    <row r="235" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="50"/>
+    </row>
+    <row r="236" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="50"/>
+    </row>
+    <row r="237" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="50"/>
+      <c r="B237" s="49">
         <v>22</v>
       </c>
-      <c r="C236" s="66" t="s">
+      <c r="C237" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="D236" s="67"/>
-      <c r="E236" s="67"/>
-      <c r="F236" s="67"/>
-      <c r="G236" s="67"/>
-      <c r="H236" s="67"/>
-      <c r="I236" s="67"/>
-      <c r="J236" s="67"/>
-      <c r="K236" s="68"/>
-      <c r="L236" s="69"/>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A237" s="51"/>
-      <c r="C237" s="70" t="s">
+      <c r="D237" s="73"/>
+      <c r="E237" s="73"/>
+      <c r="F237" s="73"/>
+      <c r="G237" s="73"/>
+      <c r="H237" s="73"/>
+      <c r="I237" s="73"/>
+      <c r="J237" s="73"/>
+      <c r="K237" s="74"/>
+      <c r="L237" s="75"/>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A238" s="50"/>
+      <c r="C238" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="D237" s="71"/>
-      <c r="E237" s="71"/>
-      <c r="F237" s="71"/>
-      <c r="G237" s="71"/>
-      <c r="H237" s="71"/>
-      <c r="I237" s="71"/>
-      <c r="J237" s="71"/>
-      <c r="K237" s="71"/>
-      <c r="L237" s="72"/>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A238" s="51"/>
-      <c r="C238" s="33" t="s">
+      <c r="D238" s="77"/>
+      <c r="E238" s="77"/>
+      <c r="F238" s="77"/>
+      <c r="G238" s="77"/>
+      <c r="H238" s="77"/>
+      <c r="I238" s="77"/>
+      <c r="J238" s="77"/>
+      <c r="K238" s="77"/>
+      <c r="L238" s="78"/>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A239" s="50"/>
+      <c r="C239" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D238" s="73" t="s">
+      <c r="D239" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="E238" s="74"/>
-      <c r="F238" s="75" t="s">
+      <c r="E239" s="86"/>
+      <c r="F239" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="G238" s="75"/>
-      <c r="H238" s="76"/>
-      <c r="I238" s="34" t="s">
+      <c r="G239" s="87"/>
+      <c r="H239" s="88"/>
+      <c r="I239" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J238" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K238" s="77" t="s">
+      <c r="J239" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K239" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="L238" s="78"/>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A239" s="51"/>
-      <c r="C239" s="36" t="s">
+      <c r="L239" s="90"/>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A240" s="50"/>
+      <c r="C240" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="D239" s="79" t="s">
+      <c r="D240" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="E239" s="80"/>
-      <c r="F239" s="81" t="s">
+      <c r="E240" s="80"/>
+      <c r="F240" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="G239" s="81"/>
-      <c r="H239" s="82"/>
-      <c r="I239" s="37" t="s">
+      <c r="G240" s="81"/>
+      <c r="H240" s="82"/>
+      <c r="I240" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J239" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K239" s="83" t="s">
+      <c r="J240" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K240" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="L239" s="84"/>
-      <c r="P239" t="s">
+      <c r="L240" s="84"/>
+      <c r="P240" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A240" s="51"/>
-      <c r="C240" s="39" t="s">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A241" s="50"/>
+      <c r="C241" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D240" s="60" t="s">
+      <c r="D241" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="E240" s="61"/>
-      <c r="F240" s="62" t="s">
+      <c r="E241" s="64"/>
+      <c r="F241" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="G240" s="62"/>
-      <c r="H240" s="63"/>
-      <c r="I240" s="40" t="s">
+      <c r="G241" s="65"/>
+      <c r="H241" s="66"/>
+      <c r="I241" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J240" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K240" s="64" t="s">
+      <c r="J241" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K241" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="L240" s="65"/>
-    </row>
-    <row r="241" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="51"/>
-      <c r="C241" s="56" t="s">
+      <c r="L241" s="68"/>
+    </row>
+    <row r="242" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="50"/>
+      <c r="C242" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D241" s="57"/>
-      <c r="E241" s="57"/>
-      <c r="F241" s="57"/>
-      <c r="G241" s="57"/>
-      <c r="H241" s="57"/>
-      <c r="I241" s="57"/>
-      <c r="J241" s="57"/>
-      <c r="K241" s="57"/>
-      <c r="L241" s="58"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A242" s="51"/>
-      <c r="C242" s="28" t="s">
+      <c r="D242" s="70"/>
+      <c r="E242" s="70"/>
+      <c r="F242" s="70"/>
+      <c r="G242" s="70"/>
+      <c r="H242" s="70"/>
+      <c r="I242" s="70"/>
+      <c r="J242" s="70"/>
+      <c r="K242" s="70"/>
+      <c r="L242" s="71"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A243" s="50"/>
+      <c r="C243" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D242" s="85" t="s">
+      <c r="D243" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="E242" s="85"/>
-      <c r="F242" s="85"/>
-      <c r="G242" s="5" t="s">
+      <c r="E243" s="62"/>
+      <c r="F243" s="62"/>
+      <c r="G243" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="H242" s="85"/>
-      <c r="I242" s="85"/>
-      <c r="J242" s="85"/>
-      <c r="K242" s="9"/>
-      <c r="L242" s="29"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A243" s="51"/>
-      <c r="C243" s="28" t="s">
+      <c r="H243" s="62"/>
+      <c r="I243" s="62"/>
+      <c r="J243" s="62"/>
+      <c r="K243" s="9"/>
+      <c r="L243" s="28"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A244" s="50"/>
+      <c r="C244" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D243" s="85" t="s">
+      <c r="D244" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="E243" s="85"/>
-      <c r="F243" s="85"/>
-      <c r="G243" s="5" t="s">
+      <c r="E244" s="62"/>
+      <c r="F244" s="62"/>
+      <c r="G244" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H243" s="85" t="s">
+      <c r="H244" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="I243" s="85"/>
-      <c r="J243" s="85"/>
-      <c r="K243" s="9"/>
-      <c r="L243" s="29"/>
-    </row>
-    <row r="244" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="51"/>
-      <c r="C244" s="23" t="s">
+      <c r="I244" s="62"/>
+      <c r="J244" s="62"/>
+      <c r="K244" s="9"/>
+      <c r="L244" s="28"/>
+    </row>
+    <row r="245" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="50"/>
+      <c r="C245" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D244" s="59" t="s">
+      <c r="D245" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="E244" s="59"/>
-      <c r="F244" s="59"/>
-      <c r="G244" s="24" t="s">
+      <c r="E245" s="61"/>
+      <c r="F245" s="61"/>
+      <c r="G245" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H244" s="59" t="s">
+      <c r="H245" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="I244" s="59"/>
-      <c r="J244" s="59"/>
-      <c r="K244" s="25"/>
-      <c r="L244" s="26"/>
-    </row>
-    <row r="245" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="51"/>
-    </row>
-    <row r="246" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="51"/>
-    </row>
-    <row r="247" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="51"/>
-      <c r="B247" s="50">
+      <c r="I245" s="61"/>
+      <c r="J245" s="61"/>
+      <c r="K245" s="24"/>
+      <c r="L245" s="25"/>
+    </row>
+    <row r="246" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="50"/>
+    </row>
+    <row r="247" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="50"/>
+    </row>
+    <row r="248" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="50"/>
+      <c r="B248" s="49">
         <v>23</v>
       </c>
-      <c r="C247" s="66" t="s">
+      <c r="C248" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="D247" s="67"/>
-      <c r="E247" s="67"/>
-      <c r="F247" s="67"/>
-      <c r="G247" s="67"/>
-      <c r="H247" s="67"/>
-      <c r="I247" s="67"/>
-      <c r="J247" s="67"/>
-      <c r="K247" s="68"/>
-      <c r="L247" s="69"/>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A248" s="51"/>
-      <c r="C248" s="70" t="s">
+      <c r="D248" s="73"/>
+      <c r="E248" s="73"/>
+      <c r="F248" s="73"/>
+      <c r="G248" s="73"/>
+      <c r="H248" s="73"/>
+      <c r="I248" s="73"/>
+      <c r="J248" s="73"/>
+      <c r="K248" s="74"/>
+      <c r="L248" s="75"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A249" s="50"/>
+      <c r="C249" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="D248" s="71"/>
-      <c r="E248" s="71"/>
-      <c r="F248" s="71"/>
-      <c r="G248" s="71"/>
-      <c r="H248" s="71"/>
-      <c r="I248" s="71"/>
-      <c r="J248" s="71"/>
-      <c r="K248" s="71"/>
-      <c r="L248" s="72"/>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A249" s="51"/>
-      <c r="C249" s="33" t="s">
+      <c r="D249" s="77"/>
+      <c r="E249" s="77"/>
+      <c r="F249" s="77"/>
+      <c r="G249" s="77"/>
+      <c r="H249" s="77"/>
+      <c r="I249" s="77"/>
+      <c r="J249" s="77"/>
+      <c r="K249" s="77"/>
+      <c r="L249" s="78"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250" s="50"/>
+      <c r="C250" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D249" s="73" t="s">
+      <c r="D250" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="E249" s="74"/>
-      <c r="F249" s="75" t="s">
+      <c r="E250" s="86"/>
+      <c r="F250" s="87" t="s">
         <v>168</v>
       </c>
-      <c r="G249" s="75"/>
-      <c r="H249" s="76"/>
-      <c r="I249" s="34" t="s">
+      <c r="G250" s="87"/>
+      <c r="H250" s="88"/>
+      <c r="I250" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J249" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K249" s="77" t="s">
+      <c r="J250" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K250" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="L249" s="78"/>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A250" s="51"/>
-      <c r="C250" s="39"/>
-      <c r="D250" s="60" t="s">
+      <c r="L250" s="90"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A251" s="50"/>
+      <c r="C251" s="38"/>
+      <c r="D251" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="E250" s="61"/>
-      <c r="F250" s="62" t="s">
+      <c r="E251" s="64"/>
+      <c r="F251" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="G250" s="62"/>
-      <c r="H250" s="63"/>
-      <c r="I250" s="40" t="s">
+      <c r="G251" s="65"/>
+      <c r="H251" s="66"/>
+      <c r="I251" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J250" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K250" s="64"/>
-      <c r="L250" s="65"/>
-    </row>
-    <row r="251" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="51"/>
-      <c r="C251" s="87"/>
-      <c r="D251" s="88"/>
-      <c r="E251" s="88"/>
-      <c r="F251" s="88"/>
-      <c r="G251" s="88"/>
-      <c r="H251" s="88"/>
-      <c r="I251" s="88"/>
-      <c r="J251" s="88"/>
-      <c r="K251" s="88"/>
-      <c r="L251" s="89"/>
-    </row>
-    <row r="252" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="51"/>
-    </row>
-    <row r="253" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="51"/>
-    </row>
-    <row r="254" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="51"/>
-      <c r="B254" s="50">
+      <c r="J251" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K251" s="67"/>
+      <c r="L251" s="68"/>
+    </row>
+    <row r="252" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="50"/>
+      <c r="C252" s="97"/>
+      <c r="D252" s="98"/>
+      <c r="E252" s="98"/>
+      <c r="F252" s="98"/>
+      <c r="G252" s="98"/>
+      <c r="H252" s="98"/>
+      <c r="I252" s="98"/>
+      <c r="J252" s="98"/>
+      <c r="K252" s="98"/>
+      <c r="L252" s="99"/>
+    </row>
+    <row r="253" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="50"/>
+    </row>
+    <row r="254" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="50"/>
+    </row>
+    <row r="255" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="50"/>
+      <c r="B255" s="49">
         <v>24</v>
       </c>
-      <c r="C254" s="66" t="s">
+      <c r="C255" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="D254" s="67"/>
-      <c r="E254" s="67"/>
-      <c r="F254" s="67"/>
-      <c r="G254" s="67"/>
-      <c r="H254" s="67"/>
-      <c r="I254" s="67"/>
-      <c r="J254" s="67"/>
-      <c r="K254" s="68"/>
-      <c r="L254" s="69"/>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A255" s="51"/>
-      <c r="C255" s="70" t="s">
+      <c r="D255" s="73"/>
+      <c r="E255" s="73"/>
+      <c r="F255" s="73"/>
+      <c r="G255" s="73"/>
+      <c r="H255" s="73"/>
+      <c r="I255" s="73"/>
+      <c r="J255" s="73"/>
+      <c r="K255" s="74"/>
+      <c r="L255" s="75"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A256" s="50"/>
+      <c r="C256" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="D255" s="71"/>
-      <c r="E255" s="71"/>
-      <c r="F255" s="71"/>
-      <c r="G255" s="71"/>
-      <c r="H255" s="71"/>
-      <c r="I255" s="71"/>
-      <c r="J255" s="71"/>
-      <c r="K255" s="71"/>
-      <c r="L255" s="72"/>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A256" s="51"/>
-      <c r="C256" s="33" t="s">
+      <c r="D256" s="77"/>
+      <c r="E256" s="77"/>
+      <c r="F256" s="77"/>
+      <c r="G256" s="77"/>
+      <c r="H256" s="77"/>
+      <c r="I256" s="77"/>
+      <c r="J256" s="77"/>
+      <c r="K256" s="77"/>
+      <c r="L256" s="78"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A257" s="50"/>
+      <c r="C257" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D256" s="73" t="s">
+      <c r="D257" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="E256" s="74"/>
-      <c r="F256" s="75" t="s">
+      <c r="E257" s="86"/>
+      <c r="F257" s="87" t="s">
         <v>155</v>
       </c>
-      <c r="G256" s="75"/>
-      <c r="H256" s="76"/>
-      <c r="I256" s="34" t="s">
+      <c r="G257" s="87"/>
+      <c r="H257" s="88"/>
+      <c r="I257" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J256" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K256" s="77" t="s">
+      <c r="J257" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K257" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="L256" s="78"/>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A257" s="51"/>
-      <c r="C257" s="36" t="s">
+      <c r="L257" s="90"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A258" s="50"/>
+      <c r="C258" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="D257" s="79" t="s">
+      <c r="D258" s="79" t="s">
         <v>181</v>
-      </c>
-      <c r="E257" s="80"/>
-      <c r="F257" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="G257" s="81"/>
-      <c r="H257" s="82"/>
-      <c r="I257" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="J257" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K257" s="83"/>
-      <c r="L257" s="84"/>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A258" s="51"/>
-      <c r="C258" s="36"/>
-      <c r="D258" s="79" t="s">
-        <v>192</v>
       </c>
       <c r="E258" s="80"/>
       <c r="F258" s="81" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G258" s="81"/>
       <c r="H258" s="82"/>
-      <c r="I258" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="J258" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K258" s="83" t="s">
-        <v>196</v>
-      </c>
+      <c r="I258" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="J258" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K258" s="83"/>
       <c r="L258" s="84"/>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A259" s="51"/>
-      <c r="C259" s="36"/>
+      <c r="A259" s="50"/>
+      <c r="C259" s="35"/>
       <c r="D259" s="79" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E259" s="80"/>
       <c r="F259" s="81" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="G259" s="81"/>
       <c r="H259" s="82"/>
-      <c r="I259" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="J259" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K259" s="83"/>
+      <c r="I259" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="J259" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K259" s="83" t="s">
+        <v>196</v>
+      </c>
       <c r="L259" s="84"/>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A260" s="51"/>
-      <c r="C260" s="36"/>
+      <c r="A260" s="50"/>
+      <c r="C260" s="35"/>
       <c r="D260" s="79" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E260" s="80"/>
       <c r="F260" s="81" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="G260" s="81"/>
       <c r="H260" s="82"/>
-      <c r="I260" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="J260" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K260" s="83" t="s">
-        <v>196</v>
-      </c>
+      <c r="I260" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="J260" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K260" s="83"/>
       <c r="L260" s="84"/>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A261" s="51"/>
-      <c r="C261" s="36"/>
+      <c r="A261" s="50"/>
+      <c r="C261" s="35"/>
       <c r="D261" s="79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E261" s="80"/>
       <c r="F261" s="81" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="G261" s="81"/>
       <c r="H261" s="82"/>
-      <c r="I261" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="J261" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K261" s="83"/>
+      <c r="I261" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="J261" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K261" s="83" t="s">
+        <v>196</v>
+      </c>
       <c r="L261" s="84"/>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A262" s="51"/>
-      <c r="C262" s="36"/>
+      <c r="A262" s="50"/>
+      <c r="C262" s="35"/>
       <c r="D262" s="79" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E262" s="80"/>
       <c r="F262" s="81" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="G262" s="81"/>
       <c r="H262" s="82"/>
-      <c r="I262" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="J262" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K262" s="83" t="s">
-        <v>196</v>
-      </c>
+      <c r="I262" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="J262" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K262" s="83"/>
       <c r="L262" s="84"/>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A263" s="51"/>
-      <c r="C263" s="36"/>
+      <c r="A263" s="50"/>
+      <c r="C263" s="35"/>
       <c r="D263" s="79" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E263" s="80"/>
       <c r="F263" s="81" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G263" s="81"/>
       <c r="H263" s="82"/>
-      <c r="I263" s="37" t="s">
+      <c r="I263" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="J263" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K263" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="L263" s="84"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A264" s="50"/>
+      <c r="C264" s="35"/>
+      <c r="D264" s="79" t="s">
+        <v>200</v>
+      </c>
+      <c r="E264" s="80"/>
+      <c r="F264" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="G264" s="81"/>
+      <c r="H264" s="82"/>
+      <c r="I264" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="J263" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K263" s="83"/>
-      <c r="L263" s="84"/>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A264" s="51"/>
-      <c r="C264" s="39"/>
-      <c r="D264" s="60" t="s">
+      <c r="J264" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K264" s="83"/>
+      <c r="L264" s="84"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A265" s="50"/>
+      <c r="C265" s="38"/>
+      <c r="D265" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="E264" s="61"/>
-      <c r="F264" s="62" t="s">
+      <c r="E265" s="64"/>
+      <c r="F265" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="G264" s="62"/>
-      <c r="H264" s="63"/>
-      <c r="I264" s="40" t="s">
+      <c r="G265" s="65"/>
+      <c r="H265" s="66"/>
+      <c r="I265" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="J264" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K264" s="64" t="s">
+      <c r="J265" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K265" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="L264" s="65"/>
-    </row>
-    <row r="265" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="51"/>
-      <c r="C265" s="56" t="s">
+      <c r="L265" s="68"/>
+    </row>
+    <row r="266" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="50"/>
+      <c r="C266" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D265" s="57"/>
-      <c r="E265" s="57"/>
-      <c r="F265" s="57"/>
-      <c r="G265" s="57"/>
-      <c r="H265" s="57"/>
-      <c r="I265" s="57"/>
-      <c r="J265" s="57"/>
-      <c r="K265" s="57"/>
-      <c r="L265" s="58"/>
-    </row>
-    <row r="266" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="51"/>
-      <c r="C266" s="23" t="s">
+      <c r="D266" s="70"/>
+      <c r="E266" s="70"/>
+      <c r="F266" s="70"/>
+      <c r="G266" s="70"/>
+      <c r="H266" s="70"/>
+      <c r="I266" s="70"/>
+      <c r="J266" s="70"/>
+      <c r="K266" s="70"/>
+      <c r="L266" s="71"/>
+    </row>
+    <row r="267" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="50"/>
+      <c r="C267" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="D266" s="59" t="s">
+      <c r="D267" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="E266" s="59"/>
-      <c r="F266" s="59"/>
-      <c r="G266" s="24" t="s">
+      <c r="E267" s="61"/>
+      <c r="F267" s="61"/>
+      <c r="G267" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="H266" s="59"/>
-      <c r="I266" s="59"/>
-      <c r="J266" s="59"/>
-      <c r="K266" s="25"/>
-      <c r="L266" s="26"/>
-    </row>
-    <row r="267" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="51"/>
+      <c r="H267" s="61"/>
+      <c r="I267" s="61"/>
+      <c r="J267" s="61"/>
+      <c r="K267" s="24"/>
+      <c r="L267" s="25"/>
+    </row>
+    <row r="268" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="463">
-    <mergeCell ref="C95:L95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="H136:J136"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="C35:L35"/>
-    <mergeCell ref="C36:L36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="C43:L43"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C40:L40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="K38:L38"/>
+  <mergeCells count="466">
+    <mergeCell ref="C177:L177"/>
+    <mergeCell ref="D178:F178"/>
+    <mergeCell ref="H178:J178"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="F176:H176"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="C172:L172"/>
+    <mergeCell ref="C173:L173"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="F174:H174"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="F175:H175"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="D267:F267"/>
+    <mergeCell ref="H267:J267"/>
+    <mergeCell ref="F263:H263"/>
+    <mergeCell ref="K263:L263"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="D225:F225"/>
+    <mergeCell ref="H225:J225"/>
+    <mergeCell ref="D224:F224"/>
+    <mergeCell ref="K259:L259"/>
+    <mergeCell ref="K260:L260"/>
+    <mergeCell ref="K261:L261"/>
+    <mergeCell ref="K264:L264"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="F261:H261"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="F264:H264"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="F260:H260"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="C266:L266"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="F265:H265"/>
+    <mergeCell ref="K265:L265"/>
+    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="K262:L262"/>
+    <mergeCell ref="C255:L255"/>
+    <mergeCell ref="C256:L256"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="F257:H257"/>
+    <mergeCell ref="K257:L257"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="F258:H258"/>
+    <mergeCell ref="K258:L258"/>
+    <mergeCell ref="D245:F245"/>
+    <mergeCell ref="H245:J245"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="F239:H239"/>
+    <mergeCell ref="D243:F243"/>
+    <mergeCell ref="H243:J243"/>
+    <mergeCell ref="C242:L242"/>
+    <mergeCell ref="D244:F244"/>
+    <mergeCell ref="H244:J244"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="F241:H241"/>
+    <mergeCell ref="K241:L241"/>
+    <mergeCell ref="K240:L240"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="F240:H240"/>
+    <mergeCell ref="K239:L239"/>
+    <mergeCell ref="C237:L237"/>
+    <mergeCell ref="C238:L238"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="F166:H166"/>
+    <mergeCell ref="K166:L166"/>
+    <mergeCell ref="C167:L167"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="H168:J168"/>
+    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="F233:H233"/>
+    <mergeCell ref="K233:L233"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="F216:H216"/>
+    <mergeCell ref="K216:L216"/>
+    <mergeCell ref="C230:L230"/>
+    <mergeCell ref="C222:L222"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="H223:J223"/>
+    <mergeCell ref="D226:F226"/>
+    <mergeCell ref="H226:J226"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="H227:J227"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="F221:H221"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="F251:H251"/>
+    <mergeCell ref="K251:L251"/>
+    <mergeCell ref="C252:L252"/>
+    <mergeCell ref="C156:L156"/>
+    <mergeCell ref="C157:L157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="C234:L234"/>
+    <mergeCell ref="C248:L248"/>
+    <mergeCell ref="C249:L249"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="F250:H250"/>
+    <mergeCell ref="K250:L250"/>
+    <mergeCell ref="C231:L231"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="F232:H232"/>
+    <mergeCell ref="K232:L232"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="F165:H165"/>
+    <mergeCell ref="K165:L165"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="K221:L221"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="F219:H219"/>
+    <mergeCell ref="K219:L219"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="F220:H220"/>
+    <mergeCell ref="K220:L220"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="F215:H215"/>
+    <mergeCell ref="K215:L215"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="F218:H218"/>
+    <mergeCell ref="K218:L218"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="F217:H217"/>
+    <mergeCell ref="K217:L217"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="F152:H152"/>
+    <mergeCell ref="K152:L152"/>
+    <mergeCell ref="C153:L153"/>
+    <mergeCell ref="C213:L213"/>
+    <mergeCell ref="C214:L214"/>
+    <mergeCell ref="C210:L210"/>
+    <mergeCell ref="C149:L149"/>
+    <mergeCell ref="C150:L150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="F151:H151"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="C206:L206"/>
+    <mergeCell ref="C207:L207"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="F208:H208"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="F209:H209"/>
+    <mergeCell ref="K209:L209"/>
+    <mergeCell ref="D202:F202"/>
+    <mergeCell ref="H202:J202"/>
+    <mergeCell ref="D203:F203"/>
+    <mergeCell ref="H203:J203"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="F199:H199"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="F198:H198"/>
+    <mergeCell ref="K198:L198"/>
+    <mergeCell ref="C200:L200"/>
+    <mergeCell ref="D201:F201"/>
+    <mergeCell ref="H201:J201"/>
+    <mergeCell ref="K199:L199"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="F196:H196"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="F197:H197"/>
+    <mergeCell ref="K197:L197"/>
+    <mergeCell ref="D191:F191"/>
+    <mergeCell ref="H191:J191"/>
+    <mergeCell ref="C194:L194"/>
+    <mergeCell ref="C195:L195"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="F187:H187"/>
+    <mergeCell ref="K187:L187"/>
+    <mergeCell ref="D190:F190"/>
+    <mergeCell ref="H190:J190"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="F188:H188"/>
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="C189:L189"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="F183:H183"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="F186:H186"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="F184:H184"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="F185:H185"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="C146:L146"/>
+    <mergeCell ref="C181:L181"/>
+    <mergeCell ref="C182:L182"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="F164:H164"/>
+    <mergeCell ref="K164:L164"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="F162:H162"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="F163:H163"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="D169:F169"/>
+    <mergeCell ref="H169:J169"/>
+    <mergeCell ref="C141:L141"/>
+    <mergeCell ref="C142:L142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="K143:L143"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="K144:L144"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="F130:H130"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="C134:L134"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="H135:J135"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="K133:L133"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="C119:L119"/>
+    <mergeCell ref="C120:L120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="C108:L108"/>
+    <mergeCell ref="C109:L109"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="C104:L104"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="C113:L113"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="C99:L99"/>
+    <mergeCell ref="C100:L100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="C85:L85"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="C90:L90"/>
+    <mergeCell ref="C91:L91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="C75:L75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="C79:L79"/>
+    <mergeCell ref="C80:L80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="C70:L70"/>
+    <mergeCell ref="C71:L71"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="C66:L66"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="C60:L60"/>
+    <mergeCell ref="C61:L61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="C57:L57"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="K18:L18"/>
@@ -6658,370 +6979,81 @@
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:H46"/>
     <mergeCell ref="K46:L46"/>
-    <mergeCell ref="C60:L60"/>
-    <mergeCell ref="C61:L61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="C57:L57"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="C70:L70"/>
-    <mergeCell ref="C71:L71"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="C66:L66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="C75:L75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="C79:L79"/>
-    <mergeCell ref="C80:L80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="C85:L85"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="C90:L90"/>
-    <mergeCell ref="C91:L91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="C99:L99"/>
-    <mergeCell ref="C100:L100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="C104:L104"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="C113:L113"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="C108:L108"/>
-    <mergeCell ref="C109:L109"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:H112"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="K124:L124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="H115:J115"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="H116:J116"/>
-    <mergeCell ref="C119:L119"/>
-    <mergeCell ref="C120:L120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="C134:L134"/>
-    <mergeCell ref="D135:F135"/>
-    <mergeCell ref="H135:J135"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="K131:L131"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="K133:L133"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="F126:H126"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="F132:H132"/>
-    <mergeCell ref="K132:L132"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="K129:L129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="F130:H130"/>
-    <mergeCell ref="K130:L130"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="C141:L141"/>
-    <mergeCell ref="C142:L142"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="K143:L143"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="K144:L144"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="H138:J138"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="K145:L145"/>
-    <mergeCell ref="C146:L146"/>
-    <mergeCell ref="C181:L181"/>
-    <mergeCell ref="C182:L182"/>
-    <mergeCell ref="F159:H159"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="F160:H160"/>
-    <mergeCell ref="K160:L160"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="F164:H164"/>
-    <mergeCell ref="K164:L164"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="F162:H162"/>
-    <mergeCell ref="K162:L162"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="F163:H163"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="D169:F169"/>
-    <mergeCell ref="H169:J169"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="F183:H183"/>
-    <mergeCell ref="K183:L183"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="F186:H186"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="F184:H184"/>
-    <mergeCell ref="K184:L184"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="F185:H185"/>
-    <mergeCell ref="K185:L185"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="F187:H187"/>
-    <mergeCell ref="K187:L187"/>
-    <mergeCell ref="D190:F190"/>
-    <mergeCell ref="H190:J190"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="F188:H188"/>
-    <mergeCell ref="K188:L188"/>
-    <mergeCell ref="C189:L189"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="F196:H196"/>
-    <mergeCell ref="K196:L196"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="F197:H197"/>
-    <mergeCell ref="K197:L197"/>
-    <mergeCell ref="D191:F191"/>
-    <mergeCell ref="H191:J191"/>
-    <mergeCell ref="C194:L194"/>
-    <mergeCell ref="C195:L195"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="F199:H199"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="F198:H198"/>
-    <mergeCell ref="K198:L198"/>
-    <mergeCell ref="C200:L200"/>
-    <mergeCell ref="D201:F201"/>
-    <mergeCell ref="H201:J201"/>
-    <mergeCell ref="K199:L199"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="F152:H152"/>
-    <mergeCell ref="K152:L152"/>
-    <mergeCell ref="C153:L153"/>
-    <mergeCell ref="C213:L213"/>
-    <mergeCell ref="C214:L214"/>
-    <mergeCell ref="C210:L210"/>
-    <mergeCell ref="C149:L149"/>
-    <mergeCell ref="C150:L150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="F151:H151"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="C206:L206"/>
-    <mergeCell ref="C207:L207"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="F208:H208"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="F209:H209"/>
-    <mergeCell ref="K209:L209"/>
-    <mergeCell ref="D202:F202"/>
-    <mergeCell ref="H202:J202"/>
-    <mergeCell ref="D203:F203"/>
-    <mergeCell ref="H203:J203"/>
-    <mergeCell ref="K220:L220"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="F218:H218"/>
-    <mergeCell ref="K218:L218"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="F219:H219"/>
-    <mergeCell ref="K219:L219"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="F215:H215"/>
-    <mergeCell ref="K215:L215"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="F217:H217"/>
-    <mergeCell ref="K217:L217"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="F250:H250"/>
-    <mergeCell ref="K250:L250"/>
-    <mergeCell ref="C251:L251"/>
-    <mergeCell ref="C156:L156"/>
-    <mergeCell ref="C157:L157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="F158:H158"/>
-    <mergeCell ref="K158:L158"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="C233:L233"/>
-    <mergeCell ref="C247:L247"/>
-    <mergeCell ref="C248:L248"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="F249:H249"/>
-    <mergeCell ref="K249:L249"/>
-    <mergeCell ref="C230:L230"/>
-    <mergeCell ref="D231:E231"/>
-    <mergeCell ref="F231:H231"/>
-    <mergeCell ref="K231:L231"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="F165:H165"/>
-    <mergeCell ref="K165:L165"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="C236:L236"/>
-    <mergeCell ref="C237:L237"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="F166:H166"/>
-    <mergeCell ref="K166:L166"/>
-    <mergeCell ref="C167:L167"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="H168:J168"/>
-    <mergeCell ref="D232:E232"/>
-    <mergeCell ref="F232:H232"/>
-    <mergeCell ref="K232:L232"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="F216:H216"/>
-    <mergeCell ref="K216:L216"/>
-    <mergeCell ref="C229:L229"/>
-    <mergeCell ref="C221:L221"/>
-    <mergeCell ref="D222:F222"/>
-    <mergeCell ref="H222:J222"/>
-    <mergeCell ref="D225:F225"/>
-    <mergeCell ref="H225:J225"/>
-    <mergeCell ref="D226:F226"/>
-    <mergeCell ref="H226:J226"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="F220:H220"/>
-    <mergeCell ref="D244:F244"/>
-    <mergeCell ref="H244:J244"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="F238:H238"/>
-    <mergeCell ref="D242:F242"/>
-    <mergeCell ref="H242:J242"/>
-    <mergeCell ref="C241:L241"/>
-    <mergeCell ref="D243:F243"/>
-    <mergeCell ref="H243:J243"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="F240:H240"/>
-    <mergeCell ref="K240:L240"/>
-    <mergeCell ref="K239:L239"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="F239:H239"/>
-    <mergeCell ref="K238:L238"/>
-    <mergeCell ref="F264:H264"/>
-    <mergeCell ref="K264:L264"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="F261:H261"/>
-    <mergeCell ref="K261:L261"/>
-    <mergeCell ref="C254:L254"/>
-    <mergeCell ref="C255:L255"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="F256:H256"/>
-    <mergeCell ref="K256:L256"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="F257:H257"/>
-    <mergeCell ref="K257:L257"/>
-    <mergeCell ref="D266:F266"/>
-    <mergeCell ref="H266:J266"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="K262:L262"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="H137:J137"/>
-    <mergeCell ref="D224:F224"/>
-    <mergeCell ref="H224:J224"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="K258:L258"/>
-    <mergeCell ref="K259:L259"/>
-    <mergeCell ref="K260:L260"/>
-    <mergeCell ref="K263:L263"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="F260:H260"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="F263:H263"/>
-    <mergeCell ref="D262:E262"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="F258:H258"/>
-    <mergeCell ref="C265:L265"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="C177:L177"/>
-    <mergeCell ref="D178:F178"/>
-    <mergeCell ref="H178:J178"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="F176:H176"/>
-    <mergeCell ref="K176:L176"/>
-    <mergeCell ref="C172:L172"/>
-    <mergeCell ref="C173:L173"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="F174:H174"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="F175:H175"/>
-    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="C43:L43"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C40:L40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="C35:L35"/>
+    <mergeCell ref="C36:L36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C95:L95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="H136:J136"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:J30"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7030,7 +7062,7 @@
     <brk id="33" max="13" man="1"/>
     <brk id="106" max="13" man="1"/>
     <brk id="192" max="13" man="1"/>
-    <brk id="252" max="13" man="1"/>
+    <brk id="253" max="13" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/mammoth-tables-description.xlsx
+++ b/mammoth-tables-description.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Google Drive (sereprec@gmail.com)\CoderHouse - SQL\proyecto_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA5C639-3030-49D4-B62E-9598640DFE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDA2E36-1B3D-4B4D-9141-2796F8F48D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA2EB09C-6906-4C44-BFBB-5AF4F6908B77}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$N$267</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$N$268</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="244">
   <si>
     <t>Descripción de tablas</t>
   </si>
@@ -897,7 +897,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1638,11 +1638,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1777,17 +1803,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1797,15 +1826,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1824,6 +1844,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1834,41 +1864,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1883,27 +1887,54 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2221,10 +2252,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R268"/>
+  <dimension ref="A1:R269"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:L1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B185" workbookViewId="0">
+      <selection activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,20 +2276,20 @@
     <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="11"/>
       <c r="B1" s="48"/>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
       <c r="M1" s="48"/>
-      <c r="N1" s="118"/>
+      <c r="N1" s="59"/>
     </row>
     <row r="2" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="1"/>
@@ -2314,56 +2345,56 @@
       <c r="B6" s="49">
         <v>1</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="75"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="73"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="78"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="76"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="87" t="s">
+      <c r="E8" s="78"/>
+      <c r="F8" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="88"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
       <c r="I8" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="89" t="s">
+      <c r="K8" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="L8" s="90"/>
+      <c r="L8" s="82"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -2373,23 +2404,23 @@
       <c r="C9" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81" t="s">
+      <c r="E9" s="84"/>
+      <c r="F9" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="86"/>
       <c r="I9" s="36" t="s">
         <v>63</v>
       </c>
       <c r="J9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="88"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -2397,105 +2428,105 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C10" s="35"/>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81" t="s">
+      <c r="E10" s="84"/>
+      <c r="F10" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="82"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="86"/>
       <c r="I10" s="36" t="s">
         <v>24</v>
       </c>
       <c r="J10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="83"/>
-      <c r="L10" s="84"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="88"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C11" s="35"/>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81" t="s">
+      <c r="E11" s="84"/>
+      <c r="F11" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="82"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="86"/>
       <c r="I11" s="36" t="s">
         <v>24</v>
       </c>
       <c r="J11" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C12" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81" t="s">
+      <c r="E12" s="84"/>
+      <c r="F12" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="82"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="86"/>
       <c r="I12" s="36" t="s">
         <v>1</v>
       </c>
       <c r="J12" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="83" t="s">
+      <c r="K12" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="L12" s="84"/>
+      <c r="L12" s="88"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C13" s="35"/>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81" t="s">
+      <c r="E13" s="84"/>
+      <c r="F13" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="82"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
       <c r="I13" s="36" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="88"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C14" s="35"/>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81" t="s">
+      <c r="E14" s="84"/>
+      <c r="F14" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
       <c r="I14" s="36" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="37"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="84"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="88"/>
       <c r="N14" s="47"/>
       <c r="O14" s="31"/>
       <c r="P14" s="31"/>
@@ -2504,46 +2535,46 @@
       <c r="C15" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81" t="s">
+      <c r="E15" s="84"/>
+      <c r="F15" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="81"/>
-      <c r="H15" s="82"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
       <c r="I15" s="36" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="83"/>
-      <c r="L15" s="84"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="88"/>
       <c r="N15" s="31"/>
       <c r="O15" s="31"/>
       <c r="P15" s="31"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" s="35"/>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81" t="s">
+      <c r="E16" s="84"/>
+      <c r="F16" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="81"/>
-      <c r="H16" s="82"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
       <c r="I16" s="36" t="s">
         <v>216</v>
       </c>
       <c r="J16" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="83"/>
-      <c r="L16" s="84"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="88"/>
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
       <c r="P16" s="31"/>
@@ -2552,105 +2583,105 @@
       <c r="C17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="80"/>
-      <c r="F17" s="81" t="s">
+      <c r="E17" s="84"/>
+      <c r="F17" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86"/>
       <c r="I17" s="36" t="s">
         <v>1</v>
       </c>
       <c r="J17" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="83" t="s">
+      <c r="K17" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="L17" s="84"/>
+      <c r="L17" s="88"/>
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C18" s="35"/>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81" t="s">
+      <c r="E18" s="84"/>
+      <c r="F18" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="81"/>
-      <c r="H18" s="82"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
       <c r="I18" s="36" t="s">
         <v>66</v>
       </c>
       <c r="J18" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="83"/>
-      <c r="L18" s="84"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="88"/>
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
       <c r="P18" s="31"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C19" s="38"/>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65" t="s">
+      <c r="E19" s="65"/>
+      <c r="F19" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="65"/>
-      <c r="H19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
       <c r="I19" s="39" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K19" s="67" t="s">
+      <c r="K19" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="L19" s="68"/>
+      <c r="L19" s="69"/>
     </row>
     <row r="20" spans="2:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="71"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="62"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C21" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="93" t="s">
+      <c r="D21" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
       <c r="G21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="93" t="s">
+      <c r="H21" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
       <c r="K21" s="8"/>
       <c r="L21" s="21"/>
     </row>
@@ -2658,19 +2689,19 @@
       <c r="C22" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="61" t="s">
+      <c r="H22" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
       <c r="K22" s="24"/>
       <c r="L22" s="25"/>
     </row>
@@ -2680,108 +2711,108 @@
       <c r="B25" s="49">
         <v>2</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="75"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="73"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="78"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="76"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C27" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="85" t="s">
+      <c r="D27" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87" t="s">
+      <c r="E27" s="78"/>
+      <c r="F27" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="87"/>
-      <c r="H27" s="88"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="80"/>
       <c r="I27" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J27" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="89" t="s">
+      <c r="K27" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="L27" s="90"/>
+      <c r="L27" s="82"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="65" t="s">
+      <c r="E28" s="65"/>
+      <c r="F28" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="65"/>
-      <c r="H28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="39" t="s">
         <v>1</v>
       </c>
       <c r="J28" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K28" s="67" t="s">
+      <c r="K28" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="L28" s="68"/>
+      <c r="L28" s="69"/>
     </row>
     <row r="29" spans="2:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="96"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="117"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C30" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="93" t="s">
+      <c r="D30" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
       <c r="K30" s="8"/>
       <c r="L30" s="21"/>
     </row>
@@ -2789,19 +2820,19 @@
       <c r="C31" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="62" t="s">
+      <c r="D31" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
       <c r="G31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="62" t="s">
+      <c r="H31" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
       <c r="K31" s="9"/>
       <c r="L31" s="28"/>
     </row>
@@ -2809,19 +2840,19 @@
       <c r="C32" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="61" t="s">
+      <c r="H32" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
       <c r="K32" s="24"/>
       <c r="L32" s="25"/>
     </row>
@@ -2831,109 +2862,109 @@
       <c r="B35" s="49">
         <v>3</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="75"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="78"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="76"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C37" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="85" t="s">
+      <c r="D37" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="86"/>
-      <c r="F37" s="87" t="s">
+      <c r="E37" s="78"/>
+      <c r="F37" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="87"/>
-      <c r="H37" s="88"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="80"/>
       <c r="I37" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J37" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K37" s="89" t="s">
+      <c r="K37" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="L37" s="90"/>
+      <c r="L37" s="82"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="50"/>
       <c r="C38" s="35"/>
-      <c r="D38" s="79" t="s">
+      <c r="D38" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="80"/>
-      <c r="F38" s="81" t="s">
+      <c r="E38" s="84"/>
+      <c r="F38" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="81"/>
-      <c r="H38" s="82"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="86"/>
       <c r="I38" s="36" t="s">
         <v>26</v>
       </c>
       <c r="J38" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="83"/>
-      <c r="L38" s="84"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="88"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C39" s="38"/>
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="64"/>
-      <c r="F39" s="65" t="s">
+      <c r="E39" s="65"/>
+      <c r="F39" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="65"/>
-      <c r="H39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="67"/>
       <c r="I39" s="39" t="s">
         <v>50</v>
       </c>
       <c r="J39" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K39" s="67"/>
-      <c r="L39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="69"/>
     </row>
     <row r="40" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="97"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="98"/>
-      <c r="H40" s="98"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="98"/>
-      <c r="K40" s="98"/>
-      <c r="L40" s="99"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="93"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2941,108 +2972,108 @@
       <c r="B43" s="49">
         <v>4</v>
       </c>
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="75"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="73"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C44" s="76" t="s">
+      <c r="C44" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="78"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="76"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C45" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="85" t="s">
+      <c r="D45" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="86"/>
-      <c r="F45" s="87" t="s">
+      <c r="E45" s="78"/>
+      <c r="F45" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="G45" s="87"/>
-      <c r="H45" s="88"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="80"/>
       <c r="I45" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J45" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="89" t="s">
+      <c r="K45" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="L45" s="90"/>
+      <c r="L45" s="82"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C46" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="63" t="s">
+      <c r="D46" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="64"/>
-      <c r="F46" s="65" t="s">
+      <c r="E46" s="65"/>
+      <c r="F46" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G46" s="65"/>
-      <c r="H46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="67"/>
       <c r="I46" s="39" t="s">
         <v>1</v>
       </c>
       <c r="J46" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="67" t="s">
+      <c r="K46" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="L46" s="68"/>
+      <c r="L46" s="69"/>
     </row>
     <row r="47" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="94" t="s">
+      <c r="C47" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="95"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="96"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="116"/>
+      <c r="L47" s="117"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C48" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="93" t="s">
+      <c r="D48" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
       <c r="K48" s="8"/>
       <c r="L48" s="21"/>
     </row>
@@ -3050,19 +3081,19 @@
       <c r="C49" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="62" t="s">
+      <c r="D49" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
       <c r="G49" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H49" s="62" t="s">
+      <c r="H49" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="I49" s="62"/>
-      <c r="J49" s="62"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
       <c r="K49" s="9"/>
       <c r="L49" s="28"/>
     </row>
@@ -3070,19 +3101,19 @@
       <c r="C50" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="61" t="s">
+      <c r="D50" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
       <c r="G50" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H50" s="61" t="s">
+      <c r="H50" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
       <c r="K50" s="24"/>
       <c r="L50" s="25"/>
     </row>
@@ -3092,89 +3123,89 @@
       <c r="B53" s="57">
         <v>5</v>
       </c>
-      <c r="C53" s="72" t="s">
+      <c r="C53" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="75"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="73"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C54" s="76" t="s">
+      <c r="C54" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="78"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="76"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C55" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="85" t="s">
+      <c r="D55" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="86"/>
-      <c r="F55" s="87" t="s">
+      <c r="E55" s="78"/>
+      <c r="F55" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="G55" s="87"/>
-      <c r="H55" s="88"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="80"/>
       <c r="I55" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J55" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K55" s="89" t="s">
+      <c r="K55" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="L55" s="90"/>
+      <c r="L55" s="82"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="50"/>
       <c r="C56" s="38"/>
-      <c r="D56" s="63" t="s">
+      <c r="D56" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="64"/>
-      <c r="F56" s="65" t="s">
+      <c r="E56" s="65"/>
+      <c r="F56" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="G56" s="65"/>
-      <c r="H56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="67"/>
       <c r="I56" s="39" t="s">
         <v>25</v>
       </c>
       <c r="J56" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K56" s="67"/>
-      <c r="L56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="69"/>
     </row>
     <row r="57" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="97"/>
-      <c r="D57" s="98"/>
-      <c r="E57" s="98"/>
-      <c r="F57" s="98"/>
-      <c r="G57" s="98"/>
-      <c r="H57" s="98"/>
-      <c r="I57" s="98"/>
-      <c r="J57" s="98"/>
-      <c r="K57" s="98"/>
-      <c r="L57" s="99"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="92"/>
+      <c r="H57" s="92"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="92"/>
+      <c r="L57" s="93"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3182,155 +3213,155 @@
       <c r="B60" s="57">
         <v>6</v>
       </c>
-      <c r="C60" s="72" t="s">
+      <c r="C60" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="74"/>
-      <c r="L60" s="75"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="73"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C61" s="76" t="s">
+      <c r="C61" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="77"/>
-      <c r="G61" s="77"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="77"/>
-      <c r="J61" s="77"/>
-      <c r="K61" s="77"/>
-      <c r="L61" s="78"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="75"/>
+      <c r="J61" s="75"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="76"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C62" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="85" t="s">
+      <c r="D62" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="86"/>
-      <c r="F62" s="87" t="s">
+      <c r="E62" s="78"/>
+      <c r="F62" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="G62" s="87"/>
-      <c r="H62" s="88"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="80"/>
       <c r="I62" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J62" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="89" t="s">
+      <c r="K62" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="L62" s="90"/>
+      <c r="L62" s="82"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C63" s="35"/>
-      <c r="D63" s="79" t="s">
+      <c r="D63" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="E63" s="80"/>
-      <c r="F63" s="81" t="s">
+      <c r="E63" s="84"/>
+      <c r="F63" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="G63" s="81"/>
-      <c r="H63" s="82"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="86"/>
       <c r="I63" s="36" t="s">
         <v>238</v>
       </c>
       <c r="J63" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K63" s="83"/>
-      <c r="L63" s="84"/>
+      <c r="K63" s="87"/>
+      <c r="L63" s="88"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C64" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="79" t="s">
+      <c r="D64" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="80"/>
-      <c r="F64" s="81" t="s">
+      <c r="E64" s="84"/>
+      <c r="F64" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="G64" s="81"/>
-      <c r="H64" s="82"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="86"/>
       <c r="I64" s="36" t="s">
         <v>1</v>
       </c>
       <c r="J64" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K64" s="83" t="s">
+      <c r="K64" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="L64" s="84"/>
+      <c r="L64" s="88"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="50"/>
       <c r="C65" s="38"/>
-      <c r="D65" s="63" t="s">
+      <c r="D65" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="64"/>
-      <c r="F65" s="65" t="s">
+      <c r="E65" s="65"/>
+      <c r="F65" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="G65" s="65"/>
-      <c r="H65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="67"/>
       <c r="I65" s="39" t="s">
         <v>22</v>
       </c>
       <c r="J65" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K65" s="67" t="s">
+      <c r="K65" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="L65" s="68"/>
+      <c r="L65" s="69"/>
     </row>
     <row r="66" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="69" t="s">
+      <c r="C66" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="70"/>
-      <c r="I66" s="70"/>
-      <c r="J66" s="70"/>
-      <c r="K66" s="70"/>
-      <c r="L66" s="71"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="62"/>
     </row>
     <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C67" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="61" t="s">
+      <c r="D67" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
       <c r="G67" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H67" s="61" t="s">
+      <c r="H67" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="I67" s="61"/>
-      <c r="J67" s="61"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="63"/>
       <c r="K67" s="24"/>
       <c r="L67" s="25"/>
     </row>
@@ -3340,133 +3371,133 @@
       <c r="B70" s="57">
         <v>7</v>
       </c>
-      <c r="C70" s="72" t="s">
+      <c r="C70" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="73"/>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="73"/>
-      <c r="H70" s="73"/>
-      <c r="I70" s="73"/>
-      <c r="J70" s="73"/>
-      <c r="K70" s="74"/>
-      <c r="L70" s="75"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="71"/>
+      <c r="J70" s="71"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="73"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C71" s="76" t="s">
+      <c r="C71" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D71" s="77"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="77"/>
-      <c r="H71" s="77"/>
-      <c r="I71" s="77"/>
-      <c r="J71" s="77"/>
-      <c r="K71" s="77"/>
-      <c r="L71" s="78"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="75"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="75"/>
+      <c r="H71" s="75"/>
+      <c r="I71" s="75"/>
+      <c r="J71" s="75"/>
+      <c r="K71" s="75"/>
+      <c r="L71" s="76"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C72" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="85" t="s">
+      <c r="D72" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="86"/>
-      <c r="F72" s="87" t="s">
+      <c r="E72" s="78"/>
+      <c r="F72" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="G72" s="87"/>
-      <c r="H72" s="88"/>
+      <c r="G72" s="79"/>
+      <c r="H72" s="80"/>
       <c r="I72" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J72" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="89" t="s">
+      <c r="K72" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="L72" s="90"/>
+      <c r="L72" s="82"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="50"/>
       <c r="C73" s="35"/>
-      <c r="D73" s="79" t="s">
+      <c r="D73" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="E73" s="80"/>
-      <c r="F73" s="81" t="s">
+      <c r="E73" s="84"/>
+      <c r="F73" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="G73" s="81"/>
-      <c r="H73" s="82"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="86"/>
       <c r="I73" s="36" t="s">
         <v>25</v>
       </c>
       <c r="J73" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K73" s="83"/>
-      <c r="L73" s="84"/>
+      <c r="K73" s="87"/>
+      <c r="L73" s="88"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C74" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="63" t="s">
+      <c r="D74" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="E74" s="64"/>
-      <c r="F74" s="65" t="s">
+      <c r="E74" s="65"/>
+      <c r="F74" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="G74" s="65"/>
-      <c r="H74" s="66"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="67"/>
       <c r="I74" s="39" t="s">
         <v>1</v>
       </c>
       <c r="J74" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K74" s="67" t="s">
+      <c r="K74" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="L74" s="68"/>
+      <c r="L74" s="69"/>
     </row>
     <row r="75" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="69" t="s">
+      <c r="C75" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
-      <c r="I75" s="70"/>
-      <c r="J75" s="70"/>
-      <c r="K75" s="70"/>
-      <c r="L75" s="71"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="61"/>
+      <c r="K75" s="61"/>
+      <c r="L75" s="62"/>
     </row>
     <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C76" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="61" t="s">
+      <c r="D76" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
       <c r="G76" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H76" s="61" t="s">
+      <c r="H76" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="I76" s="61"/>
-      <c r="J76" s="61"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="63"/>
       <c r="K76" s="24"/>
       <c r="L76" s="25"/>
     </row>
@@ -3476,153 +3507,153 @@
       <c r="B79" s="57">
         <v>8</v>
       </c>
-      <c r="C79" s="72" t="s">
+      <c r="C79" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="D79" s="73"/>
-      <c r="E79" s="73"/>
-      <c r="F79" s="73"/>
-      <c r="G79" s="73"/>
-      <c r="H79" s="73"/>
-      <c r="I79" s="73"/>
-      <c r="J79" s="73"/>
-      <c r="K79" s="74"/>
-      <c r="L79" s="75"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="71"/>
+      <c r="I79" s="71"/>
+      <c r="J79" s="71"/>
+      <c r="K79" s="72"/>
+      <c r="L79" s="73"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C80" s="76" t="s">
+      <c r="C80" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="D80" s="77"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="77"/>
-      <c r="G80" s="77"/>
-      <c r="H80" s="77"/>
-      <c r="I80" s="77"/>
-      <c r="J80" s="77"/>
-      <c r="K80" s="77"/>
-      <c r="L80" s="78"/>
+      <c r="D80" s="75"/>
+      <c r="E80" s="75"/>
+      <c r="F80" s="75"/>
+      <c r="G80" s="75"/>
+      <c r="H80" s="75"/>
+      <c r="I80" s="75"/>
+      <c r="J80" s="75"/>
+      <c r="K80" s="75"/>
+      <c r="L80" s="76"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C81" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D81" s="85" t="s">
+      <c r="D81" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="E81" s="86"/>
-      <c r="F81" s="87" t="s">
+      <c r="E81" s="78"/>
+      <c r="F81" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="G81" s="87"/>
-      <c r="H81" s="88"/>
+      <c r="G81" s="79"/>
+      <c r="H81" s="80"/>
       <c r="I81" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J81" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="89" t="s">
+      <c r="K81" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="L81" s="90"/>
+      <c r="L81" s="82"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C82" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="D82" s="79" t="s">
+      <c r="D82" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="E82" s="80"/>
-      <c r="F82" s="81" t="s">
+      <c r="E82" s="84"/>
+      <c r="F82" s="85" t="s">
         <v>236</v>
       </c>
-      <c r="G82" s="81"/>
-      <c r="H82" s="82"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="86"/>
       <c r="I82" s="36" t="s">
         <v>235</v>
       </c>
       <c r="J82" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="K82" s="83"/>
-      <c r="L82" s="84"/>
+      <c r="K82" s="87"/>
+      <c r="L82" s="88"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="50"/>
       <c r="C83" s="35"/>
-      <c r="D83" s="79" t="s">
+      <c r="D83" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="E83" s="80"/>
-      <c r="F83" s="81" t="s">
+      <c r="E83" s="84"/>
+      <c r="F83" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="G83" s="81"/>
-      <c r="H83" s="82"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="86"/>
       <c r="I83" s="36" t="s">
         <v>25</v>
       </c>
       <c r="J83" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="83"/>
-      <c r="L83" s="84"/>
+      <c r="K83" s="87"/>
+      <c r="L83" s="88"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C84" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="100" t="s">
+      <c r="D84" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="E84" s="101"/>
-      <c r="F84" s="102" t="s">
+      <c r="E84" s="110"/>
+      <c r="F84" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="G84" s="102"/>
-      <c r="H84" s="103"/>
+      <c r="G84" s="111"/>
+      <c r="H84" s="112"/>
       <c r="I84" s="42" t="s">
         <v>1</v>
       </c>
       <c r="J84" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="K84" s="104" t="s">
+      <c r="K84" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="L84" s="105"/>
+      <c r="L84" s="114"/>
     </row>
     <row r="85" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="58" t="s">
+      <c r="C85" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="59"/>
-      <c r="J85" s="59"/>
-      <c r="K85" s="59"/>
-      <c r="L85" s="60"/>
+      <c r="D85" s="107"/>
+      <c r="E85" s="107"/>
+      <c r="F85" s="107"/>
+      <c r="G85" s="107"/>
+      <c r="H85" s="107"/>
+      <c r="I85" s="107"/>
+      <c r="J85" s="107"/>
+      <c r="K85" s="107"/>
+      <c r="L85" s="108"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C86" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D86" s="62" t="s">
+      <c r="D86" s="89" t="s">
         <v>237</v>
       </c>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
+      <c r="E86" s="89"/>
+      <c r="F86" s="89"/>
       <c r="G86" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="H86" s="62"/>
-      <c r="I86" s="62"/>
-      <c r="J86" s="62"/>
+      <c r="H86" s="89"/>
+      <c r="I86" s="89"/>
+      <c r="J86" s="89"/>
       <c r="K86" s="8"/>
       <c r="L86" s="21"/>
     </row>
@@ -3630,19 +3661,19 @@
       <c r="C87" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="61" t="s">
+      <c r="D87" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="E87" s="61"/>
-      <c r="F87" s="61"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
       <c r="G87" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H87" s="61" t="s">
+      <c r="H87" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="I87" s="61"/>
-      <c r="J87" s="61"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="63"/>
       <c r="K87" s="24"/>
       <c r="L87" s="25"/>
     </row>
@@ -3652,131 +3683,131 @@
       <c r="B90" s="57">
         <v>9</v>
       </c>
-      <c r="C90" s="72" t="s">
+      <c r="C90" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="D90" s="73"/>
-      <c r="E90" s="73"/>
-      <c r="F90" s="73"/>
-      <c r="G90" s="73"/>
-      <c r="H90" s="73"/>
-      <c r="I90" s="73"/>
-      <c r="J90" s="73"/>
-      <c r="K90" s="74"/>
-      <c r="L90" s="75"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="71"/>
+      <c r="I90" s="71"/>
+      <c r="J90" s="71"/>
+      <c r="K90" s="72"/>
+      <c r="L90" s="73"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C91" s="76" t="s">
+      <c r="C91" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="D91" s="77"/>
-      <c r="E91" s="77"/>
-      <c r="F91" s="77"/>
-      <c r="G91" s="77"/>
-      <c r="H91" s="77"/>
-      <c r="I91" s="77"/>
-      <c r="J91" s="77"/>
-      <c r="K91" s="77"/>
-      <c r="L91" s="78"/>
+      <c r="D91" s="75"/>
+      <c r="E91" s="75"/>
+      <c r="F91" s="75"/>
+      <c r="G91" s="75"/>
+      <c r="H91" s="75"/>
+      <c r="I91" s="75"/>
+      <c r="J91" s="75"/>
+      <c r="K91" s="75"/>
+      <c r="L91" s="76"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C92" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D92" s="85" t="s">
+      <c r="D92" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="E92" s="86"/>
-      <c r="F92" s="87" t="s">
+      <c r="E92" s="78"/>
+      <c r="F92" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="G92" s="87"/>
-      <c r="H92" s="88"/>
+      <c r="G92" s="79"/>
+      <c r="H92" s="80"/>
       <c r="I92" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J92" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K92" s="89" t="s">
+      <c r="K92" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="L92" s="90"/>
+      <c r="L92" s="82"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C93" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="D93" s="79" t="s">
+      <c r="D93" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="E93" s="80"/>
-      <c r="F93" s="81" t="s">
+      <c r="E93" s="84"/>
+      <c r="F93" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="G93" s="81"/>
-      <c r="H93" s="82"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="86"/>
       <c r="I93" s="36" t="s">
         <v>240</v>
       </c>
       <c r="J93" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="K93" s="83"/>
-      <c r="L93" s="84"/>
+      <c r="K93" s="87"/>
+      <c r="L93" s="88"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="50"/>
       <c r="C94" s="38"/>
-      <c r="D94" s="63" t="s">
+      <c r="D94" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="E94" s="64"/>
-      <c r="F94" s="65" t="s">
+      <c r="E94" s="65"/>
+      <c r="F94" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G94" s="65"/>
-      <c r="H94" s="66"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="67"/>
       <c r="I94" s="39" t="s">
         <v>24</v>
       </c>
       <c r="J94" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="67"/>
-      <c r="L94" s="68"/>
+      <c r="K94" s="68"/>
+      <c r="L94" s="69"/>
     </row>
     <row r="95" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="50"/>
-      <c r="C95" s="58" t="s">
+      <c r="C95" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="D95" s="59"/>
-      <c r="E95" s="59"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="59"/>
-      <c r="H95" s="59"/>
-      <c r="I95" s="59"/>
-      <c r="J95" s="59"/>
-      <c r="K95" s="59"/>
-      <c r="L95" s="60"/>
+      <c r="D95" s="107"/>
+      <c r="E95" s="107"/>
+      <c r="F95" s="107"/>
+      <c r="G95" s="107"/>
+      <c r="H95" s="107"/>
+      <c r="I95" s="107"/>
+      <c r="J95" s="107"/>
+      <c r="K95" s="107"/>
+      <c r="L95" s="108"/>
     </row>
     <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="50"/>
       <c r="C96" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="D96" s="61" t="s">
+      <c r="D96" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="E96" s="61"/>
-      <c r="F96" s="61"/>
+      <c r="E96" s="63"/>
+      <c r="F96" s="63"/>
       <c r="G96" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="H96" s="61"/>
-      <c r="I96" s="61"/>
-      <c r="J96" s="61"/>
+      <c r="H96" s="63"/>
+      <c r="I96" s="63"/>
+      <c r="J96" s="63"/>
       <c r="K96" s="24"/>
       <c r="L96" s="25"/>
     </row>
@@ -3786,134 +3817,134 @@
       <c r="B99" s="49">
         <v>10</v>
       </c>
-      <c r="C99" s="72" t="s">
+      <c r="C99" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="D99" s="73"/>
-      <c r="E99" s="73"/>
-      <c r="F99" s="73"/>
-      <c r="G99" s="73"/>
-      <c r="H99" s="73"/>
-      <c r="I99" s="73"/>
-      <c r="J99" s="73"/>
-      <c r="K99" s="74"/>
-      <c r="L99" s="75"/>
+      <c r="D99" s="71"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="71"/>
+      <c r="H99" s="71"/>
+      <c r="I99" s="71"/>
+      <c r="J99" s="71"/>
+      <c r="K99" s="72"/>
+      <c r="L99" s="73"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C100" s="76" t="s">
+      <c r="C100" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="D100" s="77"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="77"/>
-      <c r="H100" s="77"/>
-      <c r="I100" s="77"/>
-      <c r="J100" s="77"/>
-      <c r="K100" s="77"/>
-      <c r="L100" s="78"/>
+      <c r="D100" s="75"/>
+      <c r="E100" s="75"/>
+      <c r="F100" s="75"/>
+      <c r="G100" s="75"/>
+      <c r="H100" s="75"/>
+      <c r="I100" s="75"/>
+      <c r="J100" s="75"/>
+      <c r="K100" s="75"/>
+      <c r="L100" s="76"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C101" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D101" s="85" t="s">
+      <c r="D101" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="E101" s="86"/>
-      <c r="F101" s="87" t="s">
+      <c r="E101" s="78"/>
+      <c r="F101" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="G101" s="87"/>
-      <c r="H101" s="88"/>
+      <c r="G101" s="79"/>
+      <c r="H101" s="80"/>
       <c r="I101" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J101" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="89" t="s">
+      <c r="K101" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="L101" s="90"/>
+      <c r="L101" s="82"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C102" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D102" s="79" t="s">
+      <c r="D102" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="E102" s="80"/>
-      <c r="F102" s="81" t="s">
+      <c r="E102" s="84"/>
+      <c r="F102" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="G102" s="81"/>
-      <c r="H102" s="82"/>
+      <c r="G102" s="85"/>
+      <c r="H102" s="86"/>
       <c r="I102" s="36" t="s">
         <v>1</v>
       </c>
       <c r="J102" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="83" t="s">
+      <c r="K102" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="L102" s="84"/>
+      <c r="L102" s="88"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C103" s="38"/>
-      <c r="D103" s="63" t="s">
+      <c r="D103" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="E103" s="64"/>
-      <c r="F103" s="65" t="s">
+      <c r="E103" s="65"/>
+      <c r="F103" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="G103" s="65"/>
-      <c r="H103" s="66"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="67"/>
       <c r="I103" s="39" t="s">
         <v>22</v>
       </c>
       <c r="J103" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K103" s="67" t="s">
+      <c r="K103" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="L103" s="68"/>
+      <c r="L103" s="69"/>
     </row>
     <row r="104" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="69" t="s">
+      <c r="C104" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D104" s="70"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="70"/>
-      <c r="H104" s="70"/>
-      <c r="I104" s="70"/>
-      <c r="J104" s="70"/>
-      <c r="K104" s="70"/>
-      <c r="L104" s="71"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="61"/>
+      <c r="H104" s="61"/>
+      <c r="I104" s="61"/>
+      <c r="J104" s="61"/>
+      <c r="K104" s="61"/>
+      <c r="L104" s="62"/>
     </row>
     <row r="105" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C105" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D105" s="61" t="s">
+      <c r="D105" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="E105" s="61"/>
-      <c r="F105" s="61"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="63"/>
       <c r="G105" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H105" s="61" t="s">
+      <c r="H105" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="I105" s="61"/>
-      <c r="J105" s="61"/>
+      <c r="I105" s="63"/>
+      <c r="J105" s="63"/>
       <c r="K105" s="24"/>
       <c r="L105" s="25"/>
     </row>
@@ -3922,130 +3953,130 @@
       <c r="B108" s="49">
         <v>11</v>
       </c>
-      <c r="C108" s="72" t="s">
+      <c r="C108" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="D108" s="73"/>
-      <c r="E108" s="73"/>
-      <c r="F108" s="73"/>
-      <c r="G108" s="73"/>
-      <c r="H108" s="73"/>
-      <c r="I108" s="73"/>
-      <c r="J108" s="73"/>
-      <c r="K108" s="74"/>
-      <c r="L108" s="75"/>
+      <c r="D108" s="71"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="71"/>
+      <c r="I108" s="71"/>
+      <c r="J108" s="71"/>
+      <c r="K108" s="72"/>
+      <c r="L108" s="73"/>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C109" s="76" t="s">
+      <c r="C109" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="D109" s="77"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="77"/>
-      <c r="H109" s="77"/>
-      <c r="I109" s="77"/>
-      <c r="J109" s="77"/>
-      <c r="K109" s="77"/>
-      <c r="L109" s="78"/>
+      <c r="D109" s="75"/>
+      <c r="E109" s="75"/>
+      <c r="F109" s="75"/>
+      <c r="G109" s="75"/>
+      <c r="H109" s="75"/>
+      <c r="I109" s="75"/>
+      <c r="J109" s="75"/>
+      <c r="K109" s="75"/>
+      <c r="L109" s="76"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C110" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D110" s="85" t="s">
+      <c r="D110" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="E110" s="86"/>
-      <c r="F110" s="87" t="s">
+      <c r="E110" s="78"/>
+      <c r="F110" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="G110" s="87"/>
-      <c r="H110" s="88"/>
+      <c r="G110" s="79"/>
+      <c r="H110" s="80"/>
       <c r="I110" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J110" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K110" s="106" t="s">
+      <c r="K110" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="L110" s="107"/>
+      <c r="L110" s="97"/>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C111" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D111" s="79" t="s">
+      <c r="D111" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="E111" s="80"/>
-      <c r="F111" s="81" t="s">
+      <c r="E111" s="84"/>
+      <c r="F111" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="G111" s="81"/>
-      <c r="H111" s="82"/>
+      <c r="G111" s="85"/>
+      <c r="H111" s="86"/>
       <c r="I111" s="36" t="s">
         <v>1</v>
       </c>
       <c r="J111" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K111" s="108" t="s">
+      <c r="K111" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="L111" s="109"/>
+      <c r="L111" s="99"/>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C112" s="38"/>
-      <c r="D112" s="63" t="s">
+      <c r="D112" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="E112" s="64"/>
-      <c r="F112" s="65" t="s">
+      <c r="E112" s="65"/>
+      <c r="F112" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="G112" s="65"/>
-      <c r="H112" s="66"/>
+      <c r="G112" s="66"/>
+      <c r="H112" s="67"/>
       <c r="I112" s="39" t="s">
         <v>127</v>
       </c>
       <c r="J112" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K112" s="110" t="s">
+      <c r="K112" s="104" t="s">
         <v>195</v>
       </c>
-      <c r="L112" s="111"/>
+      <c r="L112" s="105"/>
     </row>
     <row r="113" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="69" t="s">
+      <c r="C113" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D113" s="70"/>
-      <c r="E113" s="70"/>
-      <c r="F113" s="70"/>
-      <c r="G113" s="70"/>
-      <c r="H113" s="70"/>
-      <c r="I113" s="70"/>
-      <c r="J113" s="70"/>
-      <c r="K113" s="70"/>
-      <c r="L113" s="71"/>
+      <c r="D113" s="61"/>
+      <c r="E113" s="61"/>
+      <c r="F113" s="61"/>
+      <c r="G113" s="61"/>
+      <c r="H113" s="61"/>
+      <c r="I113" s="61"/>
+      <c r="J113" s="61"/>
+      <c r="K113" s="61"/>
+      <c r="L113" s="62"/>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C114" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D114" s="93" t="s">
+      <c r="D114" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="E114" s="93"/>
-      <c r="F114" s="93"/>
+      <c r="E114" s="90"/>
+      <c r="F114" s="90"/>
       <c r="G114" s="4"/>
-      <c r="H114" s="93"/>
-      <c r="I114" s="93"/>
-      <c r="J114" s="93"/>
+      <c r="H114" s="90"/>
+      <c r="I114" s="90"/>
+      <c r="J114" s="90"/>
       <c r="K114" s="8"/>
       <c r="L114" s="21"/>
     </row>
@@ -4053,19 +4084,19 @@
       <c r="C115" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D115" s="62" t="s">
+      <c r="D115" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="E115" s="62"/>
-      <c r="F115" s="62"/>
+      <c r="E115" s="89"/>
+      <c r="F115" s="89"/>
       <c r="G115" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H115" s="62" t="s">
+      <c r="H115" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="I115" s="62"/>
-      <c r="J115" s="62"/>
+      <c r="I115" s="89"/>
+      <c r="J115" s="89"/>
       <c r="K115" s="10" t="s">
         <v>215</v>
       </c>
@@ -4077,19 +4108,19 @@
       <c r="C116" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D116" s="61" t="s">
+      <c r="D116" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="E116" s="61"/>
-      <c r="F116" s="61"/>
+      <c r="E116" s="63"/>
+      <c r="F116" s="63"/>
       <c r="G116" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H116" s="61" t="s">
+      <c r="H116" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="I116" s="61"/>
-      <c r="J116" s="61"/>
+      <c r="I116" s="63"/>
+      <c r="J116" s="63"/>
       <c r="K116" s="24"/>
       <c r="L116" s="25"/>
     </row>
@@ -4099,345 +4130,345 @@
       <c r="B119" s="57">
         <v>12</v>
       </c>
-      <c r="C119" s="72" t="s">
+      <c r="C119" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="D119" s="73"/>
-      <c r="E119" s="73"/>
-      <c r="F119" s="73"/>
-      <c r="G119" s="73"/>
-      <c r="H119" s="73"/>
-      <c r="I119" s="73"/>
-      <c r="J119" s="73"/>
-      <c r="K119" s="74"/>
-      <c r="L119" s="75"/>
+      <c r="D119" s="71"/>
+      <c r="E119" s="71"/>
+      <c r="F119" s="71"/>
+      <c r="G119" s="71"/>
+      <c r="H119" s="71"/>
+      <c r="I119" s="71"/>
+      <c r="J119" s="71"/>
+      <c r="K119" s="72"/>
+      <c r="L119" s="73"/>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C120" s="76" t="s">
+      <c r="C120" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="D120" s="77"/>
-      <c r="E120" s="77"/>
-      <c r="F120" s="77"/>
-      <c r="G120" s="77"/>
-      <c r="H120" s="77"/>
-      <c r="I120" s="77"/>
-      <c r="J120" s="77"/>
-      <c r="K120" s="77"/>
-      <c r="L120" s="78"/>
+      <c r="D120" s="75"/>
+      <c r="E120" s="75"/>
+      <c r="F120" s="75"/>
+      <c r="G120" s="75"/>
+      <c r="H120" s="75"/>
+      <c r="I120" s="75"/>
+      <c r="J120" s="75"/>
+      <c r="K120" s="75"/>
+      <c r="L120" s="76"/>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C121" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D121" s="85" t="s">
+      <c r="D121" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="E121" s="86"/>
-      <c r="F121" s="87" t="s">
+      <c r="E121" s="78"/>
+      <c r="F121" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="G121" s="87"/>
-      <c r="H121" s="88"/>
+      <c r="G121" s="79"/>
+      <c r="H121" s="80"/>
       <c r="I121" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J121" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K121" s="89" t="s">
+      <c r="K121" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="L121" s="90"/>
+      <c r="L121" s="82"/>
     </row>
     <row r="122" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C122" s="35"/>
-      <c r="D122" s="79" t="s">
+      <c r="D122" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="E122" s="80"/>
-      <c r="F122" s="81" t="s">
+      <c r="E122" s="84"/>
+      <c r="F122" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="G122" s="81"/>
-      <c r="H122" s="82"/>
+      <c r="G122" s="85"/>
+      <c r="H122" s="86"/>
       <c r="I122" s="36" t="s">
         <v>26</v>
       </c>
       <c r="J122" s="37"/>
-      <c r="K122" s="83"/>
-      <c r="L122" s="84"/>
+      <c r="K122" s="87"/>
+      <c r="L122" s="88"/>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C123" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="D123" s="79" t="s">
+      <c r="D123" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="E123" s="80"/>
-      <c r="F123" s="81" t="s">
+      <c r="E123" s="84"/>
+      <c r="F123" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="G123" s="81"/>
-      <c r="H123" s="82"/>
+      <c r="G123" s="85"/>
+      <c r="H123" s="86"/>
       <c r="I123" s="36" t="s">
         <v>241</v>
       </c>
       <c r="J123" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K123" s="83"/>
-      <c r="L123" s="84"/>
+      <c r="K123" s="87"/>
+      <c r="L123" s="88"/>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C124" s="35"/>
-      <c r="D124" s="79" t="s">
+      <c r="D124" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="E124" s="80"/>
-      <c r="F124" s="81" t="s">
+      <c r="E124" s="84"/>
+      <c r="F124" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="G124" s="81"/>
-      <c r="H124" s="82"/>
+      <c r="G124" s="85"/>
+      <c r="H124" s="86"/>
       <c r="I124" s="36" t="s">
         <v>124</v>
       </c>
       <c r="J124" s="37"/>
-      <c r="K124" s="83"/>
-      <c r="L124" s="84"/>
+      <c r="K124" s="87"/>
+      <c r="L124" s="88"/>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C125" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D125" s="79" t="s">
+      <c r="D125" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="E125" s="80"/>
-      <c r="F125" s="81" t="s">
+      <c r="E125" s="84"/>
+      <c r="F125" s="85" t="s">
         <v>219</v>
       </c>
-      <c r="G125" s="81"/>
-      <c r="H125" s="82"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="86"/>
       <c r="I125" s="36" t="s">
         <v>1</v>
       </c>
       <c r="J125" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="K125" s="83" t="s">
+      <c r="K125" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="L125" s="84"/>
+      <c r="L125" s="88"/>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C126" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D126" s="79" t="s">
+      <c r="D126" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="E126" s="80"/>
-      <c r="F126" s="81" t="s">
+      <c r="E126" s="84"/>
+      <c r="F126" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="G126" s="81"/>
-      <c r="H126" s="82"/>
+      <c r="G126" s="85"/>
+      <c r="H126" s="86"/>
       <c r="I126" s="36" t="s">
         <v>1</v>
       </c>
       <c r="J126" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K126" s="83" t="s">
+      <c r="K126" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="L126" s="84"/>
+      <c r="L126" s="88"/>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C127" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D127" s="79" t="s">
+      <c r="D127" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="E127" s="80"/>
-      <c r="F127" s="81" t="s">
+      <c r="E127" s="84"/>
+      <c r="F127" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="G127" s="81"/>
-      <c r="H127" s="82"/>
+      <c r="G127" s="85"/>
+      <c r="H127" s="86"/>
       <c r="I127" s="36" t="s">
         <v>1</v>
       </c>
       <c r="J127" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K127" s="83" t="s">
+      <c r="K127" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="L127" s="84"/>
+      <c r="L127" s="88"/>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C128" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D128" s="79" t="s">
+      <c r="D128" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="E128" s="80"/>
-      <c r="F128" s="81" t="s">
+      <c r="E128" s="84"/>
+      <c r="F128" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="G128" s="81"/>
-      <c r="H128" s="82"/>
+      <c r="G128" s="85"/>
+      <c r="H128" s="86"/>
       <c r="I128" s="36" t="s">
         <v>1</v>
       </c>
       <c r="J128" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K128" s="83" t="s">
+      <c r="K128" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="L128" s="84"/>
+      <c r="L128" s="88"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="50"/>
       <c r="C129" s="35"/>
-      <c r="D129" s="79" t="s">
+      <c r="D129" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="E129" s="80"/>
-      <c r="F129" s="81" t="s">
+      <c r="E129" s="84"/>
+      <c r="F129" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="G129" s="81"/>
-      <c r="H129" s="82"/>
+      <c r="G129" s="85"/>
+      <c r="H129" s="86"/>
       <c r="I129" s="36" t="s">
         <v>224</v>
       </c>
       <c r="J129" s="37"/>
-      <c r="K129" s="83"/>
-      <c r="L129" s="84"/>
+      <c r="K129" s="87"/>
+      <c r="L129" s="88"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C130" s="35"/>
-      <c r="D130" s="79" t="s">
+      <c r="D130" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="E130" s="80"/>
-      <c r="F130" s="81" t="s">
+      <c r="E130" s="84"/>
+      <c r="F130" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="G130" s="81"/>
-      <c r="H130" s="82"/>
+      <c r="G130" s="85"/>
+      <c r="H130" s="86"/>
       <c r="I130" s="36" t="s">
         <v>125</v>
       </c>
       <c r="J130" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K130" s="83"/>
-      <c r="L130" s="84"/>
+      <c r="K130" s="87"/>
+      <c r="L130" s="88"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C131" s="35"/>
-      <c r="D131" s="79" t="s">
+      <c r="D131" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="E131" s="80"/>
-      <c r="F131" s="81" t="s">
+      <c r="E131" s="84"/>
+      <c r="F131" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="G131" s="81"/>
-      <c r="H131" s="82"/>
+      <c r="G131" s="85"/>
+      <c r="H131" s="86"/>
       <c r="I131" s="36" t="s">
         <v>126</v>
       </c>
       <c r="J131" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K131" s="83" t="s">
+      <c r="K131" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="L131" s="84"/>
+      <c r="L131" s="88"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C132" s="35"/>
-      <c r="D132" s="79" t="s">
+      <c r="D132" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="E132" s="80"/>
-      <c r="F132" s="81" t="s">
+      <c r="E132" s="84"/>
+      <c r="F132" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="G132" s="81"/>
-      <c r="H132" s="82"/>
+      <c r="G132" s="85"/>
+      <c r="H132" s="86"/>
       <c r="I132" s="36" t="s">
         <v>22</v>
       </c>
       <c r="J132" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K132" s="83" t="s">
+      <c r="K132" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="L132" s="84"/>
+      <c r="L132" s="88"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C133" s="38"/>
-      <c r="D133" s="63" t="s">
+      <c r="D133" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="E133" s="64"/>
-      <c r="F133" s="65" t="s">
+      <c r="E133" s="65"/>
+      <c r="F133" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="G133" s="65"/>
-      <c r="H133" s="66"/>
+      <c r="G133" s="66"/>
+      <c r="H133" s="67"/>
       <c r="I133" s="39" t="s">
         <v>22</v>
       </c>
       <c r="J133" s="40"/>
-      <c r="K133" s="112" t="s">
+      <c r="K133" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="L133" s="113"/>
+      <c r="L133" s="103"/>
     </row>
     <row r="134" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="69" t="s">
+      <c r="C134" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D134" s="70"/>
-      <c r="E134" s="70"/>
-      <c r="F134" s="70"/>
-      <c r="G134" s="70"/>
-      <c r="H134" s="70"/>
-      <c r="I134" s="70"/>
-      <c r="J134" s="70"/>
-      <c r="K134" s="70"/>
-      <c r="L134" s="71"/>
+      <c r="D134" s="61"/>
+      <c r="E134" s="61"/>
+      <c r="F134" s="61"/>
+      <c r="G134" s="61"/>
+      <c r="H134" s="61"/>
+      <c r="I134" s="61"/>
+      <c r="J134" s="61"/>
+      <c r="K134" s="61"/>
+      <c r="L134" s="62"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C135" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D135" s="62" t="s">
+      <c r="D135" s="89" t="s">
         <v>218</v>
       </c>
-      <c r="E135" s="62"/>
-      <c r="F135" s="62"/>
+      <c r="E135" s="89"/>
+      <c r="F135" s="89"/>
       <c r="G135" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H135" s="62" t="s">
+      <c r="H135" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="I135" s="62"/>
-      <c r="J135" s="62"/>
+      <c r="I135" s="89"/>
+      <c r="J135" s="89"/>
       <c r="K135" s="9"/>
       <c r="L135" s="28"/>
     </row>
@@ -4445,19 +4476,19 @@
       <c r="C136" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D136" s="62" t="s">
+      <c r="D136" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="E136" s="62"/>
-      <c r="F136" s="62"/>
+      <c r="E136" s="89"/>
+      <c r="F136" s="89"/>
       <c r="G136" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H136" s="62" t="s">
+      <c r="H136" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="I136" s="62"/>
-      <c r="J136" s="62"/>
+      <c r="I136" s="89"/>
+      <c r="J136" s="89"/>
       <c r="K136" s="9"/>
       <c r="L136" s="28"/>
     </row>
@@ -4465,19 +4496,19 @@
       <c r="C137" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D137" s="62" t="s">
+      <c r="D137" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="E137" s="62"/>
-      <c r="F137" s="62"/>
+      <c r="E137" s="89"/>
+      <c r="F137" s="89"/>
       <c r="G137" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H137" s="62" t="s">
+      <c r="H137" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="I137" s="62"/>
-      <c r="J137" s="62"/>
+      <c r="I137" s="89"/>
+      <c r="J137" s="89"/>
       <c r="K137" s="9"/>
       <c r="L137" s="28"/>
     </row>
@@ -4485,19 +4516,19 @@
       <c r="C138" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D138" s="61" t="s">
+      <c r="D138" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="E138" s="61"/>
-      <c r="F138" s="61"/>
+      <c r="E138" s="63"/>
+      <c r="F138" s="63"/>
       <c r="G138" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H138" s="61" t="s">
+      <c r="H138" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="I138" s="61"/>
-      <c r="J138" s="61"/>
+      <c r="I138" s="63"/>
+      <c r="J138" s="63"/>
       <c r="K138" s="24"/>
       <c r="L138" s="25"/>
     </row>
@@ -4507,109 +4538,109 @@
       <c r="B141" s="49">
         <v>13</v>
       </c>
-      <c r="C141" s="72" t="s">
+      <c r="C141" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="D141" s="73"/>
-      <c r="E141" s="73"/>
-      <c r="F141" s="73"/>
-      <c r="G141" s="73"/>
-      <c r="H141" s="73"/>
-      <c r="I141" s="73"/>
-      <c r="J141" s="73"/>
-      <c r="K141" s="74"/>
-      <c r="L141" s="75"/>
+      <c r="D141" s="71"/>
+      <c r="E141" s="71"/>
+      <c r="F141" s="71"/>
+      <c r="G141" s="71"/>
+      <c r="H141" s="71"/>
+      <c r="I141" s="71"/>
+      <c r="J141" s="71"/>
+      <c r="K141" s="72"/>
+      <c r="L141" s="73"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C142" s="76" t="s">
+      <c r="C142" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="D142" s="77"/>
-      <c r="E142" s="77"/>
-      <c r="F142" s="77"/>
-      <c r="G142" s="77"/>
-      <c r="H142" s="77"/>
-      <c r="I142" s="77"/>
-      <c r="J142" s="77"/>
-      <c r="K142" s="77"/>
-      <c r="L142" s="78"/>
+      <c r="D142" s="75"/>
+      <c r="E142" s="75"/>
+      <c r="F142" s="75"/>
+      <c r="G142" s="75"/>
+      <c r="H142" s="75"/>
+      <c r="I142" s="75"/>
+      <c r="J142" s="75"/>
+      <c r="K142" s="75"/>
+      <c r="L142" s="76"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C143" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D143" s="85" t="s">
+      <c r="D143" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="E143" s="86"/>
-      <c r="F143" s="87" t="s">
+      <c r="E143" s="78"/>
+      <c r="F143" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="G143" s="87"/>
-      <c r="H143" s="88"/>
+      <c r="G143" s="79"/>
+      <c r="H143" s="80"/>
       <c r="I143" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J143" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K143" s="89" t="s">
+      <c r="K143" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="L143" s="90"/>
+      <c r="L143" s="82"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="50"/>
       <c r="C144" s="35"/>
-      <c r="D144" s="79" t="s">
+      <c r="D144" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="E144" s="80"/>
-      <c r="F144" s="81" t="s">
+      <c r="E144" s="84"/>
+      <c r="F144" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="G144" s="81"/>
-      <c r="H144" s="82"/>
+      <c r="G144" s="85"/>
+      <c r="H144" s="86"/>
       <c r="I144" s="36" t="s">
         <v>26</v>
       </c>
       <c r="J144" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K144" s="83"/>
-      <c r="L144" s="84"/>
+      <c r="K144" s="87"/>
+      <c r="L144" s="88"/>
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C145" s="38"/>
-      <c r="D145" s="63" t="s">
+      <c r="D145" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="E145" s="64"/>
-      <c r="F145" s="65" t="s">
+      <c r="E145" s="65"/>
+      <c r="F145" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="G145" s="65"/>
-      <c r="H145" s="66"/>
+      <c r="G145" s="66"/>
+      <c r="H145" s="67"/>
       <c r="I145" s="39" t="s">
         <v>50</v>
       </c>
       <c r="J145" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K145" s="67"/>
-      <c r="L145" s="68"/>
+      <c r="K145" s="68"/>
+      <c r="L145" s="69"/>
     </row>
     <row r="146" spans="2:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C146" s="97"/>
-      <c r="D146" s="98"/>
-      <c r="E146" s="98"/>
-      <c r="F146" s="98"/>
-      <c r="G146" s="98"/>
-      <c r="H146" s="98"/>
-      <c r="I146" s="98"/>
-      <c r="J146" s="98"/>
-      <c r="K146" s="98"/>
-      <c r="L146" s="99"/>
+      <c r="C146" s="91"/>
+      <c r="D146" s="92"/>
+      <c r="E146" s="92"/>
+      <c r="F146" s="92"/>
+      <c r="G146" s="92"/>
+      <c r="H146" s="92"/>
+      <c r="I146" s="92"/>
+      <c r="J146" s="92"/>
+      <c r="K146" s="92"/>
+      <c r="L146" s="93"/>
     </row>
     <row r="147" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="148" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4617,88 +4648,88 @@
       <c r="B149" s="49">
         <v>14</v>
       </c>
-      <c r="C149" s="72" t="s">
+      <c r="C149" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="D149" s="73"/>
-      <c r="E149" s="73"/>
-      <c r="F149" s="73"/>
-      <c r="G149" s="73"/>
-      <c r="H149" s="73"/>
-      <c r="I149" s="73"/>
-      <c r="J149" s="73"/>
-      <c r="K149" s="74"/>
-      <c r="L149" s="75"/>
+      <c r="D149" s="71"/>
+      <c r="E149" s="71"/>
+      <c r="F149" s="71"/>
+      <c r="G149" s="71"/>
+      <c r="H149" s="71"/>
+      <c r="I149" s="71"/>
+      <c r="J149" s="71"/>
+      <c r="K149" s="72"/>
+      <c r="L149" s="73"/>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C150" s="76" t="s">
+      <c r="C150" s="74" t="s">
         <v>217</v>
       </c>
-      <c r="D150" s="77"/>
-      <c r="E150" s="77"/>
-      <c r="F150" s="77"/>
-      <c r="G150" s="77"/>
-      <c r="H150" s="77"/>
-      <c r="I150" s="77"/>
-      <c r="J150" s="77"/>
-      <c r="K150" s="77"/>
-      <c r="L150" s="78"/>
+      <c r="D150" s="75"/>
+      <c r="E150" s="75"/>
+      <c r="F150" s="75"/>
+      <c r="G150" s="75"/>
+      <c r="H150" s="75"/>
+      <c r="I150" s="75"/>
+      <c r="J150" s="75"/>
+      <c r="K150" s="75"/>
+      <c r="L150" s="76"/>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C151" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D151" s="85" t="s">
+      <c r="D151" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="E151" s="86"/>
-      <c r="F151" s="87" t="s">
+      <c r="E151" s="78"/>
+      <c r="F151" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="G151" s="87"/>
-      <c r="H151" s="88"/>
+      <c r="G151" s="79"/>
+      <c r="H151" s="80"/>
       <c r="I151" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J151" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K151" s="89" t="s">
+      <c r="K151" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="L151" s="90"/>
+      <c r="L151" s="82"/>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C152" s="38"/>
-      <c r="D152" s="63" t="s">
+      <c r="D152" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="E152" s="64"/>
-      <c r="F152" s="65" t="s">
+      <c r="E152" s="65"/>
+      <c r="F152" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="G152" s="65"/>
-      <c r="H152" s="66"/>
+      <c r="G152" s="66"/>
+      <c r="H152" s="67"/>
       <c r="I152" s="36" t="s">
         <v>24</v>
       </c>
       <c r="J152" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K152" s="116"/>
-      <c r="L152" s="117"/>
+      <c r="K152" s="94"/>
+      <c r="L152" s="95"/>
     </row>
     <row r="153" spans="2:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C153" s="97"/>
-      <c r="D153" s="98"/>
-      <c r="E153" s="98"/>
-      <c r="F153" s="98"/>
-      <c r="G153" s="98"/>
-      <c r="H153" s="98"/>
-      <c r="I153" s="98"/>
-      <c r="J153" s="98"/>
-      <c r="K153" s="98"/>
-      <c r="L153" s="99"/>
+      <c r="C153" s="91"/>
+      <c r="D153" s="92"/>
+      <c r="E153" s="92"/>
+      <c r="F153" s="92"/>
+      <c r="G153" s="92"/>
+      <c r="H153" s="92"/>
+      <c r="I153" s="92"/>
+      <c r="J153" s="92"/>
+      <c r="K153" s="92"/>
+      <c r="L153" s="93"/>
     </row>
     <row r="154" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="155" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4706,258 +4737,258 @@
       <c r="B156" s="49">
         <v>15</v>
       </c>
-      <c r="C156" s="72" t="s">
+      <c r="C156" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="D156" s="73"/>
-      <c r="E156" s="73"/>
-      <c r="F156" s="73"/>
-      <c r="G156" s="73"/>
-      <c r="H156" s="73"/>
-      <c r="I156" s="73"/>
-      <c r="J156" s="73"/>
-      <c r="K156" s="74"/>
-      <c r="L156" s="75"/>
+      <c r="D156" s="71"/>
+      <c r="E156" s="71"/>
+      <c r="F156" s="71"/>
+      <c r="G156" s="71"/>
+      <c r="H156" s="71"/>
+      <c r="I156" s="71"/>
+      <c r="J156" s="71"/>
+      <c r="K156" s="72"/>
+      <c r="L156" s="73"/>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C157" s="76" t="s">
+      <c r="C157" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="D157" s="77"/>
-      <c r="E157" s="77"/>
-      <c r="F157" s="77"/>
-      <c r="G157" s="77"/>
-      <c r="H157" s="77"/>
-      <c r="I157" s="77"/>
-      <c r="J157" s="77"/>
-      <c r="K157" s="77"/>
-      <c r="L157" s="78"/>
+      <c r="D157" s="75"/>
+      <c r="E157" s="75"/>
+      <c r="F157" s="75"/>
+      <c r="G157" s="75"/>
+      <c r="H157" s="75"/>
+      <c r="I157" s="75"/>
+      <c r="J157" s="75"/>
+      <c r="K157" s="75"/>
+      <c r="L157" s="76"/>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C158" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D158" s="85" t="s">
+      <c r="D158" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="E158" s="86"/>
-      <c r="F158" s="87" t="s">
+      <c r="E158" s="78"/>
+      <c r="F158" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="G158" s="87"/>
-      <c r="H158" s="88"/>
+      <c r="G158" s="79"/>
+      <c r="H158" s="80"/>
       <c r="I158" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J158" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K158" s="89" t="s">
+      <c r="K158" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="L158" s="90"/>
+      <c r="L158" s="82"/>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C159" s="35"/>
-      <c r="D159" s="79" t="s">
+      <c r="D159" s="83" t="s">
         <v>172</v>
       </c>
-      <c r="E159" s="80"/>
-      <c r="F159" s="81" t="s">
+      <c r="E159" s="84"/>
+      <c r="F159" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="G159" s="81"/>
-      <c r="H159" s="82"/>
+      <c r="G159" s="85"/>
+      <c r="H159" s="86"/>
       <c r="I159" s="36" t="s">
         <v>66</v>
       </c>
       <c r="J159" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K159" s="83"/>
-      <c r="L159" s="84"/>
+      <c r="K159" s="87"/>
+      <c r="L159" s="88"/>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C160" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="D160" s="79" t="s">
+      <c r="D160" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="E160" s="80"/>
-      <c r="F160" s="81" t="s">
+      <c r="E160" s="84"/>
+      <c r="F160" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="G160" s="81"/>
-      <c r="H160" s="82"/>
+      <c r="G160" s="85"/>
+      <c r="H160" s="86"/>
       <c r="I160" s="36" t="s">
         <v>25</v>
       </c>
       <c r="J160" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K160" s="83"/>
-      <c r="L160" s="84"/>
+      <c r="K160" s="87"/>
+      <c r="L160" s="88"/>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C161" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D161" s="79" t="s">
+      <c r="D161" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E161" s="80"/>
-      <c r="F161" s="81" t="s">
+      <c r="E161" s="84"/>
+      <c r="F161" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="G161" s="81"/>
-      <c r="H161" s="82"/>
+      <c r="G161" s="85"/>
+      <c r="H161" s="86"/>
       <c r="I161" s="36" t="s">
         <v>1</v>
       </c>
       <c r="J161" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K161" s="83" t="s">
+      <c r="K161" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="L161" s="84"/>
+      <c r="L161" s="88"/>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C162" s="35"/>
-      <c r="D162" s="79" t="s">
+      <c r="D162" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="E162" s="80"/>
-      <c r="F162" s="81" t="s">
+      <c r="E162" s="84"/>
+      <c r="F162" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="G162" s="81"/>
-      <c r="H162" s="82"/>
+      <c r="G162" s="85"/>
+      <c r="H162" s="86"/>
       <c r="I162" s="36" t="s">
         <v>26</v>
       </c>
       <c r="J162" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K162" s="83"/>
-      <c r="L162" s="84"/>
+      <c r="K162" s="87"/>
+      <c r="L162" s="88"/>
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C163" s="35"/>
-      <c r="D163" s="79" t="s">
+      <c r="D163" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E163" s="80"/>
-      <c r="F163" s="81" t="s">
+      <c r="E163" s="84"/>
+      <c r="F163" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="G163" s="81"/>
-      <c r="H163" s="82"/>
+      <c r="G163" s="85"/>
+      <c r="H163" s="86"/>
       <c r="I163" s="36" t="s">
         <v>26</v>
       </c>
       <c r="J163" s="37"/>
-      <c r="K163" s="83"/>
-      <c r="L163" s="84"/>
+      <c r="K163" s="87"/>
+      <c r="L163" s="88"/>
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C164" s="35"/>
-      <c r="D164" s="79" t="s">
+      <c r="D164" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="E164" s="80"/>
-      <c r="F164" s="81" t="s">
+      <c r="E164" s="84"/>
+      <c r="F164" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="G164" s="81"/>
-      <c r="H164" s="82"/>
+      <c r="G164" s="85"/>
+      <c r="H164" s="86"/>
       <c r="I164" s="36" t="s">
         <v>25</v>
       </c>
       <c r="J164" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K164" s="83"/>
-      <c r="L164" s="84"/>
+      <c r="K164" s="87"/>
+      <c r="L164" s="88"/>
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C165" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D165" s="79" t="s">
+      <c r="D165" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="E165" s="80"/>
-      <c r="F165" s="81" t="s">
+      <c r="E165" s="84"/>
+      <c r="F165" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="G165" s="81"/>
-      <c r="H165" s="82"/>
+      <c r="G165" s="85"/>
+      <c r="H165" s="86"/>
       <c r="I165" s="36" t="s">
         <v>1</v>
       </c>
       <c r="J165" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K165" s="83" t="s">
+      <c r="K165" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="L165" s="84"/>
+      <c r="L165" s="88"/>
     </row>
     <row r="166" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C166" s="38"/>
-      <c r="D166" s="63" t="s">
+      <c r="D166" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="E166" s="64"/>
-      <c r="F166" s="65" t="s">
+      <c r="E166" s="65"/>
+      <c r="F166" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="G166" s="65"/>
-      <c r="H166" s="66"/>
+      <c r="G166" s="66"/>
+      <c r="H166" s="67"/>
       <c r="I166" s="39" t="s">
         <v>22</v>
       </c>
       <c r="J166" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K166" s="67" t="s">
+      <c r="K166" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="L166" s="68"/>
+      <c r="L166" s="69"/>
     </row>
     <row r="167" spans="2:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C167" s="69" t="s">
+      <c r="C167" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D167" s="70"/>
-      <c r="E167" s="70"/>
-      <c r="F167" s="70"/>
-      <c r="G167" s="70"/>
-      <c r="H167" s="70"/>
-      <c r="I167" s="70"/>
-      <c r="J167" s="70"/>
-      <c r="K167" s="70"/>
-      <c r="L167" s="71"/>
+      <c r="D167" s="61"/>
+      <c r="E167" s="61"/>
+      <c r="F167" s="61"/>
+      <c r="G167" s="61"/>
+      <c r="H167" s="61"/>
+      <c r="I167" s="61"/>
+      <c r="J167" s="61"/>
+      <c r="K167" s="61"/>
+      <c r="L167" s="62"/>
     </row>
     <row r="168" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C168" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D168" s="93" t="s">
+      <c r="D168" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="E168" s="93"/>
-      <c r="F168" s="93"/>
+      <c r="E168" s="90"/>
+      <c r="F168" s="90"/>
       <c r="G168" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H168" s="93" t="s">
+      <c r="H168" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="I168" s="93"/>
-      <c r="J168" s="93"/>
+      <c r="I168" s="90"/>
+      <c r="J168" s="90"/>
       <c r="K168" s="8"/>
       <c r="L168" s="21"/>
     </row>
@@ -4965,19 +4996,19 @@
       <c r="C169" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D169" s="61" t="s">
+      <c r="D169" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E169" s="61"/>
-      <c r="F169" s="61"/>
+      <c r="E169" s="63"/>
+      <c r="F169" s="63"/>
       <c r="G169" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H169" s="61" t="s">
+      <c r="H169" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="I169" s="61"/>
-      <c r="J169" s="61"/>
+      <c r="I169" s="63"/>
+      <c r="J169" s="63"/>
       <c r="K169" s="24"/>
       <c r="L169" s="25"/>
     </row>
@@ -4987,132 +5018,132 @@
       <c r="B172" s="49">
         <v>16</v>
       </c>
-      <c r="C172" s="72" t="s">
+      <c r="C172" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="D172" s="73"/>
-      <c r="E172" s="73"/>
-      <c r="F172" s="73"/>
-      <c r="G172" s="73"/>
-      <c r="H172" s="73"/>
-      <c r="I172" s="73"/>
-      <c r="J172" s="73"/>
-      <c r="K172" s="74"/>
-      <c r="L172" s="75"/>
+      <c r="D172" s="71"/>
+      <c r="E172" s="71"/>
+      <c r="F172" s="71"/>
+      <c r="G172" s="71"/>
+      <c r="H172" s="71"/>
+      <c r="I172" s="71"/>
+      <c r="J172" s="71"/>
+      <c r="K172" s="72"/>
+      <c r="L172" s="73"/>
     </row>
     <row r="173" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C173" s="76" t="s">
+      <c r="C173" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="D173" s="77"/>
-      <c r="E173" s="77"/>
-      <c r="F173" s="77"/>
-      <c r="G173" s="77"/>
-      <c r="H173" s="77"/>
-      <c r="I173" s="77"/>
-      <c r="J173" s="77"/>
-      <c r="K173" s="77"/>
-      <c r="L173" s="78"/>
+      <c r="D173" s="75"/>
+      <c r="E173" s="75"/>
+      <c r="F173" s="75"/>
+      <c r="G173" s="75"/>
+      <c r="H173" s="75"/>
+      <c r="I173" s="75"/>
+      <c r="J173" s="75"/>
+      <c r="K173" s="75"/>
+      <c r="L173" s="76"/>
     </row>
     <row r="174" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C174" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D174" s="85" t="s">
+      <c r="D174" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="E174" s="86"/>
-      <c r="F174" s="87" t="s">
+      <c r="E174" s="78"/>
+      <c r="F174" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="G174" s="87"/>
-      <c r="H174" s="88"/>
+      <c r="G174" s="79"/>
+      <c r="H174" s="80"/>
       <c r="I174" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J174" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="K174" s="89" t="s">
+      <c r="K174" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="L174" s="90"/>
+      <c r="L174" s="82"/>
     </row>
     <row r="175" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C175" s="35"/>
-      <c r="D175" s="79" t="s">
+      <c r="D175" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="E175" s="80"/>
-      <c r="F175" s="81" t="s">
+      <c r="E175" s="84"/>
+      <c r="F175" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="G175" s="81"/>
-      <c r="H175" s="82"/>
+      <c r="G175" s="85"/>
+      <c r="H175" s="86"/>
       <c r="I175" s="36" t="s">
         <v>127</v>
       </c>
       <c r="J175" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="K175" s="83" t="s">
+      <c r="K175" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="L175" s="84"/>
+      <c r="L175" s="88"/>
     </row>
     <row r="176" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C176" s="38"/>
-      <c r="D176" s="63" t="s">
+      <c r="D176" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="E176" s="64"/>
-      <c r="F176" s="65" t="s">
+      <c r="E176" s="65"/>
+      <c r="F176" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="G176" s="65"/>
-      <c r="H176" s="66"/>
+      <c r="G176" s="66"/>
+      <c r="H176" s="67"/>
       <c r="I176" s="39" t="s">
         <v>22</v>
       </c>
       <c r="J176" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="K176" s="67" t="s">
+      <c r="K176" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="L176" s="68"/>
+      <c r="L176" s="69"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C177" s="69" t="s">
+      <c r="C177" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D177" s="70"/>
-      <c r="E177" s="70"/>
-      <c r="F177" s="70"/>
-      <c r="G177" s="70"/>
-      <c r="H177" s="70"/>
-      <c r="I177" s="70"/>
-      <c r="J177" s="70"/>
-      <c r="K177" s="70"/>
-      <c r="L177" s="71"/>
+      <c r="D177" s="61"/>
+      <c r="E177" s="61"/>
+      <c r="F177" s="61"/>
+      <c r="G177" s="61"/>
+      <c r="H177" s="61"/>
+      <c r="I177" s="61"/>
+      <c r="J177" s="61"/>
+      <c r="K177" s="61"/>
+      <c r="L177" s="62"/>
     </row>
     <row r="178" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C178" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D178" s="61" t="s">
+      <c r="D178" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="E178" s="61"/>
-      <c r="F178" s="61"/>
+      <c r="E178" s="63"/>
+      <c r="F178" s="63"/>
       <c r="G178" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H178" s="61" t="s">
+      <c r="H178" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="I178" s="61"/>
-      <c r="J178" s="61"/>
+      <c r="I178" s="63"/>
+      <c r="J178" s="63"/>
       <c r="K178" s="24"/>
       <c r="L178" s="25"/>
     </row>
@@ -5122,201 +5153,201 @@
       <c r="B181" s="49">
         <v>17</v>
       </c>
-      <c r="C181" s="72" t="s">
+      <c r="C181" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="D181" s="73"/>
-      <c r="E181" s="73"/>
-      <c r="F181" s="73"/>
-      <c r="G181" s="73"/>
-      <c r="H181" s="73"/>
-      <c r="I181" s="73"/>
-      <c r="J181" s="73"/>
-      <c r="K181" s="74"/>
-      <c r="L181" s="75"/>
+      <c r="D181" s="71"/>
+      <c r="E181" s="71"/>
+      <c r="F181" s="71"/>
+      <c r="G181" s="71"/>
+      <c r="H181" s="71"/>
+      <c r="I181" s="71"/>
+      <c r="J181" s="71"/>
+      <c r="K181" s="72"/>
+      <c r="L181" s="73"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C182" s="76" t="s">
+      <c r="C182" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="D182" s="77"/>
-      <c r="E182" s="77"/>
-      <c r="F182" s="77"/>
-      <c r="G182" s="77"/>
-      <c r="H182" s="77"/>
-      <c r="I182" s="77"/>
-      <c r="J182" s="77"/>
-      <c r="K182" s="77"/>
-      <c r="L182" s="78"/>
+      <c r="D182" s="75"/>
+      <c r="E182" s="75"/>
+      <c r="F182" s="75"/>
+      <c r="G182" s="75"/>
+      <c r="H182" s="75"/>
+      <c r="I182" s="75"/>
+      <c r="J182" s="75"/>
+      <c r="K182" s="75"/>
+      <c r="L182" s="76"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C183" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D183" s="85" t="s">
+      <c r="D183" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="E183" s="86"/>
-      <c r="F183" s="87" t="s">
+      <c r="E183" s="78"/>
+      <c r="F183" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="G183" s="87"/>
-      <c r="H183" s="88"/>
+      <c r="G183" s="79"/>
+      <c r="H183" s="80"/>
       <c r="I183" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J183" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="K183" s="89" t="s">
+      <c r="K183" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="L183" s="90"/>
+      <c r="L183" s="82"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C184" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D184" s="79" t="s">
+      <c r="D184" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="E184" s="80"/>
-      <c r="F184" s="81" t="s">
+      <c r="E184" s="84"/>
+      <c r="F184" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="G184" s="81"/>
-      <c r="H184" s="82"/>
+      <c r="G184" s="85"/>
+      <c r="H184" s="86"/>
       <c r="I184" s="36" t="s">
         <v>1</v>
       </c>
       <c r="J184" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="K184" s="83" t="s">
+      <c r="K184" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="L184" s="84"/>
+      <c r="L184" s="88"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C185" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D185" s="79" t="s">
+      <c r="D185" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="E185" s="80"/>
-      <c r="F185" s="81" t="s">
+      <c r="E185" s="84"/>
+      <c r="F185" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="G185" s="81"/>
-      <c r="H185" s="82"/>
+      <c r="G185" s="85"/>
+      <c r="H185" s="86"/>
       <c r="I185" s="36" t="s">
         <v>1</v>
       </c>
       <c r="J185" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="K185" s="83" t="s">
+      <c r="K185" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="L185" s="84"/>
+      <c r="L185" s="88"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="50"/>
       <c r="C186" s="35"/>
-      <c r="D186" s="79" t="s">
+      <c r="D186" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="E186" s="80"/>
-      <c r="F186" s="81" t="s">
+      <c r="E186" s="84"/>
+      <c r="F186" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="G186" s="81"/>
-      <c r="H186" s="82"/>
+      <c r="G186" s="85"/>
+      <c r="H186" s="86"/>
       <c r="I186" s="36" t="s">
         <v>221</v>
       </c>
       <c r="J186" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="K186" s="83"/>
-      <c r="L186" s="84"/>
+      <c r="K186" s="87"/>
+      <c r="L186" s="88"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C187" s="35"/>
-      <c r="D187" s="79" t="s">
+      <c r="D187" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="E187" s="80"/>
-      <c r="F187" s="81" t="s">
+      <c r="E187" s="84"/>
+      <c r="F187" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="G187" s="81"/>
-      <c r="H187" s="82"/>
+      <c r="G187" s="85"/>
+      <c r="H187" s="86"/>
       <c r="I187" s="36" t="s">
         <v>232</v>
       </c>
       <c r="J187" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="K187" s="83" t="s">
+      <c r="K187" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="L187" s="84"/>
+      <c r="L187" s="88"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C188" s="38"/>
-      <c r="D188" s="114" t="s">
+      <c r="D188" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="E188" s="115"/>
-      <c r="F188" s="65" t="s">
+      <c r="E188" s="101"/>
+      <c r="F188" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="G188" s="65"/>
-      <c r="H188" s="66"/>
+      <c r="G188" s="66"/>
+      <c r="H188" s="67"/>
       <c r="I188" s="39" t="s">
         <v>22</v>
       </c>
       <c r="J188" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="K188" s="67" t="s">
+      <c r="K188" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="L188" s="68"/>
+      <c r="L188" s="69"/>
     </row>
     <row r="189" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C189" s="69" t="s">
+      <c r="C189" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D189" s="70"/>
-      <c r="E189" s="70"/>
-      <c r="F189" s="70"/>
-      <c r="G189" s="70"/>
-      <c r="H189" s="70"/>
-      <c r="I189" s="70"/>
-      <c r="J189" s="70"/>
-      <c r="K189" s="70"/>
-      <c r="L189" s="71"/>
+      <c r="D189" s="61"/>
+      <c r="E189" s="61"/>
+      <c r="F189" s="61"/>
+      <c r="G189" s="61"/>
+      <c r="H189" s="61"/>
+      <c r="I189" s="61"/>
+      <c r="J189" s="61"/>
+      <c r="K189" s="61"/>
+      <c r="L189" s="62"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C190" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D190" s="62" t="s">
+      <c r="D190" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="E190" s="62"/>
-      <c r="F190" s="62"/>
+      <c r="E190" s="89"/>
+      <c r="F190" s="89"/>
       <c r="G190" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H190" s="62" t="s">
+      <c r="H190" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="I190" s="62"/>
-      <c r="J190" s="62"/>
+      <c r="I190" s="89"/>
+      <c r="J190" s="89"/>
       <c r="K190" s="8"/>
       <c r="L190" s="21"/>
     </row>
@@ -5324,19 +5355,19 @@
       <c r="C191" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D191" s="61" t="s">
+      <c r="D191" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="E191" s="61"/>
-      <c r="F191" s="61"/>
+      <c r="E191" s="63"/>
+      <c r="F191" s="63"/>
       <c r="G191" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H191" s="61" t="s">
+      <c r="H191" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="I191" s="61"/>
-      <c r="J191" s="61"/>
+      <c r="I191" s="63"/>
+      <c r="J191" s="63"/>
       <c r="K191" s="24"/>
       <c r="L191" s="25"/>
     </row>
@@ -5346,1443 +5377,1518 @@
       <c r="B194" s="49">
         <v>18</v>
       </c>
-      <c r="C194" s="72" t="s">
+      <c r="C194" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="D194" s="73"/>
-      <c r="E194" s="73"/>
-      <c r="F194" s="73"/>
-      <c r="G194" s="73"/>
-      <c r="H194" s="73"/>
-      <c r="I194" s="73"/>
-      <c r="J194" s="73"/>
-      <c r="K194" s="74"/>
-      <c r="L194" s="75"/>
+      <c r="D194" s="71"/>
+      <c r="E194" s="71"/>
+      <c r="F194" s="71"/>
+      <c r="G194" s="71"/>
+      <c r="H194" s="71"/>
+      <c r="I194" s="71"/>
+      <c r="J194" s="71"/>
+      <c r="K194" s="72"/>
+      <c r="L194" s="73"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C195" s="76" t="s">
+      <c r="C195" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="D195" s="77"/>
-      <c r="E195" s="77"/>
-      <c r="F195" s="77"/>
-      <c r="G195" s="77"/>
-      <c r="H195" s="77"/>
-      <c r="I195" s="77"/>
-      <c r="J195" s="77"/>
-      <c r="K195" s="77"/>
-      <c r="L195" s="78"/>
+      <c r="D195" s="75"/>
+      <c r="E195" s="75"/>
+      <c r="F195" s="75"/>
+      <c r="G195" s="75"/>
+      <c r="H195" s="75"/>
+      <c r="I195" s="75"/>
+      <c r="J195" s="75"/>
+      <c r="K195" s="75"/>
+      <c r="L195" s="76"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C196" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D196" s="85" t="s">
+      <c r="D196" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="E196" s="86"/>
-      <c r="F196" s="87" t="s">
+      <c r="E196" s="78"/>
+      <c r="F196" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="G196" s="87"/>
-      <c r="H196" s="88"/>
+      <c r="G196" s="79"/>
+      <c r="H196" s="80"/>
       <c r="I196" s="33" t="s">
         <v>1</v>
       </c>
       <c r="J196" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K196" s="106" t="s">
+      <c r="K196" s="96" t="s">
         <v>195</v>
       </c>
-      <c r="L196" s="107"/>
+      <c r="L196" s="97"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C197" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D197" s="79" t="s">
+      <c r="D197" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="E197" s="80"/>
-      <c r="F197" s="81" t="s">
+      <c r="E197" s="84"/>
+      <c r="F197" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="G197" s="81"/>
-      <c r="H197" s="82"/>
+      <c r="G197" s="85"/>
+      <c r="H197" s="86"/>
       <c r="I197" s="36" t="s">
         <v>1</v>
       </c>
       <c r="J197" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K197" s="108" t="s">
+      <c r="K197" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="L197" s="109"/>
+      <c r="L197" s="99"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="50"/>
       <c r="C198" s="35"/>
-      <c r="D198" s="79" t="s">
+      <c r="D198" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="E198" s="80"/>
-      <c r="F198" s="81" t="s">
+      <c r="E198" s="84"/>
+      <c r="F198" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="G198" s="81"/>
-      <c r="H198" s="82"/>
+      <c r="G198" s="85"/>
+      <c r="H198" s="86"/>
       <c r="I198" s="36" t="s">
         <v>231</v>
       </c>
       <c r="J198" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K198" s="83"/>
-      <c r="L198" s="84"/>
+      <c r="K198" s="87"/>
+      <c r="L198" s="88"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C199" s="38"/>
-      <c r="D199" s="63" t="s">
+      <c r="A199" s="50"/>
+      <c r="C199" s="35"/>
+      <c r="D199" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="E199" s="64"/>
-      <c r="F199" s="65" t="s">
+      <c r="E199" s="84"/>
+      <c r="F199" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="G199" s="65"/>
-      <c r="H199" s="66"/>
-      <c r="I199" s="39" t="s">
+      <c r="G199" s="85"/>
+      <c r="H199" s="86"/>
+      <c r="I199" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="J199" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="K199" s="67"/>
-      <c r="L199" s="68"/>
-    </row>
-    <row r="200" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C200" s="69" t="s">
+      <c r="J199" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="K199" s="87"/>
+      <c r="L199" s="88"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C200" s="38"/>
+      <c r="D200" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="E200" s="121"/>
+      <c r="F200" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="G200" s="85"/>
+      <c r="H200" s="86"/>
+      <c r="I200" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="J200" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="K200" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="L200" s="88"/>
+    </row>
+    <row r="201" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C201" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D200" s="70"/>
-      <c r="E200" s="70"/>
-      <c r="F200" s="70"/>
-      <c r="G200" s="70"/>
-      <c r="H200" s="70"/>
-      <c r="I200" s="70"/>
-      <c r="J200" s="70"/>
-      <c r="K200" s="70"/>
-      <c r="L200" s="71"/>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C201" s="20" t="s">
+      <c r="D201" s="61"/>
+      <c r="E201" s="61"/>
+      <c r="F201" s="61"/>
+      <c r="G201" s="61"/>
+      <c r="H201" s="61"/>
+      <c r="I201" s="61"/>
+      <c r="J201" s="61"/>
+      <c r="K201" s="61"/>
+      <c r="L201" s="62"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C202" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D201" s="93" t="s">
+      <c r="D202" s="90" t="s">
         <v>142</v>
       </c>
-      <c r="E201" s="93"/>
-      <c r="F201" s="93"/>
-      <c r="G201" s="4"/>
-      <c r="H201" s="93"/>
-      <c r="I201" s="93"/>
-      <c r="J201" s="93"/>
-      <c r="K201" s="8"/>
-      <c r="L201" s="21"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C202" s="27" t="s">
+      <c r="E202" s="90"/>
+      <c r="F202" s="90"/>
+      <c r="G202" s="4"/>
+      <c r="H202" s="90"/>
+      <c r="I202" s="90"/>
+      <c r="J202" s="90"/>
+      <c r="K202" s="8"/>
+      <c r="L202" s="21"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C203" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D202" s="62" t="s">
+      <c r="D203" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="E202" s="62"/>
-      <c r="F202" s="62"/>
-      <c r="G202" s="5" t="s">
+      <c r="E203" s="89"/>
+      <c r="F203" s="89"/>
+      <c r="G203" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H202" s="62" t="s">
+      <c r="H203" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="I202" s="62"/>
-      <c r="J202" s="62"/>
-      <c r="K202" s="9"/>
-      <c r="L202" s="28"/>
-    </row>
-    <row r="203" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C203" s="22" t="s">
+      <c r="I203" s="89"/>
+      <c r="J203" s="89"/>
+      <c r="K203" s="9"/>
+      <c r="L203" s="28"/>
+    </row>
+    <row r="204" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C204" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D203" s="61" t="s">
+      <c r="D204" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="E203" s="61"/>
-      <c r="F203" s="61"/>
-      <c r="G203" s="23" t="s">
+      <c r="E204" s="63"/>
+      <c r="F204" s="63"/>
+      <c r="G204" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H203" s="61" t="s">
+      <c r="H204" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="I203" s="61"/>
-      <c r="J203" s="61"/>
-      <c r="K203" s="24"/>
-      <c r="L203" s="25"/>
-    </row>
-    <row r="204" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="206" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="57">
+      <c r="I204" s="63"/>
+      <c r="J204" s="63"/>
+      <c r="K204" s="24"/>
+      <c r="L204" s="25"/>
+    </row>
+    <row r="205" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="207" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="57">
         <v>19</v>
       </c>
-      <c r="C206" s="72" t="s">
+      <c r="C207" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="D206" s="73"/>
-      <c r="E206" s="73"/>
-      <c r="F206" s="73"/>
-      <c r="G206" s="73"/>
-      <c r="H206" s="73"/>
-      <c r="I206" s="73"/>
-      <c r="J206" s="73"/>
-      <c r="K206" s="74"/>
-      <c r="L206" s="75"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C207" s="76" t="s">
+      <c r="D207" s="71"/>
+      <c r="E207" s="71"/>
+      <c r="F207" s="71"/>
+      <c r="G207" s="71"/>
+      <c r="H207" s="71"/>
+      <c r="I207" s="71"/>
+      <c r="J207" s="71"/>
+      <c r="K207" s="72"/>
+      <c r="L207" s="73"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C208" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="D207" s="77"/>
-      <c r="E207" s="77"/>
-      <c r="F207" s="77"/>
-      <c r="G207" s="77"/>
-      <c r="H207" s="77"/>
-      <c r="I207" s="77"/>
-      <c r="J207" s="77"/>
-      <c r="K207" s="77"/>
-      <c r="L207" s="78"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C208" s="32" t="s">
+      <c r="D208" s="75"/>
+      <c r="E208" s="75"/>
+      <c r="F208" s="75"/>
+      <c r="G208" s="75"/>
+      <c r="H208" s="75"/>
+      <c r="I208" s="75"/>
+      <c r="J208" s="75"/>
+      <c r="K208" s="75"/>
+      <c r="L208" s="76"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C209" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D208" s="85" t="s">
+      <c r="D209" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="E208" s="86"/>
-      <c r="F208" s="87" t="s">
+      <c r="E209" s="78"/>
+      <c r="F209" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="G208" s="87"/>
-      <c r="H208" s="88"/>
-      <c r="I208" s="33" t="s">
+      <c r="G209" s="79"/>
+      <c r="H209" s="80"/>
+      <c r="I209" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J208" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="K208" s="89" t="s">
+      <c r="J209" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K209" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="L208" s="90"/>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A209" s="50"/>
-      <c r="C209" s="38"/>
-      <c r="D209" s="63" t="s">
+      <c r="L209" s="82"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" s="50"/>
+      <c r="C210" s="38"/>
+      <c r="D210" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="E209" s="64"/>
-      <c r="F209" s="65" t="s">
+      <c r="E210" s="65"/>
+      <c r="F210" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="G209" s="65"/>
-      <c r="H209" s="66"/>
-      <c r="I209" s="39" t="s">
+      <c r="G210" s="66"/>
+      <c r="H210" s="67"/>
+      <c r="I210" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="J209" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="K209" s="67"/>
-      <c r="L209" s="68"/>
-    </row>
-    <row r="210" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C210" s="97"/>
-      <c r="D210" s="98"/>
-      <c r="E210" s="98"/>
-      <c r="F210" s="98"/>
-      <c r="G210" s="98"/>
-      <c r="H210" s="98"/>
-      <c r="I210" s="98"/>
-      <c r="J210" s="98"/>
-      <c r="K210" s="98"/>
-      <c r="L210" s="99"/>
-    </row>
-    <row r="211" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="212" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="213" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="57">
+      <c r="J210" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K210" s="68"/>
+      <c r="L210" s="69"/>
+    </row>
+    <row r="211" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C211" s="91"/>
+      <c r="D211" s="92"/>
+      <c r="E211" s="92"/>
+      <c r="F211" s="92"/>
+      <c r="G211" s="92"/>
+      <c r="H211" s="92"/>
+      <c r="I211" s="92"/>
+      <c r="J211" s="92"/>
+      <c r="K211" s="92"/>
+      <c r="L211" s="93"/>
+    </row>
+    <row r="212" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="213" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="214" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="57">
         <v>20</v>
       </c>
-      <c r="C213" s="72" t="s">
+      <c r="C214" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="D213" s="73"/>
-      <c r="E213" s="73"/>
-      <c r="F213" s="73"/>
-      <c r="G213" s="73"/>
-      <c r="H213" s="73"/>
-      <c r="I213" s="73"/>
-      <c r="J213" s="73"/>
-      <c r="K213" s="74"/>
-      <c r="L213" s="75"/>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C214" s="76" t="s">
+      <c r="D214" s="71"/>
+      <c r="E214" s="71"/>
+      <c r="F214" s="71"/>
+      <c r="G214" s="71"/>
+      <c r="H214" s="71"/>
+      <c r="I214" s="71"/>
+      <c r="J214" s="71"/>
+      <c r="K214" s="72"/>
+      <c r="L214" s="73"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C215" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="D214" s="77"/>
-      <c r="E214" s="77"/>
-      <c r="F214" s="77"/>
-      <c r="G214" s="77"/>
-      <c r="H214" s="77"/>
-      <c r="I214" s="77"/>
-      <c r="J214" s="77"/>
-      <c r="K214" s="77"/>
-      <c r="L214" s="78"/>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C215" s="32" t="s">
+      <c r="D215" s="75"/>
+      <c r="E215" s="75"/>
+      <c r="F215" s="75"/>
+      <c r="G215" s="75"/>
+      <c r="H215" s="75"/>
+      <c r="I215" s="75"/>
+      <c r="J215" s="75"/>
+      <c r="K215" s="75"/>
+      <c r="L215" s="76"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C216" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D215" s="85" t="s">
+      <c r="D216" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="E215" s="86"/>
-      <c r="F215" s="87" t="s">
+      <c r="E216" s="78"/>
+      <c r="F216" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="G215" s="87"/>
-      <c r="H215" s="88"/>
-      <c r="I215" s="33" t="s">
+      <c r="G216" s="79"/>
+      <c r="H216" s="80"/>
+      <c r="I216" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J215" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="K215" s="89" t="s">
+      <c r="J216" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K216" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="L215" s="90"/>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C216" s="35" t="s">
+      <c r="L216" s="82"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C217" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="D216" s="79" t="s">
+      <c r="D217" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="E216" s="80"/>
-      <c r="F216" s="81" t="s">
+      <c r="E217" s="84"/>
+      <c r="F217" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="G216" s="81"/>
-      <c r="H216" s="82"/>
-      <c r="I216" s="36" t="s">
+      <c r="G217" s="85"/>
+      <c r="H217" s="86"/>
+      <c r="I217" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="J216" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="K216" s="83"/>
-      <c r="L216" s="84"/>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C217" s="35"/>
-      <c r="D217" s="79" t="s">
+      <c r="J217" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K217" s="87"/>
+      <c r="L217" s="88"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C218" s="35"/>
+      <c r="D218" s="83" t="s">
         <v>242</v>
       </c>
-      <c r="E217" s="80"/>
-      <c r="F217" s="81" t="s">
+      <c r="E218" s="84"/>
+      <c r="F218" s="85" t="s">
         <v>243</v>
       </c>
-      <c r="G217" s="81"/>
-      <c r="H217" s="82"/>
-      <c r="I217" s="36" t="s">
+      <c r="G218" s="85"/>
+      <c r="H218" s="86"/>
+      <c r="I218" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="J217" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="K217" s="83"/>
-      <c r="L217" s="84"/>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C218" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="D218" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="E218" s="80"/>
-      <c r="F218" s="81" t="s">
-        <v>133</v>
-      </c>
-      <c r="G218" s="81"/>
-      <c r="H218" s="82"/>
-      <c r="I218" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="J218" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="K218" s="83" t="s">
-        <v>195</v>
-      </c>
-      <c r="L218" s="84"/>
+      <c r="J218" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="K218" s="87"/>
+      <c r="L218" s="88"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C219" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D219" s="79" t="s">
-        <v>151</v>
-      </c>
-      <c r="E219" s="80"/>
-      <c r="F219" s="81" t="s">
-        <v>158</v>
-      </c>
-      <c r="G219" s="81"/>
-      <c r="H219" s="82"/>
+        <v>210</v>
+      </c>
+      <c r="D219" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="E219" s="84"/>
+      <c r="F219" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="G219" s="85"/>
+      <c r="H219" s="86"/>
       <c r="I219" s="36" t="s">
         <v>1</v>
       </c>
       <c r="J219" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K219" s="83" t="s">
+      <c r="K219" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="L219" s="84"/>
+      <c r="L219" s="88"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C220" s="35"/>
-      <c r="D220" s="79" t="s">
+      <c r="C220" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D220" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="E220" s="84"/>
+      <c r="F220" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="G220" s="85"/>
+      <c r="H220" s="86"/>
+      <c r="I220" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J220" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K220" s="87" t="s">
+        <v>195</v>
+      </c>
+      <c r="L220" s="88"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C221" s="35"/>
+      <c r="D221" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="E220" s="80"/>
-      <c r="F220" s="81" t="s">
+      <c r="E221" s="84"/>
+      <c r="F221" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="G220" s="81"/>
-      <c r="H220" s="82"/>
-      <c r="I220" s="36" t="s">
+      <c r="G221" s="85"/>
+      <c r="H221" s="86"/>
+      <c r="I221" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="J220" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="K220" s="83"/>
-      <c r="L220" s="84"/>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A221" s="50"/>
-      <c r="C221" s="38" t="s">
+      <c r="J221" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K221" s="87"/>
+      <c r="L221" s="88"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A222" s="50"/>
+      <c r="C222" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D221" s="63" t="s">
+      <c r="D222" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="E221" s="64"/>
-      <c r="F221" s="65" t="s">
+      <c r="E222" s="65"/>
+      <c r="F222" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="G221" s="65"/>
-      <c r="H221" s="66"/>
-      <c r="I221" s="39" t="s">
+      <c r="G222" s="66"/>
+      <c r="H222" s="67"/>
+      <c r="I222" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J221" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="K221" s="67" t="s">
+      <c r="J222" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K222" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="L221" s="68"/>
-    </row>
-    <row r="222" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C222" s="69" t="s">
+      <c r="L222" s="69"/>
+    </row>
+    <row r="223" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C223" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D222" s="70"/>
-      <c r="E222" s="70"/>
-      <c r="F222" s="70"/>
-      <c r="G222" s="70"/>
-      <c r="H222" s="70"/>
-      <c r="I222" s="70"/>
-      <c r="J222" s="70"/>
-      <c r="K222" s="70"/>
-      <c r="L222" s="71"/>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C223" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="D223" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="E223" s="62"/>
-      <c r="F223" s="62"/>
-      <c r="G223" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="H223" s="62"/>
-      <c r="I223" s="62"/>
-      <c r="J223" s="62"/>
-      <c r="K223" s="8"/>
-      <c r="L223" s="21"/>
+      <c r="D223" s="61"/>
+      <c r="E223" s="61"/>
+      <c r="F223" s="61"/>
+      <c r="G223" s="61"/>
+      <c r="H223" s="61"/>
+      <c r="I223" s="61"/>
+      <c r="J223" s="61"/>
+      <c r="K223" s="61"/>
+      <c r="L223" s="62"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C224" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D224" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="E224" s="62"/>
-      <c r="F224" s="62"/>
+      <c r="D224" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="E224" s="89"/>
+      <c r="F224" s="89"/>
       <c r="G224" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="H224" s="17"/>
-      <c r="I224" s="6"/>
-      <c r="J224" s="6"/>
-      <c r="K224" s="9"/>
-      <c r="L224" s="28"/>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H224" s="89"/>
+      <c r="I224" s="89"/>
+      <c r="J224" s="89"/>
+      <c r="K224" s="8"/>
+      <c r="L224" s="21"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C225" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D225" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="D225" s="89" t="s">
         <v>132</v>
       </c>
-      <c r="E225" s="62"/>
-      <c r="F225" s="62"/>
+      <c r="E225" s="89"/>
+      <c r="F225" s="89"/>
       <c r="G225" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H225" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="I225" s="62"/>
-      <c r="J225" s="62"/>
+        <v>180</v>
+      </c>
+      <c r="H225" s="17"/>
+      <c r="I225" s="6"/>
+      <c r="J225" s="6"/>
       <c r="K225" s="9"/>
       <c r="L225" s="28"/>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C226" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D226" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="E226" s="62"/>
-      <c r="F226" s="62"/>
+      <c r="D226" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="E226" s="89"/>
+      <c r="F226" s="89"/>
       <c r="G226" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H226" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="I226" s="62"/>
-      <c r="J226" s="62"/>
+      <c r="H226" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="I226" s="89"/>
+      <c r="J226" s="89"/>
       <c r="K226" s="9"/>
       <c r="L226" s="28"/>
     </row>
-    <row r="227" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C227" s="22" t="s">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C227" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D227" s="61" t="s">
+      <c r="D227" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="E227" s="89"/>
+      <c r="F227" s="89"/>
+      <c r="G227" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H227" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="I227" s="89"/>
+      <c r="J227" s="89"/>
+      <c r="K227" s="9"/>
+      <c r="L227" s="28"/>
+    </row>
+    <row r="228" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C228" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D228" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="E227" s="61"/>
-      <c r="F227" s="61"/>
-      <c r="G227" s="23" t="s">
+      <c r="E228" s="63"/>
+      <c r="F228" s="63"/>
+      <c r="G228" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H227" s="61" t="s">
+      <c r="H228" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="I227" s="61"/>
-      <c r="J227" s="61"/>
-      <c r="K227" s="24"/>
-      <c r="L227" s="25"/>
-    </row>
-    <row r="228" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="229" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="230" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="57">
+      <c r="I228" s="63"/>
+      <c r="J228" s="63"/>
+      <c r="K228" s="24"/>
+      <c r="L228" s="25"/>
+    </row>
+    <row r="229" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="230" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="231" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="57">
         <v>21</v>
       </c>
-      <c r="C230" s="72" t="s">
+      <c r="C231" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="D230" s="73"/>
-      <c r="E230" s="73"/>
-      <c r="F230" s="73"/>
-      <c r="G230" s="73"/>
-      <c r="H230" s="73"/>
-      <c r="I230" s="73"/>
-      <c r="J230" s="73"/>
-      <c r="K230" s="74"/>
-      <c r="L230" s="75"/>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C231" s="76" t="s">
+      <c r="D231" s="71"/>
+      <c r="E231" s="71"/>
+      <c r="F231" s="71"/>
+      <c r="G231" s="71"/>
+      <c r="H231" s="71"/>
+      <c r="I231" s="71"/>
+      <c r="J231" s="71"/>
+      <c r="K231" s="72"/>
+      <c r="L231" s="73"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C232" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="D231" s="77"/>
-      <c r="E231" s="77"/>
-      <c r="F231" s="77"/>
-      <c r="G231" s="77"/>
-      <c r="H231" s="77"/>
-      <c r="I231" s="77"/>
-      <c r="J231" s="77"/>
-      <c r="K231" s="77"/>
-      <c r="L231" s="78"/>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A232" s="50"/>
-      <c r="C232" s="32" t="s">
+      <c r="D232" s="75"/>
+      <c r="E232" s="75"/>
+      <c r="F232" s="75"/>
+      <c r="G232" s="75"/>
+      <c r="H232" s="75"/>
+      <c r="I232" s="75"/>
+      <c r="J232" s="75"/>
+      <c r="K232" s="75"/>
+      <c r="L232" s="76"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A233" s="50"/>
+      <c r="C233" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D232" s="85" t="s">
+      <c r="D233" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="E232" s="86"/>
-      <c r="F232" s="87" t="s">
+      <c r="E233" s="78"/>
+      <c r="F233" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="G232" s="87"/>
-      <c r="H232" s="88"/>
-      <c r="I232" s="33" t="s">
+      <c r="G233" s="79"/>
+      <c r="H233" s="80"/>
+      <c r="I233" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J232" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="K232" s="89" t="s">
+      <c r="J233" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K233" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="L232" s="90"/>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A233" s="50"/>
-      <c r="C233" s="38"/>
-      <c r="D233" s="63" t="s">
+      <c r="L233" s="82"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A234" s="50"/>
+      <c r="C234" s="38"/>
+      <c r="D234" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="E233" s="64"/>
-      <c r="F233" s="65" t="s">
+      <c r="E234" s="65"/>
+      <c r="F234" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="G233" s="65"/>
-      <c r="H233" s="66"/>
-      <c r="I233" s="39" t="s">
+      <c r="G234" s="66"/>
+      <c r="H234" s="67"/>
+      <c r="I234" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="J233" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="K233" s="67"/>
-      <c r="L233" s="68"/>
-    </row>
-    <row r="234" spans="1:16" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="50"/>
-      <c r="C234" s="97"/>
-      <c r="D234" s="98"/>
-      <c r="E234" s="98"/>
-      <c r="F234" s="98"/>
-      <c r="G234" s="98"/>
-      <c r="H234" s="98"/>
-      <c r="I234" s="98"/>
-      <c r="J234" s="98"/>
-      <c r="K234" s="98"/>
-      <c r="L234" s="99"/>
-    </row>
-    <row r="235" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J234" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K234" s="68"/>
+      <c r="L234" s="69"/>
+    </row>
+    <row r="235" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="50"/>
-    </row>
-    <row r="236" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C235" s="91"/>
+      <c r="D235" s="92"/>
+      <c r="E235" s="92"/>
+      <c r="F235" s="92"/>
+      <c r="G235" s="92"/>
+      <c r="H235" s="92"/>
+      <c r="I235" s="92"/>
+      <c r="J235" s="92"/>
+      <c r="K235" s="92"/>
+      <c r="L235" s="93"/>
+    </row>
+    <row r="236" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A236" s="50"/>
     </row>
-    <row r="237" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="50"/>
-      <c r="B237" s="49">
+    </row>
+    <row r="238" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="50"/>
+      <c r="B238" s="49">
         <v>22</v>
       </c>
-      <c r="C237" s="72" t="s">
+      <c r="C238" s="70" t="s">
         <v>175</v>
       </c>
-      <c r="D237" s="73"/>
-      <c r="E237" s="73"/>
-      <c r="F237" s="73"/>
-      <c r="G237" s="73"/>
-      <c r="H237" s="73"/>
-      <c r="I237" s="73"/>
-      <c r="J237" s="73"/>
-      <c r="K237" s="74"/>
-      <c r="L237" s="75"/>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A238" s="50"/>
-      <c r="C238" s="76" t="s">
+      <c r="D238" s="71"/>
+      <c r="E238" s="71"/>
+      <c r="F238" s="71"/>
+      <c r="G238" s="71"/>
+      <c r="H238" s="71"/>
+      <c r="I238" s="71"/>
+      <c r="J238" s="71"/>
+      <c r="K238" s="72"/>
+      <c r="L238" s="73"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A239" s="50"/>
+      <c r="C239" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="D238" s="77"/>
-      <c r="E238" s="77"/>
-      <c r="F238" s="77"/>
-      <c r="G238" s="77"/>
-      <c r="H238" s="77"/>
-      <c r="I238" s="77"/>
-      <c r="J238" s="77"/>
-      <c r="K238" s="77"/>
-      <c r="L238" s="78"/>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A239" s="50"/>
-      <c r="C239" s="32" t="s">
+      <c r="D239" s="75"/>
+      <c r="E239" s="75"/>
+      <c r="F239" s="75"/>
+      <c r="G239" s="75"/>
+      <c r="H239" s="75"/>
+      <c r="I239" s="75"/>
+      <c r="J239" s="75"/>
+      <c r="K239" s="75"/>
+      <c r="L239" s="76"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A240" s="50"/>
+      <c r="C240" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D239" s="85" t="s">
+      <c r="D240" s="77" t="s">
         <v>228</v>
       </c>
-      <c r="E239" s="86"/>
-      <c r="F239" s="87" t="s">
+      <c r="E240" s="78"/>
+      <c r="F240" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="G239" s="87"/>
-      <c r="H239" s="88"/>
-      <c r="I239" s="33" t="s">
+      <c r="G240" s="79"/>
+      <c r="H240" s="80"/>
+      <c r="I240" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J239" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="K239" s="89" t="s">
+      <c r="J240" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K240" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="L239" s="90"/>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A240" s="50"/>
-      <c r="C240" s="35" t="s">
+      <c r="L240" s="82"/>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A241" s="50"/>
+      <c r="C241" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="D240" s="79" t="s">
+      <c r="D241" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="E240" s="80"/>
-      <c r="F240" s="81" t="s">
+      <c r="E241" s="84"/>
+      <c r="F241" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="G240" s="81"/>
-      <c r="H240" s="82"/>
-      <c r="I240" s="36" t="s">
+      <c r="G241" s="85"/>
+      <c r="H241" s="86"/>
+      <c r="I241" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J240" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="K240" s="83" t="s">
+      <c r="J241" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K241" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="L240" s="84"/>
-      <c r="P240" t="s">
+      <c r="L241" s="88"/>
+      <c r="P241" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A241" s="50"/>
-      <c r="C241" s="38" t="s">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A242" s="50"/>
+      <c r="C242" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D241" s="63" t="s">
+      <c r="D242" s="64" t="s">
         <v>229</v>
       </c>
-      <c r="E241" s="64"/>
-      <c r="F241" s="65" t="s">
+      <c r="E242" s="65"/>
+      <c r="F242" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="G241" s="65"/>
-      <c r="H241" s="66"/>
-      <c r="I241" s="39" t="s">
+      <c r="G242" s="66"/>
+      <c r="H242" s="67"/>
+      <c r="I242" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J241" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="K241" s="67" t="s">
+      <c r="J242" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K242" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="L241" s="68"/>
-    </row>
-    <row r="242" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="50"/>
-      <c r="C242" s="69" t="s">
+      <c r="L242" s="69"/>
+    </row>
+    <row r="243" spans="1:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="50"/>
+      <c r="C243" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D242" s="70"/>
-      <c r="E242" s="70"/>
-      <c r="F242" s="70"/>
-      <c r="G242" s="70"/>
-      <c r="H242" s="70"/>
-      <c r="I242" s="70"/>
-      <c r="J242" s="70"/>
-      <c r="K242" s="70"/>
-      <c r="L242" s="71"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A243" s="50"/>
-      <c r="C243" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="D243" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="E243" s="62"/>
-      <c r="F243" s="62"/>
-      <c r="G243" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="H243" s="62"/>
-      <c r="I243" s="62"/>
-      <c r="J243" s="62"/>
-      <c r="K243" s="9"/>
-      <c r="L243" s="28"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D243" s="61"/>
+      <c r="E243" s="61"/>
+      <c r="F243" s="61"/>
+      <c r="G243" s="61"/>
+      <c r="H243" s="61"/>
+      <c r="I243" s="61"/>
+      <c r="J243" s="61"/>
+      <c r="K243" s="61"/>
+      <c r="L243" s="62"/>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="50"/>
       <c r="C244" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D244" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="D244" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="E244" s="62"/>
-      <c r="F244" s="62"/>
+      <c r="E244" s="89"/>
+      <c r="F244" s="89"/>
       <c r="G244" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H244" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="I244" s="62"/>
-      <c r="J244" s="62"/>
+        <v>180</v>
+      </c>
+      <c r="H244" s="89"/>
+      <c r="I244" s="89"/>
+      <c r="J244" s="89"/>
       <c r="K244" s="9"/>
       <c r="L244" s="28"/>
     </row>
-    <row r="245" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" s="50"/>
-      <c r="C245" s="22" t="s">
+      <c r="C245" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D245" s="61" t="s">
+      <c r="D245" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="E245" s="89"/>
+      <c r="F245" s="89"/>
+      <c r="G245" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H245" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="I245" s="89"/>
+      <c r="J245" s="89"/>
+      <c r="K245" s="9"/>
+      <c r="L245" s="28"/>
+    </row>
+    <row r="246" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="50"/>
+      <c r="C246" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D246" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="E245" s="61"/>
-      <c r="F245" s="61"/>
-      <c r="G245" s="23" t="s">
+      <c r="E246" s="63"/>
+      <c r="F246" s="63"/>
+      <c r="G246" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H245" s="61" t="s">
+      <c r="H246" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="I245" s="61"/>
-      <c r="J245" s="61"/>
-      <c r="K245" s="24"/>
-      <c r="L245" s="25"/>
-    </row>
-    <row r="246" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="50"/>
-    </row>
-    <row r="247" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I246" s="63"/>
+      <c r="J246" s="63"/>
+      <c r="K246" s="24"/>
+      <c r="L246" s="25"/>
+    </row>
+    <row r="247" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A247" s="50"/>
     </row>
-    <row r="248" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="50"/>
-      <c r="B248" s="49">
+    </row>
+    <row r="249" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="50"/>
+      <c r="B249" s="49">
         <v>23</v>
       </c>
-      <c r="C248" s="72" t="s">
+      <c r="C249" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="D248" s="73"/>
-      <c r="E248" s="73"/>
-      <c r="F248" s="73"/>
-      <c r="G248" s="73"/>
-      <c r="H248" s="73"/>
-      <c r="I248" s="73"/>
-      <c r="J248" s="73"/>
-      <c r="K248" s="74"/>
-      <c r="L248" s="75"/>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A249" s="50"/>
-      <c r="C249" s="76" t="s">
+      <c r="D249" s="71"/>
+      <c r="E249" s="71"/>
+      <c r="F249" s="71"/>
+      <c r="G249" s="71"/>
+      <c r="H249" s="71"/>
+      <c r="I249" s="71"/>
+      <c r="J249" s="71"/>
+      <c r="K249" s="72"/>
+      <c r="L249" s="73"/>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A250" s="50"/>
+      <c r="C250" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="D249" s="77"/>
-      <c r="E249" s="77"/>
-      <c r="F249" s="77"/>
-      <c r="G249" s="77"/>
-      <c r="H249" s="77"/>
-      <c r="I249" s="77"/>
-      <c r="J249" s="77"/>
-      <c r="K249" s="77"/>
-      <c r="L249" s="78"/>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A250" s="50"/>
-      <c r="C250" s="32" t="s">
+      <c r="D250" s="75"/>
+      <c r="E250" s="75"/>
+      <c r="F250" s="75"/>
+      <c r="G250" s="75"/>
+      <c r="H250" s="75"/>
+      <c r="I250" s="75"/>
+      <c r="J250" s="75"/>
+      <c r="K250" s="75"/>
+      <c r="L250" s="76"/>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A251" s="50"/>
+      <c r="C251" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D250" s="85" t="s">
+      <c r="D251" s="77" t="s">
         <v>229</v>
       </c>
-      <c r="E250" s="86"/>
-      <c r="F250" s="87" t="s">
+      <c r="E251" s="78"/>
+      <c r="F251" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="G250" s="87"/>
-      <c r="H250" s="88"/>
-      <c r="I250" s="33" t="s">
+      <c r="G251" s="79"/>
+      <c r="H251" s="80"/>
+      <c r="I251" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J250" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="K250" s="89" t="s">
+      <c r="J251" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K251" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="L250" s="90"/>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A251" s="50"/>
-      <c r="C251" s="38"/>
-      <c r="D251" s="63" t="s">
+      <c r="L251" s="82"/>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A252" s="50"/>
+      <c r="C252" s="38"/>
+      <c r="D252" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="E251" s="64"/>
-      <c r="F251" s="65" t="s">
+      <c r="E252" s="65"/>
+      <c r="F252" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="G251" s="65"/>
-      <c r="H251" s="66"/>
-      <c r="I251" s="39" t="s">
+      <c r="G252" s="66"/>
+      <c r="H252" s="67"/>
+      <c r="I252" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="J251" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="K251" s="67"/>
-      <c r="L251" s="68"/>
-    </row>
-    <row r="252" spans="1:12" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="50"/>
-      <c r="C252" s="97"/>
-      <c r="D252" s="98"/>
-      <c r="E252" s="98"/>
-      <c r="F252" s="98"/>
-      <c r="G252" s="98"/>
-      <c r="H252" s="98"/>
-      <c r="I252" s="98"/>
-      <c r="J252" s="98"/>
-      <c r="K252" s="98"/>
-      <c r="L252" s="99"/>
-    </row>
-    <row r="253" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J252" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K252" s="68"/>
+      <c r="L252" s="69"/>
+    </row>
+    <row r="253" spans="1:16" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="50"/>
-    </row>
-    <row r="254" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C253" s="91"/>
+      <c r="D253" s="92"/>
+      <c r="E253" s="92"/>
+      <c r="F253" s="92"/>
+      <c r="G253" s="92"/>
+      <c r="H253" s="92"/>
+      <c r="I253" s="92"/>
+      <c r="J253" s="92"/>
+      <c r="K253" s="92"/>
+      <c r="L253" s="93"/>
+    </row>
+    <row r="254" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A254" s="50"/>
     </row>
-    <row r="255" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="50"/>
-      <c r="B255" s="49">
+    </row>
+    <row r="256" spans="1:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="50"/>
+      <c r="B256" s="49">
         <v>24</v>
       </c>
-      <c r="C255" s="72" t="s">
+      <c r="C256" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="D255" s="73"/>
-      <c r="E255" s="73"/>
-      <c r="F255" s="73"/>
-      <c r="G255" s="73"/>
-      <c r="H255" s="73"/>
-      <c r="I255" s="73"/>
-      <c r="J255" s="73"/>
-      <c r="K255" s="74"/>
-      <c r="L255" s="75"/>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A256" s="50"/>
-      <c r="C256" s="76" t="s">
-        <v>182</v>
-      </c>
-      <c r="D256" s="77"/>
-      <c r="E256" s="77"/>
-      <c r="F256" s="77"/>
-      <c r="G256" s="77"/>
-      <c r="H256" s="77"/>
-      <c r="I256" s="77"/>
-      <c r="J256" s="77"/>
-      <c r="K256" s="77"/>
-      <c r="L256" s="78"/>
+      <c r="D256" s="71"/>
+      <c r="E256" s="71"/>
+      <c r="F256" s="71"/>
+      <c r="G256" s="71"/>
+      <c r="H256" s="71"/>
+      <c r="I256" s="71"/>
+      <c r="J256" s="71"/>
+      <c r="K256" s="72"/>
+      <c r="L256" s="73"/>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="50"/>
-      <c r="C257" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D257" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="E257" s="86"/>
-      <c r="F257" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G257" s="87"/>
-      <c r="H257" s="88"/>
-      <c r="I257" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="J257" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="K257" s="89" t="s">
-        <v>194</v>
-      </c>
-      <c r="L257" s="90"/>
+      <c r="C257" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="D257" s="75"/>
+      <c r="E257" s="75"/>
+      <c r="F257" s="75"/>
+      <c r="G257" s="75"/>
+      <c r="H257" s="75"/>
+      <c r="I257" s="75"/>
+      <c r="J257" s="75"/>
+      <c r="K257" s="75"/>
+      <c r="L257" s="76"/>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="50"/>
-      <c r="C258" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="D258" s="79" t="s">
-        <v>181</v>
-      </c>
-      <c r="E258" s="80"/>
-      <c r="F258" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="G258" s="81"/>
-      <c r="H258" s="82"/>
-      <c r="I258" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="J258" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="K258" s="83"/>
-      <c r="L258" s="84"/>
+      <c r="C258" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D258" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="E258" s="78"/>
+      <c r="F258" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="G258" s="79"/>
+      <c r="H258" s="80"/>
+      <c r="I258" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J258" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K258" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="L258" s="82"/>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="50"/>
-      <c r="C259" s="35"/>
-      <c r="D259" s="79" t="s">
-        <v>192</v>
-      </c>
-      <c r="E259" s="80"/>
-      <c r="F259" s="81" t="s">
-        <v>193</v>
-      </c>
-      <c r="G259" s="81"/>
-      <c r="H259" s="82"/>
+      <c r="C259" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="D259" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="E259" s="84"/>
+      <c r="F259" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="G259" s="85"/>
+      <c r="H259" s="86"/>
       <c r="I259" s="36" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="J259" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K259" s="83" t="s">
-        <v>196</v>
-      </c>
-      <c r="L259" s="84"/>
+      <c r="K259" s="87"/>
+      <c r="L259" s="88"/>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="50"/>
       <c r="C260" s="35"/>
-      <c r="D260" s="79" t="s">
-        <v>191</v>
-      </c>
-      <c r="E260" s="80"/>
-      <c r="F260" s="81" t="s">
-        <v>186</v>
-      </c>
-      <c r="G260" s="81"/>
-      <c r="H260" s="82"/>
+      <c r="D260" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="E260" s="84"/>
+      <c r="F260" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="G260" s="85"/>
+      <c r="H260" s="86"/>
       <c r="I260" s="36" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="J260" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K260" s="83"/>
-      <c r="L260" s="84"/>
+      <c r="K260" s="87" t="s">
+        <v>196</v>
+      </c>
+      <c r="L260" s="88"/>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="50"/>
       <c r="C261" s="35"/>
-      <c r="D261" s="79" t="s">
-        <v>198</v>
-      </c>
-      <c r="E261" s="80"/>
-      <c r="F261" s="81" t="s">
-        <v>199</v>
-      </c>
-      <c r="G261" s="81"/>
-      <c r="H261" s="82"/>
+      <c r="D261" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="E261" s="84"/>
+      <c r="F261" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="G261" s="85"/>
+      <c r="H261" s="86"/>
       <c r="I261" s="36" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="J261" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K261" s="83" t="s">
-        <v>196</v>
-      </c>
-      <c r="L261" s="84"/>
+      <c r="K261" s="87"/>
+      <c r="L261" s="88"/>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="50"/>
       <c r="C262" s="35"/>
-      <c r="D262" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="E262" s="80"/>
-      <c r="F262" s="81" t="s">
-        <v>185</v>
-      </c>
-      <c r="G262" s="81"/>
-      <c r="H262" s="82"/>
+      <c r="D262" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="E262" s="84"/>
+      <c r="F262" s="85" t="s">
+        <v>199</v>
+      </c>
+      <c r="G262" s="85"/>
+      <c r="H262" s="86"/>
       <c r="I262" s="36" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="J262" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K262" s="83"/>
-      <c r="L262" s="84"/>
+      <c r="K262" s="87" t="s">
+        <v>196</v>
+      </c>
+      <c r="L262" s="88"/>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="50"/>
       <c r="C263" s="35"/>
-      <c r="D263" s="79" t="s">
-        <v>204</v>
-      </c>
-      <c r="E263" s="80"/>
-      <c r="F263" s="81" t="s">
-        <v>203</v>
-      </c>
-      <c r="G263" s="81"/>
-      <c r="H263" s="82"/>
+      <c r="D263" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="E263" s="84"/>
+      <c r="F263" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="G263" s="85"/>
+      <c r="H263" s="86"/>
       <c r="I263" s="36" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="J263" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K263" s="83" t="s">
-        <v>196</v>
-      </c>
-      <c r="L263" s="84"/>
+      <c r="K263" s="87"/>
+      <c r="L263" s="88"/>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="50"/>
       <c r="C264" s="35"/>
-      <c r="D264" s="79" t="s">
-        <v>200</v>
-      </c>
-      <c r="E264" s="80"/>
-      <c r="F264" s="81" t="s">
-        <v>201</v>
-      </c>
-      <c r="G264" s="81"/>
-      <c r="H264" s="82"/>
+      <c r="D264" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="E264" s="84"/>
+      <c r="F264" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="G264" s="85"/>
+      <c r="H264" s="86"/>
       <c r="I264" s="36" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="J264" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K264" s="83"/>
-      <c r="L264" s="84"/>
+      <c r="K264" s="87" t="s">
+        <v>196</v>
+      </c>
+      <c r="L264" s="88"/>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="50"/>
-      <c r="C265" s="38"/>
-      <c r="D265" s="63" t="s">
+      <c r="C265" s="35"/>
+      <c r="D265" s="83" t="s">
+        <v>200</v>
+      </c>
+      <c r="E265" s="84"/>
+      <c r="F265" s="85" t="s">
+        <v>201</v>
+      </c>
+      <c r="G265" s="85"/>
+      <c r="H265" s="86"/>
+      <c r="I265" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="J265" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K265" s="87"/>
+      <c r="L265" s="88"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A266" s="50"/>
+      <c r="C266" s="38"/>
+      <c r="D266" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="E265" s="64"/>
-      <c r="F265" s="65" t="s">
+      <c r="E266" s="65"/>
+      <c r="F266" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="G265" s="65"/>
-      <c r="H265" s="66"/>
-      <c r="I265" s="39" t="s">
+      <c r="G266" s="66"/>
+      <c r="H266" s="67"/>
+      <c r="I266" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="J265" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="K265" s="67" t="s">
+      <c r="J266" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K266" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="L265" s="68"/>
-    </row>
-    <row r="266" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="50"/>
-      <c r="C266" s="69" t="s">
+      <c r="L266" s="69"/>
+    </row>
+    <row r="267" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="50"/>
+      <c r="C267" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D266" s="70"/>
-      <c r="E266" s="70"/>
-      <c r="F266" s="70"/>
-      <c r="G266" s="70"/>
-      <c r="H266" s="70"/>
-      <c r="I266" s="70"/>
-      <c r="J266" s="70"/>
-      <c r="K266" s="70"/>
-      <c r="L266" s="71"/>
-    </row>
-    <row r="267" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="50"/>
-      <c r="C267" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D267" s="61" t="s">
-        <v>181</v>
-      </c>
+      <c r="D267" s="61"/>
       <c r="E267" s="61"/>
       <c r="F267" s="61"/>
-      <c r="G267" s="23" t="s">
-        <v>180</v>
-      </c>
+      <c r="G267" s="61"/>
       <c r="H267" s="61"/>
       <c r="I267" s="61"/>
       <c r="J267" s="61"/>
-      <c r="K267" s="24"/>
-      <c r="L267" s="25"/>
-    </row>
-    <row r="268" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K267" s="61"/>
+      <c r="L267" s="62"/>
+    </row>
+    <row r="268" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="50"/>
+      <c r="C268" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D268" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="E268" s="63"/>
+      <c r="F268" s="63"/>
+      <c r="G268" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H268" s="63"/>
+      <c r="I268" s="63"/>
+      <c r="J268" s="63"/>
+      <c r="K268" s="24"/>
+      <c r="L268" s="25"/>
+    </row>
+    <row r="269" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="466">
-    <mergeCell ref="C177:L177"/>
-    <mergeCell ref="D178:F178"/>
-    <mergeCell ref="H178:J178"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="F176:H176"/>
-    <mergeCell ref="K176:L176"/>
-    <mergeCell ref="C172:L172"/>
-    <mergeCell ref="C173:L173"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="F174:H174"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="F175:H175"/>
-    <mergeCell ref="K175:L175"/>
-    <mergeCell ref="D267:F267"/>
-    <mergeCell ref="H267:J267"/>
-    <mergeCell ref="F263:H263"/>
-    <mergeCell ref="K263:L263"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="H137:J137"/>
-    <mergeCell ref="D225:F225"/>
-    <mergeCell ref="H225:J225"/>
-    <mergeCell ref="D224:F224"/>
-    <mergeCell ref="K259:L259"/>
-    <mergeCell ref="K260:L260"/>
-    <mergeCell ref="K261:L261"/>
-    <mergeCell ref="K264:L264"/>
-    <mergeCell ref="D261:E261"/>
-    <mergeCell ref="F261:H261"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="F264:H264"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="F260:H260"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="C266:L266"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="F265:H265"/>
-    <mergeCell ref="K265:L265"/>
-    <mergeCell ref="D262:E262"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="K262:L262"/>
-    <mergeCell ref="C255:L255"/>
-    <mergeCell ref="C256:L256"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="F257:H257"/>
-    <mergeCell ref="K257:L257"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="F258:H258"/>
-    <mergeCell ref="K258:L258"/>
-    <mergeCell ref="D245:F245"/>
-    <mergeCell ref="H245:J245"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="F239:H239"/>
-    <mergeCell ref="D243:F243"/>
-    <mergeCell ref="H243:J243"/>
-    <mergeCell ref="C242:L242"/>
-    <mergeCell ref="D244:F244"/>
-    <mergeCell ref="H244:J244"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="F241:H241"/>
-    <mergeCell ref="K241:L241"/>
-    <mergeCell ref="K240:L240"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="F240:H240"/>
-    <mergeCell ref="K239:L239"/>
-    <mergeCell ref="C237:L237"/>
-    <mergeCell ref="C238:L238"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="F166:H166"/>
-    <mergeCell ref="K166:L166"/>
-    <mergeCell ref="C167:L167"/>
-    <mergeCell ref="D168:F168"/>
-    <mergeCell ref="H168:J168"/>
-    <mergeCell ref="D233:E233"/>
-    <mergeCell ref="F233:H233"/>
-    <mergeCell ref="K233:L233"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="F216:H216"/>
-    <mergeCell ref="K216:L216"/>
-    <mergeCell ref="C230:L230"/>
-    <mergeCell ref="C222:L222"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="H223:J223"/>
-    <mergeCell ref="D226:F226"/>
-    <mergeCell ref="H226:J226"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="H227:J227"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="F221:H221"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="F251:H251"/>
-    <mergeCell ref="K251:L251"/>
-    <mergeCell ref="C252:L252"/>
-    <mergeCell ref="C156:L156"/>
-    <mergeCell ref="C157:L157"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="F158:H158"/>
-    <mergeCell ref="K158:L158"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="C234:L234"/>
-    <mergeCell ref="C248:L248"/>
-    <mergeCell ref="C249:L249"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="F250:H250"/>
-    <mergeCell ref="K250:L250"/>
-    <mergeCell ref="C231:L231"/>
-    <mergeCell ref="D232:E232"/>
-    <mergeCell ref="F232:H232"/>
-    <mergeCell ref="K232:L232"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="F165:H165"/>
-    <mergeCell ref="K165:L165"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="K221:L221"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="F219:H219"/>
-    <mergeCell ref="K219:L219"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="F220:H220"/>
-    <mergeCell ref="K220:L220"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="F215:H215"/>
-    <mergeCell ref="K215:L215"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="F218:H218"/>
-    <mergeCell ref="K218:L218"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="F217:H217"/>
-    <mergeCell ref="K217:L217"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="F152:H152"/>
-    <mergeCell ref="K152:L152"/>
-    <mergeCell ref="C153:L153"/>
-    <mergeCell ref="C213:L213"/>
-    <mergeCell ref="C214:L214"/>
-    <mergeCell ref="C210:L210"/>
-    <mergeCell ref="C149:L149"/>
-    <mergeCell ref="C150:L150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="F151:H151"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="C206:L206"/>
-    <mergeCell ref="C207:L207"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="F208:H208"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="F209:H209"/>
-    <mergeCell ref="K209:L209"/>
-    <mergeCell ref="D202:F202"/>
-    <mergeCell ref="H202:J202"/>
-    <mergeCell ref="D203:F203"/>
-    <mergeCell ref="H203:J203"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="F199:H199"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="F198:H198"/>
-    <mergeCell ref="K198:L198"/>
-    <mergeCell ref="C200:L200"/>
-    <mergeCell ref="D201:F201"/>
-    <mergeCell ref="H201:J201"/>
-    <mergeCell ref="K199:L199"/>
-    <mergeCell ref="D196:E196"/>
-    <mergeCell ref="F196:H196"/>
-    <mergeCell ref="K196:L196"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="F197:H197"/>
-    <mergeCell ref="K197:L197"/>
-    <mergeCell ref="D191:F191"/>
-    <mergeCell ref="H191:J191"/>
-    <mergeCell ref="C194:L194"/>
-    <mergeCell ref="C195:L195"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="F187:H187"/>
-    <mergeCell ref="K187:L187"/>
-    <mergeCell ref="D190:F190"/>
-    <mergeCell ref="H190:J190"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="F188:H188"/>
-    <mergeCell ref="K188:L188"/>
-    <mergeCell ref="C189:L189"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="F183:H183"/>
-    <mergeCell ref="K183:L183"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="F186:H186"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="F184:H184"/>
-    <mergeCell ref="K184:L184"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="F185:H185"/>
-    <mergeCell ref="K185:L185"/>
+  <mergeCells count="469">
+    <mergeCell ref="C95:L95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="H136:J136"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="C35:L35"/>
+    <mergeCell ref="C36:L36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="C43:L43"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C40:L40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="C53:L53"/>
+    <mergeCell ref="C54:L54"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="C47:L47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="C60:L60"/>
+    <mergeCell ref="C61:L61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="C57:L57"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="C70:L70"/>
+    <mergeCell ref="C71:L71"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="C66:L66"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="C75:L75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="C79:L79"/>
+    <mergeCell ref="C80:L80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:H81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:H94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="C85:L85"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="C90:L90"/>
+    <mergeCell ref="C91:L91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="C99:L99"/>
+    <mergeCell ref="C100:L100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="C104:L104"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="C113:L113"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="C108:L108"/>
+    <mergeCell ref="C109:L109"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="C119:L119"/>
+    <mergeCell ref="C120:L120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C134:L134"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="H135:J135"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="K133:L133"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="F130:H130"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="C141:L141"/>
+    <mergeCell ref="C142:L142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="K143:L143"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="K144:L144"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="H138:J138"/>
     <mergeCell ref="D145:E145"/>
     <mergeCell ref="F145:H145"/>
     <mergeCell ref="K145:L145"/>
@@ -6807,253 +6913,204 @@
     <mergeCell ref="K163:L163"/>
     <mergeCell ref="D169:F169"/>
     <mergeCell ref="H169:J169"/>
-    <mergeCell ref="C141:L141"/>
-    <mergeCell ref="C142:L142"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="K143:L143"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="K144:L144"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="H138:J138"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="F126:H126"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="F132:H132"/>
-    <mergeCell ref="K132:L132"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="K129:L129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="F130:H130"/>
-    <mergeCell ref="K130:L130"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="C134:L134"/>
-    <mergeCell ref="D135:F135"/>
-    <mergeCell ref="H135:J135"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="K131:L131"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="K133:L133"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="K124:L124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="H115:J115"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="H116:J116"/>
-    <mergeCell ref="C119:L119"/>
-    <mergeCell ref="C120:L120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="C108:L108"/>
-    <mergeCell ref="C109:L109"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:H112"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="C104:L104"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="K111:L111"/>
-    <mergeCell ref="C113:L113"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="C99:L99"/>
-    <mergeCell ref="C100:L100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="C85:L85"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="C90:L90"/>
-    <mergeCell ref="C91:L91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:H93"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:H84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="C75:L75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="C79:L79"/>
-    <mergeCell ref="C80:L80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:H82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="C70:L70"/>
-    <mergeCell ref="C71:L71"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="C66:L66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="C60:L60"/>
-    <mergeCell ref="C61:L61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="C57:L57"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="C53:L53"/>
-    <mergeCell ref="C54:L54"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="C47:L47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="C43:L43"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C40:L40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="C35:L35"/>
-    <mergeCell ref="C36:L36"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="C95:L95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="H136:J136"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="F183:H183"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="F186:H186"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="F184:H184"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="F185:H185"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="F187:H187"/>
+    <mergeCell ref="K187:L187"/>
+    <mergeCell ref="D190:F190"/>
+    <mergeCell ref="H190:J190"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="F188:H188"/>
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="C189:L189"/>
+    <mergeCell ref="D196:E196"/>
+    <mergeCell ref="F196:H196"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="F197:H197"/>
+    <mergeCell ref="K197:L197"/>
+    <mergeCell ref="D191:F191"/>
+    <mergeCell ref="H191:J191"/>
+    <mergeCell ref="C194:L194"/>
+    <mergeCell ref="C195:L195"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="F200:H200"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="F198:H198"/>
+    <mergeCell ref="K198:L198"/>
+    <mergeCell ref="C201:L201"/>
+    <mergeCell ref="D202:F202"/>
+    <mergeCell ref="H202:J202"/>
+    <mergeCell ref="K200:L200"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="F199:H199"/>
+    <mergeCell ref="K199:L199"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="F152:H152"/>
+    <mergeCell ref="K152:L152"/>
+    <mergeCell ref="C153:L153"/>
+    <mergeCell ref="C214:L214"/>
+    <mergeCell ref="C215:L215"/>
+    <mergeCell ref="C211:L211"/>
+    <mergeCell ref="C149:L149"/>
+    <mergeCell ref="C150:L150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="F151:H151"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="C207:L207"/>
+    <mergeCell ref="C208:L208"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="F209:H209"/>
+    <mergeCell ref="K209:L209"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="F210:H210"/>
+    <mergeCell ref="K210:L210"/>
+    <mergeCell ref="D203:F203"/>
+    <mergeCell ref="H203:J203"/>
+    <mergeCell ref="D204:F204"/>
+    <mergeCell ref="H204:J204"/>
+    <mergeCell ref="K222:L222"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="F220:H220"/>
+    <mergeCell ref="K220:L220"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="F221:H221"/>
+    <mergeCell ref="K221:L221"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="F216:H216"/>
+    <mergeCell ref="K216:L216"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="F219:H219"/>
+    <mergeCell ref="K219:L219"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="F218:H218"/>
+    <mergeCell ref="K218:L218"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="F252:H252"/>
+    <mergeCell ref="K252:L252"/>
+    <mergeCell ref="C253:L253"/>
+    <mergeCell ref="C156:L156"/>
+    <mergeCell ref="C157:L157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="C235:L235"/>
+    <mergeCell ref="C249:L249"/>
+    <mergeCell ref="C250:L250"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="F251:H251"/>
+    <mergeCell ref="K251:L251"/>
+    <mergeCell ref="C232:L232"/>
+    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="F233:H233"/>
+    <mergeCell ref="K233:L233"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="F165:H165"/>
+    <mergeCell ref="K165:L165"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="C238:L238"/>
+    <mergeCell ref="C239:L239"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="F166:H166"/>
+    <mergeCell ref="K166:L166"/>
+    <mergeCell ref="C167:L167"/>
+    <mergeCell ref="D168:F168"/>
+    <mergeCell ref="H168:J168"/>
+    <mergeCell ref="D234:E234"/>
+    <mergeCell ref="F234:H234"/>
+    <mergeCell ref="K234:L234"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="F217:H217"/>
+    <mergeCell ref="K217:L217"/>
+    <mergeCell ref="C231:L231"/>
+    <mergeCell ref="C223:L223"/>
+    <mergeCell ref="D224:F224"/>
+    <mergeCell ref="H224:J224"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="H227:J227"/>
+    <mergeCell ref="D228:F228"/>
+    <mergeCell ref="H228:J228"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="F222:H222"/>
+    <mergeCell ref="D246:F246"/>
+    <mergeCell ref="H246:J246"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="F240:H240"/>
+    <mergeCell ref="D244:F244"/>
+    <mergeCell ref="H244:J244"/>
+    <mergeCell ref="C243:L243"/>
+    <mergeCell ref="D245:F245"/>
+    <mergeCell ref="H245:J245"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="F242:H242"/>
+    <mergeCell ref="K242:L242"/>
+    <mergeCell ref="K241:L241"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="F241:H241"/>
+    <mergeCell ref="K240:L240"/>
+    <mergeCell ref="F266:H266"/>
+    <mergeCell ref="K266:L266"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="F263:H263"/>
+    <mergeCell ref="K263:L263"/>
+    <mergeCell ref="C256:L256"/>
+    <mergeCell ref="C257:L257"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="F258:H258"/>
+    <mergeCell ref="K258:L258"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="K259:L259"/>
+    <mergeCell ref="D268:F268"/>
+    <mergeCell ref="H268:J268"/>
+    <mergeCell ref="F264:H264"/>
+    <mergeCell ref="K264:L264"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="D226:F226"/>
+    <mergeCell ref="H226:J226"/>
+    <mergeCell ref="D225:F225"/>
+    <mergeCell ref="K260:L260"/>
+    <mergeCell ref="K261:L261"/>
+    <mergeCell ref="K262:L262"/>
+    <mergeCell ref="K265:L265"/>
+    <mergeCell ref="D262:E262"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="F265:H265"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="D261:E261"/>
+    <mergeCell ref="F261:H261"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="F260:H260"/>
+    <mergeCell ref="C267:L267"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="C177:L177"/>
+    <mergeCell ref="D178:F178"/>
+    <mergeCell ref="H178:J178"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="F176:H176"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="C172:L172"/>
+    <mergeCell ref="C173:L173"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="F174:H174"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="F175:H175"/>
+    <mergeCell ref="K175:L175"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7062,7 +7119,7 @@
     <brk id="33" max="13" man="1"/>
     <brk id="106" max="13" man="1"/>
     <brk id="192" max="13" man="1"/>
-    <brk id="253" max="13" man="1"/>
+    <brk id="254" max="13" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>